--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -1,40 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB4461-8745-4C5B-A585-BB77E1C2D286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3158D7-6F42-634A-8D11-509B5CCB9995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2220" windowWidth="28485" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="460" windowWidth="28480" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
     <sheet name="Practice_Tracker" sheetId="2" r:id="rId2"/>
-    <sheet name="Weaknesses" sheetId="3" r:id="rId3"/>
+    <sheet name="Hit_List" sheetId="3" r:id="rId3"/>
     <sheet name="Similar_Questions" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LC_Most_Freq!$A$8:$M$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Practice_Tracker!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2425,36 +2413,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2516,113 +2474,42 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2653,27 +2540,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2816,6 +2717,63 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2902,6 +2860,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3119,6 +3097,16 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3133,43 +3121,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A8:M108" xr:uid="{F7882A93-E39D-473E-86A6-F23907582244}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{17706BA0-8E09-4B27-9369-1AFF82636703}" name="#"/>
-    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{6F1A3F84-8971-4EB8-AE92-6BC6A6EF70F9}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{61AD404F-D0CC-467D-91AB-AF7025DB49EF}" name="Difficulty"/>
-    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="33">
       <calculatedColumnFormula>Practice_Tracker!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="27">
       <calculatedColumnFormula>Practice_Tracker!H103</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:I202" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:I202" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A2:I202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{DA544CD4-E465-42D4-8AE1-0C338E74CD46}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="16">
       <calculatedColumnFormula>IF(OR(E3&lt;&gt;"",F3&lt;&gt;"",G3&lt;&gt;""),"Complete","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{1EA37D65-8888-428C-A561-36C085B5AF7C}" name="Similar_Problems"/>
@@ -3179,7 +3167,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A2:F7" xr:uid="{26DE10B7-C94D-4E22-AA37-91C6D72263E5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{70613855-D004-446C-8685-CAC0EC183A3E}" name="#"/>
@@ -3187,7 +3175,7 @@
     <tableColumn id="3" xr3:uid="{61B12C10-9CD2-433F-885C-73A9EDBC9E8A}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{302621E1-E966-487C-A730-615A1566C3BB}" name="Difficulty"/>
     <tableColumn id="5" xr3:uid="{D9FED768-119E-46FA-AEC0-346E2C0A7CC4}" name="Company"/>
-    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3393,35 +3381,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
         <v>65</v>
@@ -3433,10 +3421,10 @@
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="125" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
         <v>135</v>
@@ -3447,44 +3435,44 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="98">
+      <c r="B3" s="126"/>
+      <c r="C3" s="123">
         <f ca="1">(C1+C2)/C5</f>
         <v>2.9850746268656718</v>
       </c>
-      <c r="D3" s="99"/>
+      <c r="D3" s="124"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="127" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="96">
+      <c r="B4" s="128"/>
+      <c r="C4" s="121">
         <v>44196</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="129" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="97">
+      <c r="B5" s="130"/>
+      <c r="C5" s="122">
         <f ca="1">C4-TODAY()</f>
         <v>67</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="122"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -4448,7 +4436,7 @@
       <c r="H26" s="65">
         <v>249</v>
       </c>
-      <c r="I26" s="122" t="s">
+      <c r="I26" s="112" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="61">
@@ -5674,7 +5662,7 @@
         <f>Practice_Tracker!H44</f>
         <v>Complete</v>
       </c>
-      <c r="G50" s="126" t="s">
+      <c r="G50" s="116" t="s">
         <v>546</v>
       </c>
       <c r="H50" s="65">
@@ -8618,7 +8606,7 @@
         <f>Practice_Tracker!H102</f>
         <v>Complete</v>
       </c>
-      <c r="G108" s="126" t="s">
+      <c r="G108" s="116" t="s">
         <v>546</v>
       </c>
       <c r="H108" s="65">
@@ -35397,7 +35385,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5 B8:B1048576 I8:I1048576 I5">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -35742,22 +35730,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:I202"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -35786,7 +35774,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:9" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -35796,17 +35784,17 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94" t="str">
         <f>IF(OR(E3&lt;&gt;"",F3&lt;&gt;"",G3&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:9" thickBot="1">
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -35816,17 +35804,17 @@
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F4" s="129"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104" t="str">
+      <c r="F4" s="119"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94" t="str">
         <f t="shared" ref="H4:H67" si="0">IF(OR(E4&lt;&gt;"",F4&lt;&gt;"",G4&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" spans="1:9" thickBot="1">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -35836,17 +35824,17 @@
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104" t="str">
+      <c r="F5" s="119"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" spans="1:9" thickBot="1">
+    <row r="6" spans="1:9" ht="15" thickBot="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -35856,17 +35844,17 @@
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104" t="str">
+      <c r="F6" s="119"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" spans="1:9" thickBot="1">
+    <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>146</v>
       </c>
@@ -35876,15 +35864,15 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104" t="str">
+      <c r="E7" s="95"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" thickBot="1">
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -35894,17 +35882,17 @@
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104" t="str">
+      <c r="F8" s="119"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -35914,17 +35902,17 @@
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104" t="str">
+      <c r="F9" s="119"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:9" thickBot="1">
+    <row r="10" spans="1:9" ht="15" thickBot="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -35934,17 +35922,17 @@
       <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F10" s="129"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104" t="str">
+      <c r="F10" s="119"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:9" thickBot="1">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -35954,17 +35942,17 @@
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104" t="str">
+      <c r="F11" s="119"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:9" thickBot="1">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -35974,15 +35962,15 @@
       <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104" t="str">
+      <c r="E12" s="95"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" thickBot="1">
+    <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -35992,17 +35980,17 @@
       <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F13" s="129"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104" t="str">
+      <c r="F13" s="119"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:9" thickBot="1">
+    <row r="14" spans="1:9" ht="15" thickBot="1">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -36012,17 +36000,17 @@
       <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104" t="str">
+      <c r="F14" s="119"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:9" thickBot="1">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36032,17 +36020,17 @@
       <c r="C15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F15" s="129"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104" t="str">
+      <c r="F15" s="119"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:9" thickBot="1">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="8">
         <v>238</v>
       </c>
@@ -36052,17 +36040,17 @@
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104" t="str">
+      <c r="F16" s="119"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:8" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36072,17 +36060,17 @@
       <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104" t="str">
+      <c r="F17" s="119"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:8" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" s="8">
         <v>56</v>
       </c>
@@ -36092,17 +36080,17 @@
       <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104" t="str">
+      <c r="F18" s="119"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36112,17 +36100,17 @@
       <c r="C19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104" t="str">
+      <c r="F19" s="119"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:8" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36132,17 +36120,17 @@
       <c r="C20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104" t="str">
+      <c r="F20" s="119"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:8" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -36152,17 +36140,17 @@
       <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104" t="str">
+      <c r="F21" s="119"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:8" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36172,15 +36160,15 @@
       <c r="C22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104" t="str">
+      <c r="E22" s="92"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" thickBot="1">
+    <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>322</v>
       </c>
@@ -36190,17 +36178,17 @@
       <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104" t="str">
+      <c r="F23" s="119"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:8" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -36210,17 +36198,17 @@
       <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104" t="str">
+      <c r="F24" s="119"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:8" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>54</v>
       </c>
@@ -36230,17 +36218,17 @@
       <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104" t="str">
+      <c r="F25" s="119"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:8" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -36250,15 +36238,15 @@
       <c r="C26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104" t="str">
+      <c r="E26" s="95"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>46</v>
       </c>
@@ -36268,15 +36256,15 @@
       <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104" t="str">
+      <c r="E27" s="95"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="8">
         <v>380</v>
       </c>
@@ -36286,17 +36274,17 @@
       <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104" t="str">
+      <c r="F28" s="119"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:8" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="2">
         <v>79</v>
       </c>
@@ -36306,17 +36294,17 @@
       <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F29" s="129"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104" t="str">
+      <c r="F29" s="119"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:8" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36326,17 +36314,17 @@
       <c r="C30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="102" t="s">
+      <c r="E30" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F30" s="129"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104" t="str">
+      <c r="F30" s="119"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:8" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31" s="2">
         <v>253</v>
       </c>
@@ -36346,17 +36334,17 @@
       <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F31" s="129"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104" t="str">
+      <c r="F31" s="119"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:8" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36366,17 +36354,17 @@
       <c r="C32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F32" s="129"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104" t="str">
+      <c r="F32" s="119"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" thickBot="1">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36386,15 +36374,15 @@
       <c r="C33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104" t="str">
+      <c r="E33" s="95"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36404,15 +36392,15 @@
       <c r="C34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104" t="str">
+      <c r="E34" s="95"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>215</v>
       </c>
@@ -36422,15 +36410,15 @@
       <c r="C35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="105"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104" t="str">
+      <c r="E35" s="95"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1">
       <c r="A36" s="8">
         <v>127</v>
       </c>
@@ -36440,15 +36428,15 @@
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104" t="str">
+      <c r="E36" s="95"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" thickBot="1">
+    <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36458,15 +36446,15 @@
       <c r="C37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="105"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104" t="str">
+      <c r="E37" s="95"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" thickBot="1">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="8">
         <v>33</v>
       </c>
@@ -36476,17 +36464,17 @@
       <c r="C38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F38" s="129"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104" t="str">
+      <c r="F38" s="119"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="39" spans="1:9" thickBot="1">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -36496,17 +36484,17 @@
       <c r="C39" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F39" s="129"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="104" t="str">
+      <c r="F39" s="119"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" thickBot="1">
+    <row r="40" spans="1:9" ht="15" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36516,15 +36504,15 @@
       <c r="C40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="105"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104" t="str">
+      <c r="E40" s="95"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" thickBot="1">
+    <row r="41" spans="1:9" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>139</v>
       </c>
@@ -36534,17 +36522,17 @@
       <c r="C41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F41" s="129"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104" t="str">
+      <c r="F41" s="119"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" thickBot="1">
+    <row r="42" spans="1:9" ht="15" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36554,15 +36542,15 @@
       <c r="C42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104" t="str">
+      <c r="E42" s="95"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" thickBot="1">
+    <row r="43" spans="1:9" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36572,15 +36560,15 @@
       <c r="C43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104" t="str">
+      <c r="E43" s="95"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" thickBot="1">
+    <row r="44" spans="1:9" ht="15" thickBot="1">
       <c r="A44" s="8">
         <v>49</v>
       </c>
@@ -36590,20 +36578,20 @@
       <c r="C44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="95" t="s">
         <v>520</v>
       </c>
-      <c r="F44" s="129"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104" t="str">
+      <c r="F44" s="119"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
-      <c r="I44" s="115" t="s">
+      <c r="I44" s="105" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:9" thickBot="1">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>152</v>
       </c>
@@ -36613,17 +36601,17 @@
       <c r="C45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F45" s="129"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104" t="str">
+      <c r="F45" s="119"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" thickBot="1">
+    <row r="46" spans="1:9" ht="15" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36633,15 +36621,15 @@
       <c r="C46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104" t="str">
+      <c r="E46" s="95"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" thickBot="1">
+    <row r="47" spans="1:9" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36651,15 +36639,15 @@
       <c r="C47" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104" t="str">
+      <c r="E47" s="95"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" thickBot="1">
+    <row r="48" spans="1:9" ht="15" thickBot="1">
       <c r="A48" s="8">
         <v>347</v>
       </c>
@@ -36669,15 +36657,15 @@
       <c r="C48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="104" t="str">
+      <c r="E48" s="95"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" thickBot="1">
+    <row r="49" spans="1:8" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>227</v>
       </c>
@@ -36687,15 +36675,15 @@
       <c r="C49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="105"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104" t="str">
+      <c r="E49" s="95"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" thickBot="1">
+    <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -36705,17 +36693,17 @@
       <c r="C50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F50" s="129"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="104" t="str">
+      <c r="F50" s="119"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:8" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -36725,17 +36713,17 @@
       <c r="C51" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F51" s="129"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104" t="str">
+      <c r="F51" s="119"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:8" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -36745,15 +36733,15 @@
       <c r="C52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104" t="str">
+      <c r="E52" s="95"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
@@ -36763,15 +36751,15 @@
       <c r="C53" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="104" t="str">
+      <c r="E53" s="95"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -36781,17 +36769,17 @@
       <c r="C54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F54" s="129"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104" t="str">
+      <c r="F54" s="119"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" spans="1:8" thickBot="1">
+    <row r="55" spans="1:8" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>105</v>
       </c>
@@ -36801,17 +36789,17 @@
       <c r="C55" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="102" t="s">
+      <c r="E55" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="104" t="str">
+      <c r="F55" s="119"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:8" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="8">
         <v>300</v>
       </c>
@@ -36821,17 +36809,17 @@
       <c r="C56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="102" t="s">
+      <c r="E56" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F56" s="129"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="104" t="str">
+      <c r="F56" s="119"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:8" thickBot="1">
+    <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -36841,17 +36829,17 @@
       <c r="C57" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="102" t="s">
+      <c r="E57" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F57" s="129"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="104" t="str">
+      <c r="F57" s="119"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:8" thickBot="1">
+    <row r="58" spans="1:8" ht="15" thickBot="1">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -36861,15 +36849,15 @@
       <c r="C58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="105"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="104" t="str">
+      <c r="E58" s="95"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -36879,15 +36867,15 @@
       <c r="C59" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="104" t="str">
+      <c r="E59" s="95"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="8">
         <v>78</v>
       </c>
@@ -36897,17 +36885,17 @@
       <c r="C60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="102" t="s">
+      <c r="E60" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F60" s="129"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104" t="str">
+      <c r="F60" s="119"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:8" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -36917,17 +36905,17 @@
       <c r="C61" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="102" t="s">
+      <c r="E61" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F61" s="129"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="104" t="str">
+      <c r="F61" s="119"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:8" thickBot="1">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -36937,15 +36925,15 @@
       <c r="C62" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="105"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104" t="str">
+      <c r="E62" s="95"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" thickBot="1">
+    <row r="63" spans="1:8" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -36955,17 +36943,17 @@
       <c r="C63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="102" t="s">
+      <c r="E63" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F63" s="129"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="104" t="str">
+      <c r="F63" s="119"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:8" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -36975,15 +36963,15 @@
       <c r="C64" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="105"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="104" t="str">
+      <c r="E64" s="95"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" thickBot="1">
+    <row r="65" spans="1:8" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -36993,17 +36981,17 @@
       <c r="C65" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="102" t="s">
+      <c r="E65" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F65" s="129"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="104" t="str">
+      <c r="F65" s="119"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:8" thickBot="1">
+    <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37013,15 +37001,15 @@
       <c r="C66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="105"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104" t="str">
+      <c r="E66" s="95"/>
+      <c r="F66" s="119"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" thickBot="1">
+    <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37031,17 +37019,17 @@
       <c r="C67" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F67" s="129"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="104" t="str">
+      <c r="F67" s="119"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:8" thickBot="1">
+    <row r="68" spans="1:8" ht="15" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37051,15 +37039,15 @@
       <c r="C68" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="105"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104" t="str">
+      <c r="E68" s="95"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="94" t="str">
         <f t="shared" ref="H68:H131" si="1">IF(OR(E68&lt;&gt;"",F68&lt;&gt;"",G68&lt;&gt;""),"Complete","")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" thickBot="1">
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37069,17 +37057,17 @@
       <c r="C69" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="102" t="s">
+      <c r="E69" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F69" s="129"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="104" t="str">
+      <c r="F69" s="119"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:8" thickBot="1">
+    <row r="70" spans="1:8" ht="15" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37089,15 +37077,15 @@
       <c r="C70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="105"/>
-      <c r="F70" s="129"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="104" t="str">
+      <c r="E70" s="95"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" thickBot="1">
+    <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37107,15 +37095,15 @@
       <c r="C71" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="105"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="104" t="str">
+      <c r="E71" s="95"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" thickBot="1">
+    <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37125,15 +37113,15 @@
       <c r="C72" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="105"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="104" t="str">
+      <c r="E72" s="95"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" thickBot="1">
+    <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37143,15 +37131,15 @@
       <c r="C73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="105"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="104" t="str">
+      <c r="E73" s="95"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" thickBot="1">
+    <row r="74" spans="1:8" ht="15" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37161,15 +37149,15 @@
       <c r="C74" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="105"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="104" t="str">
+      <c r="E74" s="95"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" thickBot="1">
+    <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37179,17 +37167,17 @@
       <c r="C75" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="102" t="s">
+      <c r="E75" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F75" s="129"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="104" t="str">
+      <c r="F75" s="119"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:8" thickBot="1">
+    <row r="76" spans="1:8" ht="15" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37199,15 +37187,15 @@
       <c r="C76" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="104" t="str">
+      <c r="E76" s="95"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" thickBot="1">
+    <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37217,15 +37205,15 @@
       <c r="C77" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="105"/>
-      <c r="F77" s="129"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="104" t="str">
+      <c r="E77" s="95"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" thickBot="1">
+    <row r="78" spans="1:8" ht="15" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37235,15 +37223,15 @@
       <c r="C78" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="129"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="104" t="str">
+      <c r="E78" s="95"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" thickBot="1">
+    <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37253,17 +37241,17 @@
       <c r="C79" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="102" t="s">
+      <c r="E79" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F79" s="129"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="104" t="str">
+      <c r="F79" s="119"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:8" thickBot="1">
+    <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>
@@ -37273,17 +37261,17 @@
       <c r="C80" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="102" t="s">
+      <c r="E80" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F80" s="129"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="104" t="str">
+      <c r="F80" s="119"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" spans="1:8" thickBot="1">
+    <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>287</v>
       </c>
@@ -37293,17 +37281,17 @@
       <c r="C81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="102" t="s">
+      <c r="E81" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F81" s="129"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="104" t="str">
+      <c r="F81" s="119"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" spans="1:8" thickBot="1">
+    <row r="82" spans="1:8" ht="15" thickBot="1">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -37313,15 +37301,15 @@
       <c r="C82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="105"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="104" t="str">
+      <c r="E82" s="95"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" thickBot="1">
+    <row r="83" spans="1:8" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37331,15 +37319,15 @@
       <c r="C83" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="105"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="104" t="str">
+      <c r="E83" s="95"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" thickBot="1">
+    <row r="84" spans="1:8" ht="15" thickBot="1">
       <c r="A84" s="8">
         <v>240</v>
       </c>
@@ -37349,15 +37337,15 @@
       <c r="C84" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="105"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="104" t="str">
+      <c r="E84" s="95"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" thickBot="1">
+    <row r="85" spans="1:8" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37367,15 +37355,15 @@
       <c r="C85" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="105"/>
-      <c r="F85" s="129"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="104" t="str">
+      <c r="E85" s="95"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" thickBot="1">
+    <row r="86" spans="1:8" ht="15" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37385,17 +37373,17 @@
       <c r="C86" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="102" t="s">
+      <c r="E86" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F86" s="129"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="104" t="str">
+      <c r="F86" s="119"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" spans="1:8" thickBot="1">
+    <row r="87" spans="1:8" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>341</v>
       </c>
@@ -37405,15 +37393,15 @@
       <c r="C87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="105"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="104" t="str">
+      <c r="E87" s="95"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" thickBot="1">
+    <row r="88" spans="1:8" ht="15" thickBot="1">
       <c r="A88" s="8">
         <v>19</v>
       </c>
@@ -37423,17 +37411,17 @@
       <c r="C88" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="102" t="s">
+      <c r="E88" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F88" s="129"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="104" t="str">
+      <c r="F88" s="119"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" spans="1:8" thickBot="1">
+    <row r="89" spans="1:8" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>55</v>
       </c>
@@ -37443,17 +37431,17 @@
       <c r="C89" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="102" t="s">
+      <c r="E89" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F89" s="129"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="104" t="str">
+      <c r="F89" s="119"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" spans="1:8" thickBot="1">
+    <row r="90" spans="1:8" ht="15" thickBot="1">
       <c r="A90" s="8">
         <v>166</v>
       </c>
@@ -37463,33 +37451,33 @@
       <c r="C90" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="105"/>
-      <c r="F90" s="129"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="104" t="str">
+      <c r="E90" s="95"/>
+      <c r="F90" s="119"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" thickBot="1">
+    <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
-      <c r="B91" s="130" t="s">
+      <c r="B91" s="120" t="s">
         <v>229</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="105"/>
-      <c r="F91" s="129"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104" t="str">
+      <c r="E91" s="95"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" thickBot="1">
+    <row r="92" spans="1:8" ht="15" thickBot="1">
       <c r="A92" s="8">
         <v>395</v>
       </c>
@@ -37499,15 +37487,15 @@
       <c r="C92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="105"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="104" t="str">
+      <c r="E92" s="95"/>
+      <c r="F92" s="119"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" thickBot="1">
+    <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>207</v>
       </c>
@@ -37517,15 +37505,15 @@
       <c r="C93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="105"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="104" t="str">
+      <c r="E93" s="95"/>
+      <c r="F93" s="119"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" thickBot="1">
+    <row r="94" spans="1:8" ht="15" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37535,15 +37523,15 @@
       <c r="C94" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="105"/>
-      <c r="F94" s="129"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="104" t="str">
+      <c r="E94" s="95"/>
+      <c r="F94" s="119"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" thickBot="1">
+    <row r="95" spans="1:8" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37553,15 +37541,15 @@
       <c r="C95" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="105"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="104" t="str">
+      <c r="E95" s="95"/>
+      <c r="F95" s="119"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" thickBot="1">
+    <row r="96" spans="1:8" ht="15" thickBot="1">
       <c r="A96" s="8">
         <v>378</v>
       </c>
@@ -37571,15 +37559,15 @@
       <c r="C96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="105"/>
-      <c r="F96" s="129"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="104" t="str">
+      <c r="E96" s="95"/>
+      <c r="F96" s="119"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" thickBot="1">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37589,15 +37577,15 @@
       <c r="C97" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="105"/>
-      <c r="F97" s="129"/>
-      <c r="G97" s="103"/>
-      <c r="H97" s="104" t="str">
+      <c r="E97" s="95"/>
+      <c r="F97" s="119"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" thickBot="1">
+    <row r="98" spans="1:9" ht="15" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37607,15 +37595,15 @@
       <c r="C98" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="105"/>
-      <c r="F98" s="129"/>
-      <c r="G98" s="103"/>
-      <c r="H98" s="104" t="str">
+      <c r="E98" s="95"/>
+      <c r="F98" s="119"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" thickBot="1">
+    <row r="99" spans="1:9" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37625,15 +37613,15 @@
       <c r="C99" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="105"/>
-      <c r="F99" s="129"/>
-      <c r="G99" s="103"/>
-      <c r="H99" s="104" t="str">
+      <c r="E99" s="95"/>
+      <c r="F99" s="119"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" thickBot="1">
+    <row r="100" spans="1:9" ht="15" thickBot="1">
       <c r="A100" s="8">
         <v>371</v>
       </c>
@@ -37643,15 +37631,15 @@
       <c r="C100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="105"/>
-      <c r="F100" s="129"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="104" t="str">
+      <c r="E100" s="95"/>
+      <c r="F100" s="119"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" thickBot="1">
+    <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>29</v>
       </c>
@@ -37661,15 +37649,15 @@
       <c r="C101" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="105"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="103"/>
-      <c r="H101" s="104" t="str">
+      <c r="E101" s="95"/>
+      <c r="F101" s="119"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -37679,15 +37667,15 @@
       <c r="C102" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="115" t="s">
+      <c r="D102" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="E102" s="105" t="s">
+      <c r="E102" s="95" t="s">
         <v>520</v>
       </c>
-      <c r="F102" s="129"/>
-      <c r="G102" s="103"/>
-      <c r="H102" s="104" t="str">
+      <c r="F102" s="119"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
@@ -37695,7 +37683,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>253</v>
       </c>
@@ -37705,17 +37693,17 @@
       <c r="C103" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="102" t="s">
+      <c r="E103" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F103" s="129"/>
-      <c r="G103" s="103"/>
-      <c r="H103" s="104" t="str">
+      <c r="F103" s="119"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>1428</v>
       </c>
@@ -37725,17 +37713,17 @@
       <c r="C104" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="102" t="s">
+      <c r="E104" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F104" s="129"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="104" t="str">
+      <c r="F104" s="119"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>362</v>
       </c>
@@ -37745,17 +37733,17 @@
       <c r="C105" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="102" t="s">
+      <c r="E105" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F105" s="129"/>
-      <c r="G105" s="103"/>
-      <c r="H105" s="104" t="str">
+      <c r="F105" s="119"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>1197</v>
       </c>
@@ -37765,17 +37753,17 @@
       <c r="C106" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="102" t="s">
+      <c r="E106" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F106" s="129"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="104" t="str">
+      <c r="F106" s="119"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>348</v>
       </c>
@@ -37785,17 +37773,17 @@
       <c r="C107" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="102" t="s">
+      <c r="E107" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F107" s="129"/>
-      <c r="G107" s="103"/>
-      <c r="H107" s="104" t="str">
+      <c r="F107" s="119"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <v>314</v>
       </c>
@@ -37805,17 +37793,17 @@
       <c r="C108" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="102" t="s">
+      <c r="E108" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F108" s="129"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="104" t="str">
+      <c r="F108" s="119"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -37825,17 +37813,17 @@
       <c r="C109" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="102" t="s">
+      <c r="E109" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F109" s="129"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="104" t="str">
+      <c r="F109" s="119"/>
+      <c r="G109" s="93"/>
+      <c r="H109" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="13">
         <v>1060</v>
       </c>
@@ -37845,17 +37833,17 @@
       <c r="C110" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="102" t="s">
+      <c r="E110" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F110" s="129"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="104" t="str">
+      <c r="F110" s="119"/>
+      <c r="G110" s="93"/>
+      <c r="H110" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>311</v>
       </c>
@@ -37865,17 +37853,17 @@
       <c r="C111" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="102" t="s">
+      <c r="E111" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F111" s="129"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="104" t="str">
+      <c r="F111" s="119"/>
+      <c r="G111" s="93"/>
+      <c r="H111" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -37885,17 +37873,17 @@
       <c r="C112" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="102" t="s">
+      <c r="E112" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F112" s="129"/>
-      <c r="G112" s="103"/>
-      <c r="H112" s="104" t="str">
+      <c r="F112" s="119"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>1229</v>
       </c>
@@ -37905,17 +37893,17 @@
       <c r="C113" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="102" t="s">
+      <c r="E113" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F113" s="129"/>
-      <c r="G113" s="103"/>
-      <c r="H113" s="104" t="str">
+      <c r="F113" s="119"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <v>353</v>
       </c>
@@ -37925,17 +37913,17 @@
       <c r="C114" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="102" t="s">
+      <c r="E114" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F114" s="129"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="104" t="str">
+      <c r="F114" s="119"/>
+      <c r="G114" s="93"/>
+      <c r="H114" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>694</v>
       </c>
@@ -37945,17 +37933,17 @@
       <c r="C115" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="102" t="s">
+      <c r="E115" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F115" s="129"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="104" t="str">
+      <c r="F115" s="119"/>
+      <c r="G115" s="93"/>
+      <c r="H115" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <v>277</v>
       </c>
@@ -37965,17 +37953,17 @@
       <c r="C116" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="102" t="s">
+      <c r="E116" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="F116" s="129"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="104" t="str">
+      <c r="F116" s="119"/>
+      <c r="G116" s="93"/>
+      <c r="H116" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>545</v>
       </c>
@@ -37985,15 +37973,15 @@
       <c r="C117" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="106"/>
-      <c r="F117" s="129"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="104" t="str">
+      <c r="E117" s="96"/>
+      <c r="F117" s="119"/>
+      <c r="G117" s="93"/>
+      <c r="H117" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <v>286</v>
       </c>
@@ -38003,15 +37991,15 @@
       <c r="C118" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="106"/>
-      <c r="F118" s="129"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="104" t="str">
+      <c r="E118" s="96"/>
+      <c r="F118" s="119"/>
+      <c r="G118" s="93"/>
+      <c r="H118" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38021,15 +38009,15 @@
       <c r="C119" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="106"/>
-      <c r="F119" s="129"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="104" t="str">
+      <c r="E119" s="96"/>
+      <c r="F119" s="119"/>
+      <c r="G119" s="93"/>
+      <c r="H119" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <v>249</v>
       </c>
@@ -38039,25 +38027,25 @@
       <c r="C120" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="115" t="s">
+      <c r="D120" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="E120" s="106" t="s">
+      <c r="E120" s="96" t="s">
         <v>520</v>
       </c>
-      <c r="F120" s="129" t="s">
+      <c r="F120" s="119" t="s">
         <v>547</v>
       </c>
-      <c r="G120" s="103"/>
-      <c r="H120" s="104" t="str">
+      <c r="G120" s="93"/>
+      <c r="H120" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
-      <c r="I120" s="115" t="s">
+      <c r="I120" s="105" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>1236</v>
       </c>
@@ -38067,15 +38055,15 @@
       <c r="C121" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="106"/>
-      <c r="F121" s="129"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="104" t="str">
+      <c r="E121" s="96"/>
+      <c r="F121" s="119"/>
+      <c r="G121" s="93"/>
+      <c r="H121" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <v>723</v>
       </c>
@@ -38085,15 +38073,15 @@
       <c r="C122" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="106"/>
-      <c r="F122" s="129"/>
-      <c r="G122" s="103"/>
-      <c r="H122" s="104" t="str">
+      <c r="E122" s="96"/>
+      <c r="F122" s="119"/>
+      <c r="G122" s="93"/>
+      <c r="H122" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38103,15 +38091,15 @@
       <c r="C123" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="106"/>
-      <c r="F123" s="129"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="104" t="str">
+      <c r="E123" s="96"/>
+      <c r="F123" s="119"/>
+      <c r="G123" s="93"/>
+      <c r="H123" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <v>426</v>
       </c>
@@ -38121,15 +38109,15 @@
       <c r="C124" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="106"/>
-      <c r="F124" s="129"/>
-      <c r="G124" s="103"/>
-      <c r="H124" s="104" t="str">
+      <c r="E124" s="96"/>
+      <c r="F124" s="119"/>
+      <c r="G124" s="93"/>
+      <c r="H124" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>256</v>
       </c>
@@ -38139,15 +38127,15 @@
       <c r="C125" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="106"/>
-      <c r="F125" s="129"/>
-      <c r="G125" s="103"/>
-      <c r="H125" s="104" t="str">
+      <c r="E125" s="96"/>
+      <c r="F125" s="119"/>
+      <c r="G125" s="93"/>
+      <c r="H125" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="5">
         <v>366</v>
       </c>
@@ -38157,15 +38145,15 @@
       <c r="C126" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="106"/>
-      <c r="F126" s="129"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="104" t="str">
+      <c r="E126" s="96"/>
+      <c r="F126" s="119"/>
+      <c r="G126" s="93"/>
+      <c r="H126" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>1244</v>
       </c>
@@ -38175,15 +38163,15 @@
       <c r="C127" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="106"/>
-      <c r="F127" s="129"/>
-      <c r="G127" s="103"/>
-      <c r="H127" s="104" t="str">
+      <c r="E127" s="96"/>
+      <c r="F127" s="119"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="5">
         <v>1167</v>
       </c>
@@ -38193,15 +38181,15 @@
       <c r="C128" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="106"/>
-      <c r="F128" s="129"/>
-      <c r="G128" s="103"/>
-      <c r="H128" s="104" t="str">
+      <c r="E128" s="96"/>
+      <c r="F128" s="119"/>
+      <c r="G128" s="93"/>
+      <c r="H128" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38211,15 +38199,15 @@
       <c r="C129" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E129" s="106"/>
-      <c r="F129" s="129"/>
-      <c r="G129" s="103"/>
-      <c r="H129" s="104" t="str">
+      <c r="E129" s="96"/>
+      <c r="F129" s="119"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="5">
         <v>616</v>
       </c>
@@ -38229,15 +38217,15 @@
       <c r="C130" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="106"/>
-      <c r="F130" s="129"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="104" t="str">
+      <c r="E130" s="96"/>
+      <c r="F130" s="119"/>
+      <c r="G130" s="93"/>
+      <c r="H130" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="5">
         <v>333</v>
       </c>
@@ -38247,15 +38235,15 @@
       <c r="C131" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="106"/>
-      <c r="F131" s="129"/>
-      <c r="G131" s="103"/>
-      <c r="H131" s="104" t="str">
+      <c r="E131" s="96"/>
+      <c r="F131" s="119"/>
+      <c r="G131" s="93"/>
+      <c r="H131" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="5">
         <v>490</v>
       </c>
@@ -38265,15 +38253,15 @@
       <c r="C132" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="106"/>
-      <c r="F132" s="129"/>
-      <c r="G132" s="103"/>
-      <c r="H132" s="104" t="str">
+      <c r="E132" s="96"/>
+      <c r="F132" s="119"/>
+      <c r="G132" s="93"/>
+      <c r="H132" s="94" t="str">
         <f t="shared" ref="H132:H195" si="2">IF(OR(E132&lt;&gt;"",F132&lt;&gt;"",G132&lt;&gt;""),"Complete","")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38283,15 +38271,15 @@
       <c r="C133" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="106"/>
-      <c r="F133" s="129"/>
-      <c r="G133" s="103"/>
-      <c r="H133" s="104" t="str">
+      <c r="E133" s="96"/>
+      <c r="F133" s="119"/>
+      <c r="G133" s="93"/>
+      <c r="H133" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="5">
         <v>1057</v>
       </c>
@@ -38301,15 +38289,15 @@
       <c r="C134" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="106"/>
-      <c r="F134" s="129"/>
-      <c r="G134" s="103"/>
-      <c r="H134" s="104" t="str">
+      <c r="E134" s="96"/>
+      <c r="F134" s="119"/>
+      <c r="G134" s="93"/>
+      <c r="H134" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38319,15 +38307,15 @@
       <c r="C135" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="106"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="103"/>
-      <c r="H135" s="104" t="str">
+      <c r="E135" s="96"/>
+      <c r="F135" s="119"/>
+      <c r="G135" s="93"/>
+      <c r="H135" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="5">
         <v>259</v>
       </c>
@@ -38337,15 +38325,15 @@
       <c r="C136" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="106"/>
-      <c r="F136" s="129"/>
-      <c r="G136" s="103"/>
-      <c r="H136" s="104" t="str">
+      <c r="E136" s="96"/>
+      <c r="F136" s="119"/>
+      <c r="G136" s="93"/>
+      <c r="H136" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="5">
         <v>323</v>
       </c>
@@ -38355,15 +38343,15 @@
       <c r="C137" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="106"/>
-      <c r="F137" s="129"/>
-      <c r="G137" s="103"/>
-      <c r="H137" s="104" t="str">
+      <c r="E137" s="96"/>
+      <c r="F137" s="119"/>
+      <c r="G137" s="93"/>
+      <c r="H137" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="5">
         <v>247</v>
       </c>
@@ -38373,15 +38361,15 @@
       <c r="C138" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="106"/>
-      <c r="F138" s="129"/>
-      <c r="G138" s="103"/>
-      <c r="H138" s="104" t="str">
+      <c r="E138" s="96"/>
+      <c r="F138" s="119"/>
+      <c r="G138" s="93"/>
+      <c r="H138" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="5">
         <v>1429</v>
       </c>
@@ -38391,15 +38379,15 @@
       <c r="C139" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="106"/>
-      <c r="F139" s="129"/>
-      <c r="G139" s="103"/>
-      <c r="H139" s="104" t="str">
+      <c r="E139" s="96"/>
+      <c r="F139" s="119"/>
+      <c r="G139" s="93"/>
+      <c r="H139" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="5">
         <v>163</v>
       </c>
@@ -38409,15 +38397,15 @@
       <c r="C140" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="106"/>
-      <c r="F140" s="129"/>
-      <c r="G140" s="103"/>
-      <c r="H140" s="104" t="str">
+      <c r="E140" s="96"/>
+      <c r="F140" s="119"/>
+      <c r="G140" s="93"/>
+      <c r="H140" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="5">
         <v>159</v>
       </c>
@@ -38427,15 +38415,15 @@
       <c r="C141" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="106"/>
-      <c r="F141" s="129"/>
-      <c r="G141" s="103"/>
-      <c r="H141" s="104" t="str">
+      <c r="E141" s="96"/>
+      <c r="F141" s="119"/>
+      <c r="G141" s="93"/>
+      <c r="H141" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="5">
         <v>250</v>
       </c>
@@ -38445,15 +38433,15 @@
       <c r="C142" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="106"/>
-      <c r="F142" s="129"/>
-      <c r="G142" s="103"/>
-      <c r="H142" s="104" t="str">
+      <c r="E142" s="96"/>
+      <c r="F142" s="119"/>
+      <c r="G142" s="93"/>
+      <c r="H142" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="5">
         <v>285</v>
       </c>
@@ -38463,15 +38451,15 @@
       <c r="C143" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="106"/>
-      <c r="F143" s="129"/>
-      <c r="G143" s="103"/>
-      <c r="H143" s="104" t="str">
+      <c r="E143" s="96"/>
+      <c r="F143" s="119"/>
+      <c r="G143" s="93"/>
+      <c r="H143" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38481,15 +38469,15 @@
       <c r="C144" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="106"/>
-      <c r="F144" s="129"/>
-      <c r="G144" s="103"/>
-      <c r="H144" s="104" t="str">
+      <c r="E144" s="96"/>
+      <c r="F144" s="119"/>
+      <c r="G144" s="93"/>
+      <c r="H144" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="5">
         <v>280</v>
       </c>
@@ -38499,15 +38487,15 @@
       <c r="C145" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="106"/>
-      <c r="F145" s="129"/>
-      <c r="G145" s="103"/>
-      <c r="H145" s="104" t="str">
+      <c r="E145" s="96"/>
+      <c r="F145" s="119"/>
+      <c r="G145" s="93"/>
+      <c r="H145" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="5">
         <v>1166</v>
       </c>
@@ -38517,15 +38505,15 @@
       <c r="C146" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="106"/>
-      <c r="F146" s="129"/>
-      <c r="G146" s="103"/>
-      <c r="H146" s="104" t="str">
+      <c r="E146" s="96"/>
+      <c r="F146" s="119"/>
+      <c r="G146" s="93"/>
+      <c r="H146" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="5">
         <v>742</v>
       </c>
@@ -38535,15 +38523,15 @@
       <c r="C147" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="106"/>
-      <c r="F147" s="129"/>
-      <c r="G147" s="103"/>
-      <c r="H147" s="104" t="str">
+      <c r="E147" s="96"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="5">
         <v>635</v>
       </c>
@@ -38553,15 +38541,15 @@
       <c r="C148" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="106"/>
-      <c r="F148" s="129"/>
-      <c r="G148" s="103"/>
-      <c r="H148" s="104" t="str">
+      <c r="E148" s="96"/>
+      <c r="F148" s="119"/>
+      <c r="G148" s="93"/>
+      <c r="H148" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="5">
         <v>361</v>
       </c>
@@ -38571,15 +38559,15 @@
       <c r="C149" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="106"/>
-      <c r="F149" s="129"/>
-      <c r="G149" s="103"/>
-      <c r="H149" s="104" t="str">
+      <c r="E149" s="96"/>
+      <c r="F149" s="119"/>
+      <c r="G149" s="93"/>
+      <c r="H149" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="5">
         <v>281</v>
       </c>
@@ -38589,15 +38577,15 @@
       <c r="C150" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="106"/>
-      <c r="F150" s="129"/>
-      <c r="G150" s="103"/>
-      <c r="H150" s="104" t="str">
+      <c r="E150" s="96"/>
+      <c r="F150" s="119"/>
+      <c r="G150" s="93"/>
+      <c r="H150" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38607,15 +38595,15 @@
       <c r="C151" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="106"/>
-      <c r="F151" s="129"/>
-      <c r="G151" s="103"/>
-      <c r="H151" s="104" t="str">
+      <c r="E151" s="96"/>
+      <c r="F151" s="119"/>
+      <c r="G151" s="93"/>
+      <c r="H151" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="5">
         <v>271</v>
       </c>
@@ -38625,15 +38613,15 @@
       <c r="C152" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="106"/>
-      <c r="F152" s="129"/>
-      <c r="G152" s="103"/>
-      <c r="H152" s="104" t="str">
+      <c r="E152" s="96"/>
+      <c r="F152" s="119"/>
+      <c r="G152" s="93"/>
+      <c r="H152" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="5">
         <v>1066</v>
       </c>
@@ -38643,15 +38631,15 @@
       <c r="C153" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="106"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="103"/>
-      <c r="H153" s="104" t="str">
+      <c r="E153" s="96"/>
+      <c r="F153" s="119"/>
+      <c r="G153" s="93"/>
+      <c r="H153" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="5">
         <v>161</v>
       </c>
@@ -38661,15 +38649,15 @@
       <c r="C154" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="106"/>
-      <c r="F154" s="129"/>
-      <c r="G154" s="103"/>
-      <c r="H154" s="104" t="str">
+      <c r="E154" s="96"/>
+      <c r="F154" s="119"/>
+      <c r="G154" s="93"/>
+      <c r="H154" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -38679,15 +38667,15 @@
       <c r="C155" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="106"/>
-      <c r="F155" s="129"/>
-      <c r="G155" s="103"/>
-      <c r="H155" s="104" t="str">
+      <c r="E155" s="96"/>
+      <c r="F155" s="119"/>
+      <c r="G155" s="93"/>
+      <c r="H155" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="5">
         <v>320</v>
       </c>
@@ -38697,15 +38685,15 @@
       <c r="C156" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="106"/>
-      <c r="F156" s="129"/>
-      <c r="G156" s="103"/>
-      <c r="H156" s="104" t="str">
+      <c r="E156" s="96"/>
+      <c r="F156" s="119"/>
+      <c r="G156" s="93"/>
+      <c r="H156" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="5">
         <v>1245</v>
       </c>
@@ -38715,15 +38703,15 @@
       <c r="C157" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="106"/>
-      <c r="F157" s="129"/>
-      <c r="G157" s="103"/>
-      <c r="H157" s="104" t="str">
+      <c r="E157" s="96"/>
+      <c r="F157" s="119"/>
+      <c r="G157" s="93"/>
+      <c r="H157" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="5">
         <v>505</v>
       </c>
@@ -38733,15 +38721,15 @@
       <c r="C158" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="106"/>
-      <c r="F158" s="129"/>
-      <c r="G158" s="103"/>
-      <c r="H158" s="104" t="str">
+      <c r="E158" s="96"/>
+      <c r="F158" s="119"/>
+      <c r="G158" s="93"/>
+      <c r="H158" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="5">
         <v>364</v>
       </c>
@@ -38751,15 +38739,15 @@
       <c r="C159" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="106"/>
-      <c r="F159" s="129"/>
-      <c r="G159" s="103"/>
-      <c r="H159" s="104" t="str">
+      <c r="E159" s="96"/>
+      <c r="F159" s="119"/>
+      <c r="G159" s="93"/>
+      <c r="H159" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="5">
         <v>562</v>
       </c>
@@ -38769,15 +38757,15 @@
       <c r="C160" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="106"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="103"/>
-      <c r="H160" s="104" t="str">
+      <c r="E160" s="96"/>
+      <c r="F160" s="119"/>
+      <c r="G160" s="93"/>
+      <c r="H160" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="5">
         <v>1102</v>
       </c>
@@ -38787,15 +38775,15 @@
       <c r="C161" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="106"/>
-      <c r="F161" s="129"/>
-      <c r="G161" s="103"/>
-      <c r="H161" s="104" t="str">
+      <c r="E161" s="96"/>
+      <c r="F161" s="119"/>
+      <c r="G161" s="93"/>
+      <c r="H161" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -38805,15 +38793,15 @@
       <c r="C162" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="106"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="103"/>
-      <c r="H162" s="104" t="str">
+      <c r="E162" s="96"/>
+      <c r="F162" s="119"/>
+      <c r="G162" s="93"/>
+      <c r="H162" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="5">
         <v>1151</v>
       </c>
@@ -38823,15 +38811,15 @@
       <c r="C163" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="106"/>
-      <c r="F163" s="129"/>
-      <c r="G163" s="103"/>
-      <c r="H163" s="104" t="str">
+      <c r="E163" s="96"/>
+      <c r="F163" s="119"/>
+      <c r="G163" s="93"/>
+      <c r="H163" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="5">
         <v>536</v>
       </c>
@@ -38841,15 +38829,15 @@
       <c r="C164" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="106"/>
-      <c r="F164" s="129"/>
-      <c r="G164" s="103"/>
-      <c r="H164" s="104" t="str">
+      <c r="E164" s="96"/>
+      <c r="F164" s="119"/>
+      <c r="G164" s="93"/>
+      <c r="H164" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="5">
         <v>186</v>
       </c>
@@ -38859,15 +38847,15 @@
       <c r="C165" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="106"/>
-      <c r="F165" s="129"/>
-      <c r="G165" s="103"/>
-      <c r="H165" s="104" t="str">
+      <c r="E165" s="96"/>
+      <c r="F165" s="119"/>
+      <c r="G165" s="93"/>
+      <c r="H165" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="5">
         <v>1120</v>
       </c>
@@ -38877,15 +38865,15 @@
       <c r="C166" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="106"/>
-      <c r="F166" s="129"/>
-      <c r="G166" s="103"/>
-      <c r="H166" s="104" t="str">
+      <c r="E166" s="96"/>
+      <c r="F166" s="119"/>
+      <c r="G166" s="93"/>
+      <c r="H166" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="5">
         <v>244</v>
       </c>
@@ -38895,15 +38883,15 @@
       <c r="C167" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="106"/>
-      <c r="F167" s="129"/>
-      <c r="G167" s="103"/>
-      <c r="H167" s="104" t="str">
+      <c r="E167" s="96"/>
+      <c r="F167" s="119"/>
+      <c r="G167" s="93"/>
+      <c r="H167" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="5">
         <v>1087</v>
       </c>
@@ -38913,15 +38901,15 @@
       <c r="C168" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="106"/>
-      <c r="F168" s="129"/>
-      <c r="G168" s="103"/>
-      <c r="H168" s="104" t="str">
+      <c r="E168" s="96"/>
+      <c r="F168" s="119"/>
+      <c r="G168" s="93"/>
+      <c r="H168" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="5">
         <v>737</v>
       </c>
@@ -38931,15 +38919,15 @@
       <c r="C169" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="106"/>
-      <c r="F169" s="129"/>
-      <c r="G169" s="103"/>
-      <c r="H169" s="104" t="str">
+      <c r="E169" s="96"/>
+      <c r="F169" s="119"/>
+      <c r="G169" s="93"/>
+      <c r="H169" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="5">
         <v>1062</v>
       </c>
@@ -38949,15 +38937,15 @@
       <c r="C170" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E170" s="106"/>
-      <c r="F170" s="129"/>
-      <c r="G170" s="103"/>
-      <c r="H170" s="104" t="str">
+      <c r="E170" s="96"/>
+      <c r="F170" s="119"/>
+      <c r="G170" s="93"/>
+      <c r="H170" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="5">
         <v>484</v>
       </c>
@@ -38967,15 +38955,15 @@
       <c r="C171" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="106"/>
-      <c r="F171" s="129"/>
-      <c r="G171" s="103"/>
-      <c r="H171" s="104" t="str">
+      <c r="E171" s="96"/>
+      <c r="F171" s="119"/>
+      <c r="G171" s="93"/>
+      <c r="H171" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -38985,15 +38973,15 @@
       <c r="C172" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="106"/>
-      <c r="F172" s="129"/>
-      <c r="G172" s="103"/>
-      <c r="H172" s="104" t="str">
+      <c r="E172" s="96"/>
+      <c r="F172" s="119"/>
+      <c r="G172" s="93"/>
+      <c r="H172" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="5">
         <v>267</v>
       </c>
@@ -39003,15 +38991,15 @@
       <c r="C173" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="106"/>
-      <c r="F173" s="129"/>
-      <c r="G173" s="103"/>
-      <c r="H173" s="104" t="str">
+      <c r="E173" s="96"/>
+      <c r="F173" s="119"/>
+      <c r="G173" s="93"/>
+      <c r="H173" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="5">
         <v>702</v>
       </c>
@@ -39021,15 +39009,15 @@
       <c r="C174" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="106"/>
-      <c r="F174" s="129"/>
-      <c r="G174" s="103"/>
-      <c r="H174" s="104" t="str">
+      <c r="E174" s="96"/>
+      <c r="F174" s="119"/>
+      <c r="G174" s="93"/>
+      <c r="H174" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="5">
         <v>325</v>
       </c>
@@ -39039,15 +39027,15 @@
       <c r="C175" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="106"/>
-      <c r="F175" s="129"/>
-      <c r="G175" s="103"/>
-      <c r="H175" s="104" t="str">
+      <c r="E175" s="96"/>
+      <c r="F175" s="119"/>
+      <c r="G175" s="93"/>
+      <c r="H175" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="5">
         <v>1059</v>
       </c>
@@ -39057,15 +39045,15 @@
       <c r="C176" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="106"/>
-      <c r="F176" s="129"/>
-      <c r="G176" s="103"/>
-      <c r="H176" s="104" t="str">
+      <c r="E176" s="96"/>
+      <c r="F176" s="119"/>
+      <c r="G176" s="93"/>
+      <c r="H176" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39075,15 +39063,15 @@
       <c r="C177" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="106"/>
-      <c r="F177" s="129"/>
-      <c r="G177" s="103"/>
-      <c r="H177" s="104" t="str">
+      <c r="E177" s="96"/>
+      <c r="F177" s="119"/>
+      <c r="G177" s="93"/>
+      <c r="H177" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39093,15 +39081,15 @@
       <c r="C178" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E178" s="106"/>
-      <c r="F178" s="129"/>
-      <c r="G178" s="103"/>
-      <c r="H178" s="104" t="str">
+      <c r="E178" s="96"/>
+      <c r="F178" s="119"/>
+      <c r="G178" s="93"/>
+      <c r="H178" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39111,15 +39099,15 @@
       <c r="C179" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="106"/>
-      <c r="F179" s="129"/>
-      <c r="G179" s="103"/>
-      <c r="H179" s="104" t="str">
+      <c r="E179" s="96"/>
+      <c r="F179" s="119"/>
+      <c r="G179" s="93"/>
+      <c r="H179" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39129,15 +39117,15 @@
       <c r="C180" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="106"/>
-      <c r="F180" s="129"/>
-      <c r="G180" s="103"/>
-      <c r="H180" s="104" t="str">
+      <c r="E180" s="96"/>
+      <c r="F180" s="119"/>
+      <c r="G180" s="93"/>
+      <c r="H180" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39147,15 +39135,15 @@
       <c r="C181" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="106"/>
-      <c r="F181" s="129"/>
-      <c r="G181" s="103"/>
-      <c r="H181" s="104" t="str">
+      <c r="E181" s="96"/>
+      <c r="F181" s="119"/>
+      <c r="G181" s="93"/>
+      <c r="H181" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="5">
         <v>276</v>
       </c>
@@ -39165,15 +39153,15 @@
       <c r="C182" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E182" s="106"/>
-      <c r="F182" s="129"/>
-      <c r="G182" s="103"/>
-      <c r="H182" s="104" t="str">
+      <c r="E182" s="96"/>
+      <c r="F182" s="119"/>
+      <c r="G182" s="93"/>
+      <c r="H182" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39183,15 +39171,15 @@
       <c r="C183" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="106"/>
-      <c r="F183" s="129"/>
-      <c r="G183" s="103"/>
-      <c r="H183" s="104" t="str">
+      <c r="E183" s="96"/>
+      <c r="F183" s="119"/>
+      <c r="G183" s="93"/>
+      <c r="H183" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39201,15 +39189,15 @@
       <c r="C184" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E184" s="106"/>
-      <c r="F184" s="129"/>
-      <c r="G184" s="103"/>
-      <c r="H184" s="104" t="str">
+      <c r="E184" s="96"/>
+      <c r="F184" s="119"/>
+      <c r="G184" s="93"/>
+      <c r="H184" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39219,15 +39207,15 @@
       <c r="C185" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="106"/>
-      <c r="F185" s="129"/>
-      <c r="G185" s="103"/>
-      <c r="H185" s="104" t="str">
+      <c r="E185" s="96"/>
+      <c r="F185" s="119"/>
+      <c r="G185" s="93"/>
+      <c r="H185" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39237,15 +39225,15 @@
       <c r="C186" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E186" s="106"/>
-      <c r="F186" s="129"/>
-      <c r="G186" s="103"/>
-      <c r="H186" s="104" t="str">
+      <c r="E186" s="96"/>
+      <c r="F186" s="119"/>
+      <c r="G186" s="93"/>
+      <c r="H186" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39255,15 +39243,15 @@
       <c r="C187" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="106"/>
-      <c r="F187" s="129"/>
-      <c r="G187" s="103"/>
-      <c r="H187" s="104" t="str">
+      <c r="E187" s="96"/>
+      <c r="F187" s="119"/>
+      <c r="G187" s="93"/>
+      <c r="H187" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39273,15 +39261,15 @@
       <c r="C188" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="106"/>
-      <c r="F188" s="129"/>
-      <c r="G188" s="103"/>
-      <c r="H188" s="104" t="str">
+      <c r="E188" s="96"/>
+      <c r="F188" s="119"/>
+      <c r="G188" s="93"/>
+      <c r="H188" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39291,15 +39279,15 @@
       <c r="C189" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="106"/>
-      <c r="F189" s="129"/>
-      <c r="G189" s="103"/>
-      <c r="H189" s="104" t="str">
+      <c r="E189" s="96"/>
+      <c r="F189" s="119"/>
+      <c r="G189" s="93"/>
+      <c r="H189" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39309,15 +39297,15 @@
       <c r="C190" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="106"/>
-      <c r="F190" s="129"/>
-      <c r="G190" s="103"/>
-      <c r="H190" s="104" t="str">
+      <c r="E190" s="96"/>
+      <c r="F190" s="119"/>
+      <c r="G190" s="93"/>
+      <c r="H190" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39327,15 +39315,15 @@
       <c r="C191" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="106"/>
-      <c r="F191" s="129"/>
-      <c r="G191" s="103"/>
-      <c r="H191" s="104" t="str">
+      <c r="E191" s="96"/>
+      <c r="F191" s="119"/>
+      <c r="G191" s="93"/>
+      <c r="H191" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="5">
         <v>261</v>
       </c>
@@ -39345,15 +39333,15 @@
       <c r="C192" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="106"/>
-      <c r="F192" s="129"/>
-      <c r="G192" s="103"/>
-      <c r="H192" s="104" t="str">
+      <c r="E192" s="96"/>
+      <c r="F192" s="119"/>
+      <c r="G192" s="93"/>
+      <c r="H192" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="5">
         <v>1101</v>
       </c>
@@ -39363,15 +39351,15 @@
       <c r="C193" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="106"/>
-      <c r="F193" s="129"/>
-      <c r="G193" s="103"/>
-      <c r="H193" s="104" t="str">
+      <c r="E193" s="96"/>
+      <c r="F193" s="119"/>
+      <c r="G193" s="93"/>
+      <c r="H193" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="5">
         <v>1506</v>
       </c>
@@ -39381,15 +39369,15 @@
       <c r="C194" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E194" s="106"/>
-      <c r="F194" s="129"/>
-      <c r="G194" s="103"/>
-      <c r="H194" s="104" t="str">
+      <c r="E194" s="96"/>
+      <c r="F194" s="119"/>
+      <c r="G194" s="93"/>
+      <c r="H194" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="5">
         <v>369</v>
       </c>
@@ -39399,15 +39387,15 @@
       <c r="C195" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="106"/>
-      <c r="F195" s="129"/>
-      <c r="G195" s="103"/>
-      <c r="H195" s="104" t="str">
+      <c r="E195" s="96"/>
+      <c r="F195" s="119"/>
+      <c r="G195" s="93"/>
+      <c r="H195" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="5">
         <v>1490</v>
       </c>
@@ -39417,15 +39405,15 @@
       <c r="C196" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="106"/>
-      <c r="F196" s="129"/>
-      <c r="G196" s="103"/>
-      <c r="H196" s="104" t="str">
+      <c r="E196" s="96"/>
+      <c r="F196" s="119"/>
+      <c r="G196" s="93"/>
+      <c r="H196" s="94" t="str">
         <f t="shared" ref="H196:H202" si="3">IF(OR(E196&lt;&gt;"",F196&lt;&gt;"",G196&lt;&gt;""),"Complete","")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="5">
         <v>370</v>
       </c>
@@ -39435,15 +39423,15 @@
       <c r="C197" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="106"/>
-      <c r="F197" s="129"/>
-      <c r="G197" s="103"/>
-      <c r="H197" s="104" t="str">
+      <c r="E197" s="96"/>
+      <c r="F197" s="119"/>
+      <c r="G197" s="93"/>
+      <c r="H197" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="5">
         <v>510</v>
       </c>
@@ -39453,15 +39441,15 @@
       <c r="C198" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E198" s="106"/>
-      <c r="F198" s="129"/>
-      <c r="G198" s="103"/>
-      <c r="H198" s="104" t="str">
+      <c r="E198" s="96"/>
+      <c r="F198" s="119"/>
+      <c r="G198" s="93"/>
+      <c r="H198" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="5">
         <v>1198</v>
       </c>
@@ -39471,15 +39459,15 @@
       <c r="C199" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="106"/>
-      <c r="F199" s="129"/>
-      <c r="G199" s="103"/>
-      <c r="H199" s="104" t="str">
+      <c r="E199" s="96"/>
+      <c r="F199" s="119"/>
+      <c r="G199" s="93"/>
+      <c r="H199" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="5">
         <v>487</v>
       </c>
@@ -39489,15 +39477,15 @@
       <c r="C200" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="106"/>
-      <c r="F200" s="129"/>
-      <c r="G200" s="103"/>
-      <c r="H200" s="104" t="str">
+      <c r="E200" s="96"/>
+      <c r="F200" s="119"/>
+      <c r="G200" s="93"/>
+      <c r="H200" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="5">
         <v>360</v>
       </c>
@@ -39507,15 +39495,15 @@
       <c r="C201" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="106"/>
-      <c r="F201" s="129"/>
-      <c r="G201" s="103"/>
-      <c r="H201" s="104" t="str">
+      <c r="E201" s="96"/>
+      <c r="F201" s="119"/>
+      <c r="G201" s="93"/>
+      <c r="H201" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="5">
         <v>549</v>
       </c>
@@ -39525,20 +39513,20 @@
       <c r="C202" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="106"/>
-      <c r="F202" s="129"/>
-      <c r="G202" s="103"/>
-      <c r="H202" s="104" t="str">
+      <c r="E202" s="96"/>
+      <c r="F202" s="119"/>
+      <c r="G202" s="93"/>
+      <c r="H202" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B102">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B202">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{22F90BFE-B503-4779-9713-C1F6004DA634}"/>
@@ -39753,27 +39741,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C1FC6-B11E-4FAC-A4AB-7B431492CE35}">
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="90" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39781,7 +39769,7 @@
       <c r="A3" s="76">
         <v>46</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="91" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="86" t="s">
@@ -39793,10 +39781,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2AD9E667-6F78-4521-8B65-7909838ED74D}"/>
@@ -39813,50 +39801,50 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="115" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="12.75">
-      <c r="A3" s="110">
+    <row r="3" spans="1:6" s="29" customFormat="1">
+      <c r="A3" s="100">
         <v>242</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="102">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="108" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="98" t="s">
         <v>543</v>
       </c>
     </row>
@@ -39873,47 +39861,47 @@
       <c r="D4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="97" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="116">
+      <c r="A5" s="106">
         <v>438</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="108">
         <v>0.44</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="110" t="s">
         <v>544</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="97" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" ht="12.75">
-      <c r="A6" s="121">
+    <row r="6" spans="1:6" s="29" customFormat="1">
+      <c r="A6" s="111">
         <v>249</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="113">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="117" t="s">
         <v>115</v>
       </c>
     </row>
@@ -39931,40 +39919,40 @@
         <v>12</v>
       </c>
       <c r="E7" s="48"/>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="112" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CCC7DED9-E36F-4D4C-8589-B851D3F52295}"/>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3158D7-6F42-634A-8D11-509B5CCB9995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19641915-42C4-5D4C-9C0B-D7732634430F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="460" windowWidth="28480" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="17420" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="551">
   <si>
     <t>#</t>
   </si>
@@ -1674,6 +1674,12 @@
   </si>
   <si>
     <t>149. Max Points on a Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This problem definitely needs to be practiced more. </t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -3147,9 +3153,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:I202" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A2:I202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="20"/>
@@ -3161,6 +3167,7 @@
       <calculatedColumnFormula>IF(OR(E3&lt;&gt;"",F3&lt;&gt;"",G3&lt;&gt;""),"Complete","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{1EA37D65-8888-428C-A561-36C085B5AF7C}" name="Similar_Problems"/>
+    <tableColumn id="10" xr3:uid="{D08748B0-D27E-FA42-AD7D-3920C0D93E0D}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3381,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3412,11 +3419,11 @@
       <c r="B1" s="126"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.32500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3427,11 +3434,11 @@
       <c r="B2" s="126"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.67500000000000004</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3441,7 +3448,7 @@
       <c r="B3" s="126"/>
       <c r="C3" s="123">
         <f ca="1">(C1+C2)/C5</f>
-        <v>2.9850746268656718</v>
+        <v>3.125</v>
       </c>
       <c r="D3" s="124"/>
     </row>
@@ -3462,7 +3469,7 @@
       <c r="B5" s="130"/>
       <c r="C5" s="122">
         <f ca="1">C4-TODAY()</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="122"/>
       <c r="I5" s="39"/>
@@ -8052,7 +8059,7 @@
       <c r="E97" s="51"/>
       <c r="F97" s="52" t="str">
         <f>Practice_Tracker!H91</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="65">
@@ -35728,10 +35735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
-  <dimension ref="A2:I202"/>
+  <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -35743,9 +35750,10 @@
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -35773,8 +35781,11 @@
       <c r="I2" s="35" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="J2" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -35794,7 +35805,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -35814,7 +35825,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -35834,7 +35845,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -35854,7 +35865,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>146</v>
       </c>
@@ -35872,7 +35883,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -35892,7 +35903,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -35912,7 +35923,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -35932,7 +35943,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -35952,7 +35963,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -35970,7 +35981,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -35990,7 +36001,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -36010,7 +36021,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36030,7 +36041,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="8">
         <v>238</v>
       </c>
@@ -37271,7 +37282,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>287</v>
       </c>
@@ -37291,7 +37302,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -37309,7 +37320,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37327,7 +37338,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="8">
         <v>240</v>
       </c>
@@ -37345,7 +37356,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37363,7 +37374,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37383,7 +37394,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>341</v>
       </c>
@@ -37401,7 +37412,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="8">
         <v>19</v>
       </c>
@@ -37421,7 +37432,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>55</v>
       </c>
@@ -37441,7 +37452,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="8">
         <v>166</v>
       </c>
@@ -37459,7 +37470,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37469,15 +37480,20 @@
       <c r="C91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="95"/>
+      <c r="E91" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F91" s="119"/>
       <c r="G91" s="93"/>
       <c r="H91" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="J91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="8">
         <v>395</v>
       </c>
@@ -37495,7 +37511,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>207</v>
       </c>
@@ -37513,7 +37529,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37531,7 +37547,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37549,7 +37565,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="8">
         <v>378</v>
       </c>
@@ -39741,7 +39757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C1FC6-B11E-4FAC-A4AB-7B431492CE35}">
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19641915-42C4-5D4C-9C0B-D7732634430F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C60F4-5B15-214E-BBE5-16DFCF25BA43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="17420" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23840" yWindow="16300" windowWidth="28480" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="553">
   <si>
     <t>#</t>
   </si>
@@ -1680,6 +1680,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Heaps</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2012,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,6 +2077,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9534F"/>
       </patternFill>
     </fill>
   </fills>
@@ -2236,7 +2254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,9 +2495,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2510,6 +2525,17 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3388,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3413,73 +3439,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="124" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="123">
+      <c r="B3" s="125"/>
+      <c r="C3" s="122">
         <f ca="1">(C1+C2)/C5</f>
-        <v>3.125</v>
-      </c>
-      <c r="D3" s="124"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="126" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="121">
+      <c r="B4" s="127"/>
+      <c r="C4" s="120">
         <v>44196</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="120"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="128" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="122">
+      <c r="B5" s="129"/>
+      <c r="C5" s="121">
         <f ca="1">C4-TODAY()</f>
-        <v>64</v>
-      </c>
-      <c r="D5" s="122"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="121"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -5203,7 +5229,7 @@
       </c>
       <c r="F41" s="52" t="str">
         <f>Practice_Tracker!H35</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G41" s="51"/>
       <c r="H41" s="65">
@@ -5873,7 +5899,7 @@
       <c r="E54" s="51"/>
       <c r="F54" s="52" t="str">
         <f>Practice_Tracker!H48</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G54" s="51"/>
       <c r="H54" s="65">
@@ -35737,8 +35763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -36421,12 +36447,20 @@
       <c r="C35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="95"/>
+      <c r="D35" t="s">
+        <v>552</v>
+      </c>
+      <c r="E35" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F35" s="119"/>
       <c r="G35" s="93"/>
       <c r="H35" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I35" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1">
@@ -36668,12 +36702,14 @@
       <c r="C48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="95"/>
+      <c r="E48" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F48" s="119"/>
       <c r="G48" s="93"/>
       <c r="H48" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
@@ -37474,21 +37510,23 @@
       <c r="A91" s="2">
         <v>149</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="95" t="s">
+      <c r="D91" s="132"/>
+      <c r="E91" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="F91" s="119"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="94" t="str">
+      <c r="F91" s="134"/>
+      <c r="G91" s="135"/>
+      <c r="H91" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
+      <c r="I91" s="132"/>
       <c r="J91" t="s">
         <v>549</v>
       </c>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C60F4-5B15-214E-BBE5-16DFCF25BA43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45150338-52B3-CA43-AC7C-04213BAAB393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23840" yWindow="16300" windowWidth="28480" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33120" yWindow="14840" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="558">
   <si>
     <t>#</t>
   </si>
@@ -1686,6 +1686,21 @@
   </si>
   <si>
     <t>Heaps</t>
+  </si>
+  <si>
+    <t>723. Candy Crush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow and fast pointers, Reverse LL, compare in place. </t>
+  </si>
+  <si>
+    <t>256. Paint House 276. Paint Fence</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Linked List</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2011,8 +2026,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2089,6 +2117,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFD9534F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF5CB85C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2254,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,17 +2529,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2525,88 +2564,46 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="43" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2727,6 +2724,102 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2892,26 +2985,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3129,16 +3202,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3153,43 +3216,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A8:M108" xr:uid="{F7882A93-E39D-473E-86A6-F23907582244}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{17706BA0-8E09-4B27-9369-1AFF82636703}" name="#"/>
-    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{6F1A3F84-8971-4EB8-AE92-6BC6A6EF70F9}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{61AD404F-D0CC-467D-91AB-AF7025DB49EF}" name="Difficulty"/>
-    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="35">
       <calculatedColumnFormula>Practice_Tracker!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="29">
       <calculatedColumnFormula>Practice_Tracker!H103</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{DA544CD4-E465-42D4-8AE1-0C338E74CD46}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="20">
       <calculatedColumnFormula>IF(OR(E3&lt;&gt;"",F3&lt;&gt;"",G3&lt;&gt;""),"Complete","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{1EA37D65-8888-428C-A561-36C085B5AF7C}" name="Similar_Problems"/>
@@ -3200,7 +3263,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A2:F7" xr:uid="{26DE10B7-C94D-4E22-AA37-91C6D72263E5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{70613855-D004-446C-8685-CAC0EC183A3E}" name="#"/>
@@ -3208,7 +3271,7 @@
     <tableColumn id="3" xr3:uid="{61B12C10-9CD2-433F-885C-73A9EDBC9E8A}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{302621E1-E966-487C-A730-615A1566C3BB}" name="Difficulty"/>
     <tableColumn id="5" xr3:uid="{D9FED768-119E-46FA-AEC0-346E2C0A7CC4}" name="Company"/>
-    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3414,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3439,73 +3502,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="125"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="129" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="122">
+      <c r="B3" s="130"/>
+      <c r="C3" s="135">
         <f ca="1">(C1+C2)/C5</f>
-        <v>3.1746031746031744</v>
-      </c>
-      <c r="D3" s="123"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D3" s="136"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="131" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="120">
+      <c r="B4" s="132"/>
+      <c r="C4" s="127">
         <v>44196</v>
       </c>
-      <c r="D4" s="120"/>
+      <c r="D4" s="127"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="133" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="121">
+      <c r="B5" s="134"/>
+      <c r="C5" s="128">
         <f ca="1">C4-TODAY()</f>
-        <v>63</v>
-      </c>
-      <c r="D5" s="121"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="128"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -6153,7 +6216,7 @@
       <c r="E59" s="51"/>
       <c r="F59" s="52" t="str">
         <f>Practice_Tracker!H53</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G59" s="51"/>
       <c r="H59" s="65">
@@ -7425,7 +7488,7 @@
       <c r="E84" s="51"/>
       <c r="F84" s="52" t="str">
         <f>Practice_Tracker!H78</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G84" s="51"/>
       <c r="H84" s="65">
@@ -35418,7 +35481,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5 B8:B1048576 I8:I1048576 I5">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -35763,14 +35826,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
@@ -36712,7 +36776,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>227</v>
       </c>
@@ -36730,7 +36794,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -36750,7 +36814,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -36770,7 +36834,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -36788,25 +36852,36 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="95"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="94" t="str">
+      <c r="D53" s="143" t="s">
+        <v>557</v>
+      </c>
+      <c r="E53" s="123" t="s">
+        <v>520</v>
+      </c>
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="126" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="I53" s="143" t="s">
+        <v>553</v>
+      </c>
+      <c r="J53" s="105" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -36826,7 +36901,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>105</v>
       </c>
@@ -36846,7 +36921,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="8">
         <v>300</v>
       </c>
@@ -36866,7 +36941,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -36886,7 +36961,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -36904,7 +36979,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -36922,7 +36997,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="8">
         <v>78</v>
       </c>
@@ -36942,7 +37017,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -36962,7 +37037,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -36980,7 +37055,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -37000,7 +37075,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37018,7 +37093,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1">
+    <row r="65" spans="1:9" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37038,7 +37113,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37056,7 +37131,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1">
+    <row r="67" spans="1:9" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37076,7 +37151,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
+    <row r="68" spans="1:9" ht="15" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37094,7 +37169,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
+    <row r="69" spans="1:9" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37114,7 +37189,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37132,7 +37207,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1">
+    <row r="71" spans="1:9" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37150,7 +37225,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1">
+    <row r="72" spans="1:9" ht="15" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37168,7 +37243,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1">
+    <row r="73" spans="1:9" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37186,7 +37261,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37204,7 +37279,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1">
+    <row r="75" spans="1:9" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37224,7 +37299,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37242,7 +37317,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1">
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37260,7 +37335,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37270,15 +37345,23 @@
       <c r="C78" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="95"/>
+      <c r="D78" s="105" t="s">
+        <v>556</v>
+      </c>
+      <c r="E78" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F78" s="119"/>
       <c r="G78" s="93"/>
       <c r="H78" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="I78" s="105" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37298,7 +37381,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1">
+    <row r="80" spans="1:9" ht="15" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>
@@ -37510,23 +37593,23 @@
       <c r="A91" s="2">
         <v>149</v>
       </c>
-      <c r="B91" s="130" t="s">
+      <c r="B91" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="C91" s="131" t="s">
+      <c r="C91" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="132"/>
-      <c r="E91" s="133" t="s">
+      <c r="D91" s="122"/>
+      <c r="E91" s="123" t="s">
         <v>520</v>
       </c>
-      <c r="F91" s="134"/>
-      <c r="G91" s="135"/>
-      <c r="H91" s="136" t="str">
+      <c r="F91" s="124"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="126" t="str">
         <f t="shared" si="1"/>
         <v>Complete</v>
       </c>
-      <c r="I91" s="132"/>
+      <c r="I91" s="122"/>
       <c r="J91" t="s">
         <v>549</v>
       </c>
@@ -39577,10 +39660,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B102">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B202">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{22F90BFE-B503-4779-9713-C1F6004DA634}"/>
@@ -39793,10 +39876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C1FC6-B11E-4FAC-A4AB-7B431492CE35}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -39819,7 +39902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="76">
         <v>46</v>
       </c>
@@ -39833,15 +39916,33 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="137">
+        <v>149</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2AD9E667-6F78-4521-8B65-7909838ED74D}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{F647FEE2-AE7D-8F46-AEC0-A8E346A6EE72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39979,34 +40080,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CCC7DED9-E36F-4D4C-8589-B851D3F52295}"/>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45150338-52B3-CA43-AC7C-04213BAAB393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156AE9E5-C704-9D4E-9A6F-ADCC5A79AB8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33120" yWindow="14840" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="1100" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -35826,8 +35826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156AE9E5-C704-9D4E-9A6F-ADCC5A79AB8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA05F853-1A52-5C47-AAA1-11D1C80DB9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1100" windowWidth="28480" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="620" windowWidth="28480" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="560">
   <si>
     <t>#</t>
   </si>
@@ -1701,6 +1701,12 @@
   </si>
   <si>
     <t>Linked List</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>716. Min Stack 239. Sliding Window Maximum</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,8 +2045,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2148,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FF5CB85C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -2288,7 +2325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2589,6 +2626,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3477,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3508,11 +3553,11 @@
       <c r="B1" s="130"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3523,11 +3568,11 @@
       <c r="B2" s="130"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3536,8 +3581,8 @@
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="135">
-        <f ca="1">(C1+C2)/C5</f>
-        <v>3.3333333333333335</v>
+        <f ca="1">(C2)/C5</f>
+        <v>2.2456140350877192</v>
       </c>
       <c r="D3" s="136"/>
     </row>
@@ -3558,7 +3603,7 @@
       <c r="B5" s="134"/>
       <c r="C5" s="128">
         <f ca="1">C4-TODAY()</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="128"/>
       <c r="I5" s="39"/>
@@ -5207,7 +5252,7 @@
       </c>
       <c r="L39" s="52" t="str">
         <f>Practice_Tracker!H133</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M39" s="51"/>
       <c r="N39" s="4"/>
@@ -6518,7 +6563,7 @@
       <c r="E65" s="51"/>
       <c r="F65" s="52" t="str">
         <f>Practice_Tracker!H59</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G65" s="51"/>
       <c r="H65" s="65">
@@ -35826,8 +35871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -36989,12 +37034,20 @@
       <c r="C59" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="95"/>
+      <c r="D59" s="105" t="s">
+        <v>558</v>
+      </c>
+      <c r="E59" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F59" s="119"/>
       <c r="G59" s="93"/>
       <c r="H59" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I59" s="105" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1">
@@ -38408,12 +38461,17 @@
       <c r="C133" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="96"/>
+      <c r="D133" s="105" t="s">
+        <v>558</v>
+      </c>
+      <c r="E133" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F133" s="119"/>
       <c r="G133" s="93"/>
       <c r="H133" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -39190,7 +39248,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:9">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39208,7 +39266,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:9">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39226,7 +39284,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:9">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39244,7 +39302,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:9">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39262,7 +39320,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:9">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39280,25 +39338,27 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="5">
+    <row r="182" spans="1:9">
+      <c r="A182" s="145">
         <v>276</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="146" t="s">
         <v>208</v>
       </c>
-      <c r="C182" s="28" t="s">
+      <c r="C182" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E182" s="96"/>
-      <c r="F182" s="119"/>
-      <c r="G182" s="93"/>
-      <c r="H182" s="94" t="str">
+      <c r="D182" s="147"/>
+      <c r="E182" s="148"/>
+      <c r="F182" s="148"/>
+      <c r="G182" s="148"/>
+      <c r="H182" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" s="147"/>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39316,7 +39376,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:9">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39334,7 +39394,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:9">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39352,7 +39412,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:9">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39370,7 +39430,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:9">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39388,7 +39448,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:9">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39406,7 +39466,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:9">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39424,7 +39484,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:9">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39442,7 +39502,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:9">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39460,7 +39520,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:9">
       <c r="A192" s="5">
         <v>261</v>
       </c>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA05F853-1A52-5C47-AAA1-11D1C80DB9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A8717-1F84-401D-9684-208CD2F7314A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="620" windowWidth="28480" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="1275" windowWidth="28485" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LC_Most_Freq!$A$8:$M$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Practice_Tracker!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2577,36 +2588,6 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2634,6 +2615,36 @@
     <xf numFmtId="0" fontId="55" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2642,13 +2653,69 @@
   <dxfs count="39">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2779,92 +2846,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3030,6 +3011,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3247,6 +3248,16 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3261,43 +3272,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8883935-2017-4DCF-BE7C-DEB11BFCB181}" name="Table4" displayName="Table4" ref="A8:M108" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A8:M108" xr:uid="{F7882A93-E39D-473E-86A6-F23907582244}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{17706BA0-8E09-4B27-9369-1AFF82636703}" name="#"/>
-    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{54176D82-6251-4585-A8ED-075B85526988}" name="Title" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{6F1A3F84-8971-4EB8-AE92-6BC6A6EF70F9}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{61AD404F-D0CC-467D-91AB-AF7025DB49EF}" name="Difficulty"/>
-    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{4F8E8B3C-F399-40E4-94ED-318680104E28}" name="Company" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{181548A4-1C9C-484A-8A9F-E0AD5F2B624F}" name="Status" dataDxfId="34">
       <calculatedColumnFormula>Practice_Tracker!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{ECE63BD9-66A4-4111-9F49-08C1678A125A}" name="Method" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{68116587-470E-4ABE-86D6-4CB83B61CFB6}" name="#2" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{F84FF1A1-3A9C-4EA2-942A-D6A37F926BD2}" name="Title2" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{069BB8AF-3FD7-4C5D-B4F6-2B792FD395A0}" name="Acceptance2" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{CA4296D1-0A41-4F26-8C33-ED3B98004E84}" name="Difficulty2" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{F6478D5D-502B-4D36-A788-25638B7C6AF3}" name="Status2" dataDxfId="28">
       <calculatedColumnFormula>Practice_Tracker!H103</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{E3094755-2998-4AAE-9783-9E32D8FE5DF7}" name="Method2" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{766612CD-485C-4139-BBB1-F31E59F02CB5}" name="Level" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{DA544CD4-E465-42D4-8AE1-0C338E74CD46}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{3B8B5654-459F-48B9-BDD1-7EB9250BF488}" name="Practice 1" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{02C3257A-8242-43EA-8D70-55A6D468E5A2}" name="Practice 2" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{7F6B2BDF-1C4A-4C27-BB1E-4CB8E7FADF11}" name="Practice 3" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{D75BD49A-9E34-4852-BC0C-BD8B89CA9DED}" name="Status" dataDxfId="17">
       <calculatedColumnFormula>IF(OR(E3&lt;&gt;"",F3&lt;&gt;"",G3&lt;&gt;""),"Complete","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{1EA37D65-8888-428C-A561-36C085B5AF7C}" name="Similar_Problems"/>
@@ -3308,7 +3319,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A8FA99F-34A0-4417-9F14-6AD85D67CDE5}" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A2:F7" xr:uid="{26DE10B7-C94D-4E22-AA37-91C6D72263E5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{70613855-D004-446C-8685-CAC0EC183A3E}" name="#"/>
@@ -3316,7 +3327,7 @@
     <tableColumn id="3" xr3:uid="{61B12C10-9CD2-433F-885C-73A9EDBC9E8A}" name="Acceptance"/>
     <tableColumn id="4" xr3:uid="{302621E1-E966-487C-A730-615A1566C3BB}" name="Difficulty"/>
     <tableColumn id="5" xr3:uid="{D9FED768-119E-46FA-AEC0-346E2C0A7CC4}" name="Company"/>
-    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{38223CF8-C000-420B-A3C3-3B465A1C5557}" name="Parent" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3522,35 +3533,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="144" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
         <v>72</v>
@@ -3562,10 +3573,10 @@
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="144" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
         <v>128</v>
@@ -3576,44 +3587,44 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="144" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="135">
+      <c r="B3" s="145"/>
+      <c r="C3" s="142">
         <f ca="1">(C2)/C5</f>
-        <v>2.2456140350877192</v>
-      </c>
-      <c r="D3" s="136"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="D3" s="143"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="146" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="127">
+      <c r="B4" s="147"/>
+      <c r="C4" s="140">
         <v>44196</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="140"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="148" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="128">
+      <c r="B5" s="149"/>
+      <c r="C5" s="141">
         <f ca="1">C4-TODAY()</f>
-        <v>57</v>
-      </c>
-      <c r="D5" s="128"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="141"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -35526,7 +35537,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5 B8:B1048576 I8:I1048576 I5">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -35871,24 +35882,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -35920,7 +35931,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -35940,7 +35951,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -35960,7 +35971,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" thickBot="1">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -35980,7 +35991,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" thickBot="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -36000,7 +36011,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" thickBot="1">
       <c r="A7" s="2">
         <v>146</v>
       </c>
@@ -36018,7 +36029,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" thickBot="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -36038,7 +36049,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" thickBot="1">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -36058,7 +36069,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" thickBot="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -36078,7 +36089,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -36098,7 +36109,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -36116,7 +36127,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -36136,7 +36147,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" thickBot="1">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -36156,7 +36167,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36176,7 +36187,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" thickBot="1">
       <c r="A16" s="8">
         <v>238</v>
       </c>
@@ -36196,7 +36207,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36216,7 +36227,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" thickBot="1">
       <c r="A18" s="8">
         <v>56</v>
       </c>
@@ -36236,7 +36247,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36256,7 +36267,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36276,7 +36287,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" thickBot="1">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -36296,7 +36307,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36314,7 +36325,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
+    <row r="23" spans="1:8" thickBot="1">
       <c r="A23" s="2">
         <v>322</v>
       </c>
@@ -36334,7 +36345,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" thickBot="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -36354,7 +36365,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" thickBot="1">
       <c r="A25" s="2">
         <v>54</v>
       </c>
@@ -36374,7 +36385,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" thickBot="1">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -36392,7 +36403,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" thickBot="1">
       <c r="A27" s="2">
         <v>46</v>
       </c>
@@ -36410,7 +36421,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" thickBot="1">
       <c r="A28" s="8">
         <v>380</v>
       </c>
@@ -36430,7 +36441,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" thickBot="1">
       <c r="A29" s="2">
         <v>79</v>
       </c>
@@ -36450,7 +36461,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36470,7 +36481,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" thickBot="1">
       <c r="A31" s="2">
         <v>253</v>
       </c>
@@ -36490,7 +36501,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36510,7 +36521,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1">
+    <row r="33" spans="1:9" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36528,7 +36539,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36546,7 +36557,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" thickBot="1">
       <c r="A35" s="2">
         <v>215</v>
       </c>
@@ -36572,7 +36583,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" thickBot="1">
       <c r="A36" s="8">
         <v>127</v>
       </c>
@@ -36590,7 +36601,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
+    <row r="37" spans="1:9" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36608,7 +36619,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1">
+    <row r="38" spans="1:9" thickBot="1">
       <c r="A38" s="8">
         <v>33</v>
       </c>
@@ -36628,7 +36639,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1">
+    <row r="39" spans="1:9" thickBot="1">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -36648,7 +36659,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1">
+    <row r="40" spans="1:9" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36666,7 +36677,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1">
+    <row r="41" spans="1:9" thickBot="1">
       <c r="A41" s="2">
         <v>139</v>
       </c>
@@ -36686,7 +36697,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1">
+    <row r="42" spans="1:9" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36704,7 +36715,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1">
+    <row r="43" spans="1:9" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36722,7 +36733,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1">
+    <row r="44" spans="1:9" thickBot="1">
       <c r="A44" s="8">
         <v>49</v>
       </c>
@@ -36745,7 +36756,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1">
+    <row r="45" spans="1:9" thickBot="1">
       <c r="A45" s="2">
         <v>152</v>
       </c>
@@ -36765,7 +36776,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1">
+    <row r="46" spans="1:9" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36783,7 +36794,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1">
+    <row r="47" spans="1:9" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36801,7 +36812,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1">
+    <row r="48" spans="1:9" thickBot="1">
       <c r="A48" s="8">
         <v>347</v>
       </c>
@@ -36821,7 +36832,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1">
+    <row r="49" spans="1:10" thickBot="1">
       <c r="A49" s="2">
         <v>227</v>
       </c>
@@ -36839,7 +36850,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1">
+    <row r="50" spans="1:10" thickBot="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -36859,7 +36870,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1">
+    <row r="51" spans="1:10" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -36879,7 +36890,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1">
+    <row r="52" spans="1:10" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -36897,17 +36908,17 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1">
+    <row r="53" spans="1:10" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
-      <c r="B53" s="141" t="s">
+      <c r="B53" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C53" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="143" t="s">
+      <c r="D53" s="133" t="s">
         <v>557</v>
       </c>
       <c r="E53" s="123" t="s">
@@ -36919,14 +36930,14 @@
         <f t="shared" si="0"/>
         <v>Complete</v>
       </c>
-      <c r="I53" s="143" t="s">
+      <c r="I53" s="133" t="s">
         <v>553</v>
       </c>
       <c r="J53" s="105" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1">
+    <row r="54" spans="1:10" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -36946,7 +36957,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1">
+    <row r="55" spans="1:10" thickBot="1">
       <c r="A55" s="2">
         <v>105</v>
       </c>
@@ -36966,7 +36977,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1">
+    <row r="56" spans="1:10" thickBot="1">
       <c r="A56" s="8">
         <v>300</v>
       </c>
@@ -36986,7 +36997,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1">
+    <row r="57" spans="1:10" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -37006,7 +37017,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1">
+    <row r="58" spans="1:10" thickBot="1">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -37024,7 +37035,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1">
+    <row r="59" spans="1:10" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -37050,7 +37061,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1">
+    <row r="60" spans="1:10" thickBot="1">
       <c r="A60" s="8">
         <v>78</v>
       </c>
@@ -37070,7 +37081,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1">
+    <row r="61" spans="1:10" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -37090,7 +37101,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1">
+    <row r="62" spans="1:10" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -37108,7 +37119,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1">
+    <row r="63" spans="1:10" thickBot="1">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -37128,7 +37139,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1">
+    <row r="64" spans="1:10" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37146,7 +37157,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1">
+    <row r="65" spans="1:9" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37166,7 +37177,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1">
+    <row r="66" spans="1:9" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37184,7 +37195,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1">
+    <row r="67" spans="1:9" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37204,7 +37215,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1">
+    <row r="68" spans="1:9" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37222,7 +37233,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1">
+    <row r="69" spans="1:9" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37242,7 +37253,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1">
+    <row r="70" spans="1:9" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37260,7 +37271,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1">
+    <row r="71" spans="1:9" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37278,7 +37289,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" thickBot="1">
+    <row r="72" spans="1:9" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37296,7 +37307,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1">
+    <row r="73" spans="1:9" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37314,7 +37325,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1">
+    <row r="74" spans="1:9" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37332,7 +37343,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1">
+    <row r="75" spans="1:9" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37352,7 +37363,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1">
+    <row r="76" spans="1:9" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37370,7 +37381,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1">
+    <row r="77" spans="1:9" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37388,7 +37399,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1">
+    <row r="78" spans="1:9" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37414,7 +37425,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1">
+    <row r="79" spans="1:9" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37434,7 +37445,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1">
+    <row r="80" spans="1:9" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>
@@ -37454,7 +37465,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1">
+    <row r="81" spans="1:10" thickBot="1">
       <c r="A81" s="2">
         <v>287</v>
       </c>
@@ -37474,7 +37485,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1">
+    <row r="82" spans="1:10" thickBot="1">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -37492,7 +37503,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1">
+    <row r="83" spans="1:10" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37510,7 +37521,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1">
+    <row r="84" spans="1:10" thickBot="1">
       <c r="A84" s="8">
         <v>240</v>
       </c>
@@ -37528,7 +37539,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1">
+    <row r="85" spans="1:10" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37546,7 +37557,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1">
+    <row r="86" spans="1:10" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37566,7 +37577,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1">
+    <row r="87" spans="1:10" thickBot="1">
       <c r="A87" s="2">
         <v>341</v>
       </c>
@@ -37584,7 +37595,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1">
+    <row r="88" spans="1:10" thickBot="1">
       <c r="A88" s="8">
         <v>19</v>
       </c>
@@ -37604,7 +37615,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1">
+    <row r="89" spans="1:10" thickBot="1">
       <c r="A89" s="2">
         <v>55</v>
       </c>
@@ -37624,7 +37635,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1">
+    <row r="90" spans="1:10" thickBot="1">
       <c r="A90" s="8">
         <v>166</v>
       </c>
@@ -37642,7 +37653,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1">
+    <row r="91" spans="1:10" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37667,7 +37678,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1">
+    <row r="92" spans="1:10" thickBot="1">
       <c r="A92" s="8">
         <v>395</v>
       </c>
@@ -37685,7 +37696,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1">
+    <row r="93" spans="1:10" thickBot="1">
       <c r="A93" s="2">
         <v>207</v>
       </c>
@@ -37703,7 +37714,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1">
+    <row r="94" spans="1:10" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37721,7 +37732,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1">
+    <row r="95" spans="1:10" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37739,7 +37750,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1">
+    <row r="96" spans="1:10" thickBot="1">
       <c r="A96" s="8">
         <v>378</v>
       </c>
@@ -37757,7 +37768,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" thickBot="1">
+    <row r="97" spans="1:9" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37775,7 +37786,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1">
+    <row r="98" spans="1:9" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37793,7 +37804,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1">
+    <row r="99" spans="1:9" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37811,7 +37822,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1">
+    <row r="100" spans="1:9" thickBot="1">
       <c r="A100" s="8">
         <v>371</v>
       </c>
@@ -37829,7 +37840,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1">
+    <row r="101" spans="1:9" thickBot="1">
       <c r="A101" s="2">
         <v>29</v>
       </c>
@@ -37847,7 +37858,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="14.25">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -37873,7 +37884,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" ht="14.25">
       <c r="A103" s="5">
         <v>253</v>
       </c>
@@ -37893,7 +37904,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="14.25">
       <c r="A104" s="5">
         <v>1428</v>
       </c>
@@ -37913,7 +37924,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="14.25">
       <c r="A105" s="5">
         <v>362</v>
       </c>
@@ -37933,7 +37944,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="14.25">
       <c r="A106" s="5">
         <v>1197</v>
       </c>
@@ -37953,7 +37964,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="14.25">
       <c r="A107" s="5">
         <v>348</v>
       </c>
@@ -37973,7 +37984,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="14.25">
       <c r="A108" s="5">
         <v>314</v>
       </c>
@@ -37993,7 +38004,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" ht="14.25">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -38013,7 +38024,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" ht="14.25">
       <c r="A110" s="13">
         <v>1060</v>
       </c>
@@ -38033,7 +38044,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="14.25">
       <c r="A111" s="13">
         <v>311</v>
       </c>
@@ -38053,7 +38064,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="14.25">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -38073,7 +38084,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="14.25">
       <c r="A113" s="5">
         <v>1229</v>
       </c>
@@ -38093,7 +38104,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="14.25">
       <c r="A114" s="5">
         <v>353</v>
       </c>
@@ -38113,7 +38124,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" ht="14.25">
       <c r="A115" s="5">
         <v>694</v>
       </c>
@@ -38133,7 +38144,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="14.25">
       <c r="A116" s="5">
         <v>277</v>
       </c>
@@ -38153,7 +38164,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="14.25">
       <c r="A117" s="5">
         <v>545</v>
       </c>
@@ -38171,7 +38182,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="14.25">
       <c r="A118" s="5">
         <v>286</v>
       </c>
@@ -38189,7 +38200,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" ht="14.25">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38207,7 +38218,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="14.25">
       <c r="A120" s="5">
         <v>249</v>
       </c>
@@ -38235,7 +38246,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" ht="14.25">
       <c r="A121" s="5">
         <v>1236</v>
       </c>
@@ -38253,7 +38264,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" ht="14.25">
       <c r="A122" s="5">
         <v>723</v>
       </c>
@@ -38271,7 +38282,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" ht="14.25">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38289,7 +38300,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" ht="14.25">
       <c r="A124" s="5">
         <v>426</v>
       </c>
@@ -38307,7 +38318,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="14.25">
       <c r="A125" s="5">
         <v>256</v>
       </c>
@@ -38325,7 +38336,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" ht="14.25">
       <c r="A126" s="5">
         <v>366</v>
       </c>
@@ -38343,7 +38354,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" ht="14.25">
       <c r="A127" s="5">
         <v>1244</v>
       </c>
@@ -38361,7 +38372,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="14.25">
       <c r="A128" s="5">
         <v>1167</v>
       </c>
@@ -38379,7 +38390,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="14.25">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38397,7 +38408,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="14.25">
       <c r="A130" s="5">
         <v>616</v>
       </c>
@@ -38415,7 +38426,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="14.25">
       <c r="A131" s="5">
         <v>333</v>
       </c>
@@ -38433,7 +38444,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" ht="14.25">
       <c r="A132" s="5">
         <v>490</v>
       </c>
@@ -38451,7 +38462,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="14.25">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38474,7 +38485,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="14.25">
       <c r="A134" s="5">
         <v>1057</v>
       </c>
@@ -38492,7 +38503,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" ht="14.25">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38510,7 +38521,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" ht="14.25">
       <c r="A136" s="5">
         <v>259</v>
       </c>
@@ -38528,7 +38539,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" ht="14.25">
       <c r="A137" s="5">
         <v>323</v>
       </c>
@@ -38546,7 +38557,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="14.25">
       <c r="A138" s="5">
         <v>247</v>
       </c>
@@ -38564,7 +38575,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" ht="14.25">
       <c r="A139" s="5">
         <v>1429</v>
       </c>
@@ -38582,7 +38593,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" ht="14.25">
       <c r="A140" s="5">
         <v>163</v>
       </c>
@@ -38600,7 +38611,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" ht="14.25">
       <c r="A141" s="5">
         <v>159</v>
       </c>
@@ -38618,7 +38629,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="14.25">
       <c r="A142" s="5">
         <v>250</v>
       </c>
@@ -38636,7 +38647,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="14.25">
       <c r="A143" s="5">
         <v>285</v>
       </c>
@@ -38654,7 +38665,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" ht="14.25">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38672,7 +38683,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" ht="14.25">
       <c r="A145" s="5">
         <v>280</v>
       </c>
@@ -38690,7 +38701,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="14.25">
       <c r="A146" s="5">
         <v>1166</v>
       </c>
@@ -38708,7 +38719,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="14.25">
       <c r="A147" s="5">
         <v>742</v>
       </c>
@@ -38726,7 +38737,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" ht="14.25">
       <c r="A148" s="5">
         <v>635</v>
       </c>
@@ -38744,7 +38755,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" ht="14.25">
       <c r="A149" s="5">
         <v>361</v>
       </c>
@@ -38762,7 +38773,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" ht="14.25">
       <c r="A150" s="5">
         <v>281</v>
       </c>
@@ -38780,7 +38791,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="14.25">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38798,7 +38809,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" ht="14.25">
       <c r="A152" s="5">
         <v>271</v>
       </c>
@@ -38816,7 +38827,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" ht="14.25">
       <c r="A153" s="5">
         <v>1066</v>
       </c>
@@ -38834,7 +38845,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" ht="14.25">
       <c r="A154" s="5">
         <v>161</v>
       </c>
@@ -38852,7 +38863,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" ht="14.25">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -38870,7 +38881,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="14.25">
       <c r="A156" s="5">
         <v>320</v>
       </c>
@@ -38888,7 +38899,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" ht="14.25">
       <c r="A157" s="5">
         <v>1245</v>
       </c>
@@ -38906,7 +38917,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="14.25">
       <c r="A158" s="5">
         <v>505</v>
       </c>
@@ -38924,7 +38935,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" ht="14.25">
       <c r="A159" s="5">
         <v>364</v>
       </c>
@@ -38942,7 +38953,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" ht="14.25">
       <c r="A160" s="5">
         <v>562</v>
       </c>
@@ -38960,7 +38971,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" ht="14.25">
       <c r="A161" s="5">
         <v>1102</v>
       </c>
@@ -38978,7 +38989,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" ht="14.25">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -38996,7 +39007,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" ht="14.25">
       <c r="A163" s="5">
         <v>1151</v>
       </c>
@@ -39014,7 +39025,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" ht="14.25">
       <c r="A164" s="5">
         <v>536</v>
       </c>
@@ -39032,7 +39043,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" ht="14.25">
       <c r="A165" s="5">
         <v>186</v>
       </c>
@@ -39050,7 +39061,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" ht="14.25">
       <c r="A166" s="5">
         <v>1120</v>
       </c>
@@ -39068,7 +39079,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" ht="14.25">
       <c r="A167" s="5">
         <v>244</v>
       </c>
@@ -39086,7 +39097,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="14.25">
       <c r="A168" s="5">
         <v>1087</v>
       </c>
@@ -39104,7 +39115,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="14.25">
       <c r="A169" s="5">
         <v>737</v>
       </c>
@@ -39122,7 +39133,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" ht="14.25">
       <c r="A170" s="5">
         <v>1062</v>
       </c>
@@ -39140,7 +39151,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" ht="14.25">
       <c r="A171" s="5">
         <v>484</v>
       </c>
@@ -39158,7 +39169,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" ht="14.25">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -39176,7 +39187,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" ht="14.25">
       <c r="A173" s="5">
         <v>267</v>
       </c>
@@ -39194,7 +39205,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" ht="14.25">
       <c r="A174" s="5">
         <v>702</v>
       </c>
@@ -39212,7 +39223,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" ht="14.25">
       <c r="A175" s="5">
         <v>325</v>
       </c>
@@ -39230,7 +39241,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" ht="14.25">
       <c r="A176" s="5">
         <v>1059</v>
       </c>
@@ -39248,7 +39259,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="14.25">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39266,7 +39277,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" ht="14.25">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39284,7 +39295,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" ht="14.25">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39302,7 +39313,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="14.25">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39320,7 +39331,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" ht="14.25">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39338,27 +39349,27 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="145">
+    <row r="182" spans="1:9" ht="14.25">
+      <c r="A182" s="135">
         <v>276</v>
       </c>
-      <c r="B182" s="146" t="s">
+      <c r="B182" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="C182" s="144" t="s">
+      <c r="C182" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="147"/>
-      <c r="E182" s="148"/>
-      <c r="F182" s="148"/>
-      <c r="G182" s="148"/>
-      <c r="H182" s="149" t="str">
+      <c r="D182" s="137"/>
+      <c r="E182" s="138"/>
+      <c r="F182" s="138"/>
+      <c r="G182" s="138"/>
+      <c r="H182" s="139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I182" s="147"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="I182" s="137"/>
+    </row>
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39376,7 +39387,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" ht="14.25">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39394,7 +39405,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" ht="14.25">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39412,7 +39423,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" ht="14.25">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39430,7 +39441,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="14.25">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39448,7 +39459,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" ht="14.25">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39466,7 +39477,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" ht="14.25">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39484,7 +39495,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" ht="14.25">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39502,7 +39513,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="14.25">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39520,7 +39531,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" ht="14.25">
       <c r="A192" s="5">
         <v>261</v>
       </c>
@@ -39538,7 +39549,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" ht="14.25">
       <c r="A193" s="5">
         <v>1101</v>
       </c>
@@ -39556,7 +39567,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="14.25">
       <c r="A194" s="5">
         <v>1506</v>
       </c>
@@ -39574,7 +39585,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" ht="14.25">
       <c r="A195" s="5">
         <v>369</v>
       </c>
@@ -39592,7 +39603,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" ht="14.25">
       <c r="A196" s="5">
         <v>1490</v>
       </c>
@@ -39610,7 +39621,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" ht="14.25">
       <c r="A197" s="5">
         <v>370</v>
       </c>
@@ -39628,7 +39639,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="14.25">
       <c r="A198" s="5">
         <v>510</v>
       </c>
@@ -39646,7 +39657,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="14.25">
       <c r="A199" s="5">
         <v>1198</v>
       </c>
@@ -39664,7 +39675,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="14.25">
       <c r="A200" s="5">
         <v>487</v>
       </c>
@@ -39682,7 +39693,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="14.25">
       <c r="A201" s="5">
         <v>360</v>
       </c>
@@ -39700,7 +39711,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="14.25">
       <c r="A202" s="5">
         <v>549</v>
       </c>
@@ -39720,10 +39731,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B102">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B202">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{22F90BFE-B503-4779-9713-C1F6004DA634}"/>
@@ -39942,10 +39953,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -39977,28 +39988,28 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="137">
+      <c r="A4" s="127">
         <v>149</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>546</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="128" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2AD9E667-6F78-4521-8B65-7909838ED74D}"/>
@@ -40016,13 +40027,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -40045,7 +40056,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1">
+    <row r="3" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A3" s="100">
         <v>242</v>
       </c>
@@ -40103,7 +40114,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="29" customFormat="1">
+    <row r="6" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A6" s="111">
         <v>249</v>
       </c>
@@ -40140,34 +40151,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CCC7DED9-E36F-4D4C-8589-B851D3F52295}"/>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A8717-1F84-401D-9684-208CD2F7314A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A61D9-B0E2-4A15-8F66-18E78AE43362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="1275" windowWidth="28485" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="975" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="566">
   <si>
     <t>#</t>
   </si>
@@ -1718,6 +1718,24 @@
   </si>
   <si>
     <t>716. Min Stack 239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Permutations II; Permutation Sequence; Combinations</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>T: O(n! * n); S: O(n!)</t>
+  </si>
+  <si>
+    <t>T: O(3^n * 4^m); S: O(3^n * 4^m)</t>
+  </si>
+  <si>
+    <t>T: O(n); S: O(n)</t>
+  </si>
+  <si>
+    <t>Sqaures of a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -3299,7 +3317,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
+  <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Medium"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="22"/>
@@ -3533,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3564,11 +3588,11 @@
       <c r="B1" s="145"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.36</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3579,11 +3603,11 @@
       <c r="B2" s="145"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.64</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3593,7 +3617,7 @@
       <c r="B3" s="145"/>
       <c r="C3" s="142">
         <f ca="1">(C2)/C5</f>
-        <v>2.2857142857142856</v>
+        <v>2.3653846153846154</v>
       </c>
       <c r="D3" s="143"/>
     </row>
@@ -3614,7 +3638,7 @@
       <c r="B5" s="149"/>
       <c r="C5" s="141">
         <f ca="1">C4-TODAY()</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="141"/>
       <c r="I5" s="39"/>
@@ -4884,7 +4908,7 @@
       <c r="E32" s="51"/>
       <c r="F32" s="52" t="str">
         <f>Practice_Tracker!H26</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G32" s="51"/>
       <c r="H32" s="65">
@@ -4936,7 +4960,7 @@
       </c>
       <c r="F33" s="52" t="str">
         <f>Practice_Tracker!H27</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="65">
@@ -8017,7 +8041,7 @@
       </c>
       <c r="L93" s="52" t="str">
         <f>Practice_Tracker!H187</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M93" s="51"/>
       <c r="N93" s="4"/>
@@ -8723,7 +8747,7 @@
       </c>
       <c r="L107" s="52" t="str">
         <f>Practice_Tracker!H201</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M107" s="51"/>
       <c r="N107" s="4"/>
@@ -8775,7 +8799,7 @@
       </c>
       <c r="L108" s="52" t="str">
         <f>Practice_Tracker!H202</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M108" s="51"/>
       <c r="N108" s="4"/>
@@ -35882,8 +35906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -35931,7 +35955,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10" thickBot="1">
+    <row r="3" spans="1:10" hidden="1" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -35951,7 +35975,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:10" thickBot="1">
+    <row r="4" spans="1:10" hidden="1" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -36059,6 +36083,9 @@
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>561</v>
+      </c>
       <c r="E9" s="92" t="s">
         <v>520</v>
       </c>
@@ -36089,7 +36116,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1">
+    <row r="11" spans="1:10" hidden="1" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -36109,7 +36136,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1">
+    <row r="12" spans="1:10" hidden="1" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -36127,7 +36154,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1">
+    <row r="13" spans="1:10" hidden="1" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -36167,7 +36194,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1">
+    <row r="15" spans="1:10" hidden="1" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36207,7 +36234,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:8" thickBot="1">
+    <row r="17" spans="1:10" hidden="1" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36227,7 +36254,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:8" thickBot="1">
+    <row r="18" spans="1:10" thickBot="1">
       <c r="A18" s="8">
         <v>56</v>
       </c>
@@ -36247,7 +36274,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickBot="1">
+    <row r="19" spans="1:10" hidden="1" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36267,7 +36294,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:8" thickBot="1">
+    <row r="20" spans="1:10" hidden="1" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36287,7 +36314,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:8" thickBot="1">
+    <row r="21" spans="1:10" thickBot="1">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -36307,7 +36334,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:8" thickBot="1">
+    <row r="22" spans="1:10" hidden="1" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36325,7 +36352,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" thickBot="1">
+    <row r="23" spans="1:10" thickBot="1">
       <c r="A23" s="2">
         <v>322</v>
       </c>
@@ -36345,7 +36372,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:8" thickBot="1">
+    <row r="24" spans="1:10" thickBot="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -36365,7 +36392,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:8" thickBot="1">
+    <row r="25" spans="1:10" thickBot="1">
       <c r="A25" s="2">
         <v>54</v>
       </c>
@@ -36385,7 +36412,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:8" thickBot="1">
+    <row r="26" spans="1:10" thickBot="1">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -36395,15 +36422,23 @@
       <c r="C26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="95"/>
+      <c r="D26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F26" s="119"/>
       <c r="G26" s="93"/>
       <c r="H26" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="J26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" thickBot="1">
       <c r="A27" s="2">
         <v>46</v>
       </c>
@@ -36413,15 +36448,26 @@
       <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="95"/>
+      <c r="D27" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F27" s="119"/>
       <c r="G27" s="93"/>
       <c r="H27" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="I27" t="s">
+        <v>560</v>
+      </c>
+      <c r="J27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" thickBot="1">
       <c r="A28" s="8">
         <v>380</v>
       </c>
@@ -36441,7 +36487,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:8" thickBot="1">
+    <row r="29" spans="1:10" thickBot="1">
       <c r="A29" s="2">
         <v>79</v>
       </c>
@@ -36461,7 +36507,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:8" thickBot="1">
+    <row r="30" spans="1:10" hidden="1" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36481,7 +36527,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:8" thickBot="1">
+    <row r="31" spans="1:10" thickBot="1">
       <c r="A31" s="2">
         <v>253</v>
       </c>
@@ -36501,7 +36547,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:8" thickBot="1">
+    <row r="32" spans="1:10" hidden="1" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36521,7 +36567,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" thickBot="1">
+    <row r="33" spans="1:9" hidden="1" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36539,7 +36585,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" thickBot="1">
+    <row r="34" spans="1:9" hidden="1" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36601,7 +36647,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" thickBot="1">
+    <row r="37" spans="1:9" hidden="1" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36659,7 +36705,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" thickBot="1">
+    <row r="40" spans="1:9" hidden="1" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36697,7 +36743,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" thickBot="1">
+    <row r="42" spans="1:9" hidden="1" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36715,7 +36761,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" thickBot="1">
+    <row r="43" spans="1:9" hidden="1" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36776,7 +36822,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" thickBot="1">
+    <row r="46" spans="1:9" hidden="1" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36794,7 +36840,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" thickBot="1">
+    <row r="47" spans="1:9" hidden="1" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36870,7 +36916,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:10" thickBot="1">
+    <row r="51" spans="1:10" hidden="1" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -36890,7 +36936,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:10" thickBot="1">
+    <row r="52" spans="1:10" hidden="1" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -36908,7 +36954,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" thickBot="1">
+    <row r="53" spans="1:10" hidden="1" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
@@ -36937,7 +36983,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:10" thickBot="1">
+    <row r="54" spans="1:10" hidden="1" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -36997,7 +37043,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:10" thickBot="1">
+    <row r="57" spans="1:10" hidden="1" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -37035,7 +37081,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" thickBot="1">
+    <row r="59" spans="1:10" hidden="1" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -37081,7 +37127,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:10" thickBot="1">
+    <row r="61" spans="1:10" hidden="1" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -37101,7 +37147,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:10" thickBot="1">
+    <row r="62" spans="1:10" hidden="1" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -37139,7 +37185,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:10" thickBot="1">
+    <row r="64" spans="1:10" hidden="1" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37157,7 +37203,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" thickBot="1">
+    <row r="65" spans="1:9" hidden="1" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37233,7 +37279,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" thickBot="1">
+    <row r="69" spans="1:9" hidden="1" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37253,7 +37299,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" thickBot="1">
+    <row r="70" spans="1:9" hidden="1" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37325,7 +37371,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" thickBot="1">
+    <row r="74" spans="1:9" hidden="1" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37363,7 +37409,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" thickBot="1">
+    <row r="76" spans="1:9" hidden="1" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37381,7 +37427,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" thickBot="1">
+    <row r="77" spans="1:9" hidden="1" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37399,7 +37445,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" thickBot="1">
+    <row r="78" spans="1:9" hidden="1" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37503,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" thickBot="1">
+    <row r="83" spans="1:10" hidden="1" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37539,7 +37585,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" thickBot="1">
+    <row r="85" spans="1:10" hidden="1" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37557,7 +37603,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" thickBot="1">
+    <row r="86" spans="1:10" hidden="1" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37653,7 +37699,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" thickBot="1">
+    <row r="91" spans="1:10" hidden="1" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37714,7 +37760,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" thickBot="1">
+    <row r="94" spans="1:10" hidden="1" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37732,7 +37778,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" thickBot="1">
+    <row r="95" spans="1:10" hidden="1" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37768,7 +37814,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" thickBot="1">
+    <row r="97" spans="1:9" hidden="1" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37786,7 +37832,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" thickBot="1">
+    <row r="98" spans="1:9" hidden="1" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37804,7 +37850,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" thickBot="1">
+    <row r="99" spans="1:9" hidden="1" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37858,7 +37904,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25">
+    <row r="102" spans="1:9" ht="14.25" hidden="1">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -38004,7 +38050,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25">
+    <row r="109" spans="1:9" ht="14.25" hidden="1">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -38064,7 +38110,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.25">
+    <row r="112" spans="1:9" ht="14.25" hidden="1">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -38200,7 +38246,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25">
+    <row r="119" spans="1:9" ht="14.25" hidden="1">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38282,7 +38328,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.25">
+    <row r="123" spans="1:9" ht="14.25" hidden="1">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38390,7 +38436,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25">
+    <row r="129" spans="1:8" ht="14.25" hidden="1">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38462,7 +38508,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25">
+    <row r="133" spans="1:8" ht="14.25" hidden="1">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38503,7 +38549,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25">
+    <row r="135" spans="1:8" ht="14.25" hidden="1">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38665,7 +38711,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25">
+    <row r="144" spans="1:8" ht="14.25" hidden="1">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38791,7 +38837,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25">
+    <row r="151" spans="1:8" ht="14.25" hidden="1">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38863,7 +38909,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25">
+    <row r="155" spans="1:8" ht="14.25" hidden="1">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -38989,7 +39035,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25">
+    <row r="162" spans="1:8" ht="14.25" hidden="1">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -39169,7 +39215,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25">
+    <row r="172" spans="1:8" ht="14.25" hidden="1">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -39259,7 +39305,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.25">
+    <row r="177" spans="1:10" ht="14.25">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39277,7 +39323,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.25">
+    <row r="178" spans="1:10" ht="14.25">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39295,7 +39341,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.25">
+    <row r="179" spans="1:10" ht="14.25">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39313,7 +39359,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.25">
+    <row r="180" spans="1:10" ht="14.25">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39331,7 +39377,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.25">
+    <row r="181" spans="1:10" ht="14.25" hidden="1">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39349,7 +39395,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.25">
+    <row r="182" spans="1:10" ht="14.25" hidden="1">
       <c r="A182" s="135">
         <v>276</v>
       </c>
@@ -39369,7 +39415,7 @@
       </c>
       <c r="I182" s="137"/>
     </row>
-    <row r="183" spans="1:9" ht="14.25">
+    <row r="183" spans="1:10" ht="14.25">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39387,7 +39433,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.25">
+    <row r="184" spans="1:10" ht="14.25" hidden="1">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39405,7 +39451,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.25">
+    <row r="185" spans="1:10" ht="14.25">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39423,7 +39469,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="14.25">
+    <row r="186" spans="1:10" ht="14.25">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39441,7 +39487,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="14.25">
+    <row r="187" spans="1:10" ht="14.25">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39451,15 +39497,23 @@
       <c r="C187" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="96"/>
+      <c r="D187" t="s">
+        <v>561</v>
+      </c>
+      <c r="E187" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F187" s="119"/>
       <c r="G187" s="93"/>
       <c r="H187" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="14.25">
+        <v>Complete</v>
+      </c>
+      <c r="J187" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="14.25">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39477,7 +39531,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="14.25">
+    <row r="189" spans="1:10" ht="14.25">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39495,7 +39549,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="14.25">
+    <row r="190" spans="1:10" ht="14.25">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39513,7 +39567,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="14.25">
+    <row r="191" spans="1:10" ht="14.25">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39531,7 +39585,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="14.25">
+    <row r="192" spans="1:10" ht="14.25">
       <c r="A192" s="5">
         <v>261</v>
       </c>
@@ -39549,7 +39603,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.25">
+    <row r="193" spans="1:10" ht="14.25">
       <c r="A193" s="5">
         <v>1101</v>
       </c>
@@ -39567,7 +39621,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.25">
+    <row r="194" spans="1:10" ht="14.25">
       <c r="A194" s="5">
         <v>1506</v>
       </c>
@@ -39585,7 +39639,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.25">
+    <row r="195" spans="1:10" ht="14.25">
       <c r="A195" s="5">
         <v>369</v>
       </c>
@@ -39603,7 +39657,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.25">
+    <row r="196" spans="1:10" ht="14.25">
       <c r="A196" s="5">
         <v>1490</v>
       </c>
@@ -39621,7 +39675,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.25">
+    <row r="197" spans="1:10" ht="14.25">
       <c r="A197" s="5">
         <v>370</v>
       </c>
@@ -39639,7 +39693,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.25">
+    <row r="198" spans="1:10" ht="14.25">
       <c r="A198" s="5">
         <v>510</v>
       </c>
@@ -39657,7 +39711,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.25">
+    <row r="199" spans="1:10" ht="14.25">
       <c r="A199" s="5">
         <v>1198</v>
       </c>
@@ -39675,7 +39729,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.25">
+    <row r="200" spans="1:10" ht="14.25">
       <c r="A200" s="5">
         <v>487</v>
       </c>
@@ -39693,7 +39747,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.25">
+    <row r="201" spans="1:10" ht="14.25">
       <c r="A201" s="5">
         <v>360</v>
       </c>
@@ -39703,15 +39757,26 @@
       <c r="C201" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="96"/>
+      <c r="D201" t="s">
+        <v>552</v>
+      </c>
+      <c r="E201" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F201" s="119"/>
       <c r="G201" s="93"/>
       <c r="H201" s="94" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="14.25">
+        <v>Complete</v>
+      </c>
+      <c r="I201" t="s">
+        <v>565</v>
+      </c>
+      <c r="J201" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="14.25">
       <c r="A202" s="5">
         <v>549</v>
       </c>
@@ -39721,12 +39786,20 @@
       <c r="C202" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="96"/>
+      <c r="D202" t="s">
+        <v>561</v>
+      </c>
+      <c r="E202" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F202" s="119"/>
       <c r="G202" s="93"/>
       <c r="H202" s="94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J202" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A61D9-B0E2-4A15-8F66-18E78AE43362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCBEB1F-C98E-4039-9305-28F7402EA18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="975" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="1125" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="574">
   <si>
     <t>#</t>
   </si>
@@ -1736,14 +1736,39 @@
   </si>
   <si>
     <t>Sqaures of a Sorted Array</t>
+  </si>
+  <si>
+    <t>T: O(n); S: O(1)</t>
+  </si>
+  <si>
+    <t>2 Pointers</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>T: O(mn log(n)); S: O(1) where m is rows n is cols in matrix</t>
+  </si>
+  <si>
+    <t>T: O(log(n)) average, O(n) worst case; S: O(1) where n number of nodes in tree</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Tree Iterative</t>
+  </si>
+  <si>
+    <t>T: O(n + k) where n is length of array and k is number of updates; S: O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -2094,7 +2119,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2189,6 +2214,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
   </fills>
@@ -2354,7 +2391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,12 +2676,6 @@
     <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2663,6 +2694,22 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3558,7 +3605,7 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3582,60 +3629,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="143"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.38500000000000001</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="142" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="145"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.61499999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="142" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="142">
+      <c r="B3" s="143"/>
+      <c r="C3" s="148">
         <f ca="1">(C2)/C5</f>
-        <v>2.3653846153846154</v>
-      </c>
-      <c r="D3" s="143"/>
+        <v>2.2884615384615383</v>
+      </c>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="144" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="147"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="140">
         <v>44196</v>
       </c>
       <c r="D4" s="140"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="146" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="141">
         <f ca="1">C4-TODAY()</f>
         <v>52</v>
@@ -3645,8 +3692,8 @@
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="I6" s="40"/>
@@ -8545,7 +8592,7 @@
       </c>
       <c r="L103" s="52" t="str">
         <f>Practice_Tracker!H197</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M103" s="51"/>
       <c r="N103" s="4"/>
@@ -8595,7 +8642,7 @@
       </c>
       <c r="L104" s="52" t="str">
         <f>Practice_Tracker!H198</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M104" s="51"/>
       <c r="N104" s="4"/>
@@ -8645,7 +8692,7 @@
       </c>
       <c r="L105" s="52" t="str">
         <f>Practice_Tracker!H199</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M105" s="51"/>
       <c r="N105" s="4"/>
@@ -8695,7 +8742,7 @@
       </c>
       <c r="L106" s="52" t="str">
         <f>Practice_Tracker!H200</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M106" s="51"/>
       <c r="N106" s="4"/>
@@ -35906,21 +35953,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
     <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
@@ -39685,30 +39732,47 @@
       <c r="C197" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="96"/>
+      <c r="D197" t="s">
+        <v>571</v>
+      </c>
+      <c r="E197" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F197" s="119"/>
       <c r="G197" s="93"/>
       <c r="H197" s="94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J197" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.25">
-      <c r="A198" s="5">
+      <c r="A198" s="150">
         <v>510</v>
       </c>
-      <c r="B198" s="34" t="s">
+      <c r="B198" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="E198" s="96"/>
-      <c r="F198" s="119"/>
-      <c r="G198" s="93"/>
-      <c r="H198" s="94" t="str">
+      <c r="D198" s="153" t="s">
+        <v>572</v>
+      </c>
+      <c r="E198" s="154" t="s">
+        <v>520</v>
+      </c>
+      <c r="F198" s="155"/>
+      <c r="G198" s="156"/>
+      <c r="H198" s="157" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I198" s="153"/>
+      <c r="J198" s="153" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="14.25">
@@ -39721,12 +39785,20 @@
       <c r="C199" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="96"/>
+      <c r="D199" t="s">
+        <v>568</v>
+      </c>
+      <c r="E199" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F199" s="119"/>
       <c r="G199" s="93"/>
       <c r="H199" s="94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J199" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="14.25">
@@ -39739,12 +39811,20 @@
       <c r="C200" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="96"/>
+      <c r="D200" t="s">
+        <v>567</v>
+      </c>
+      <c r="E200" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F200" s="119"/>
       <c r="G200" s="93"/>
       <c r="H200" s="94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J200" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCBEB1F-C98E-4039-9305-28F7402EA18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213CDC5-99DD-48C0-A083-D4AEE8BC582F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="1125" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="2895" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="577">
   <si>
     <t>#</t>
   </si>
@@ -1760,6 +1760,15 @@
   </si>
   <si>
     <t>T: O(n + k) where n is length of array and k is number of updates; S: O(n)</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>T: O(v + e) where v is number of vertics and e is number of edges in a graph or nary tree; S: O(v)</t>
+  </si>
+  <si>
+    <t>1485. Clone Binary Tree With Random Pointer</t>
   </si>
 </sst>
 </file>
@@ -3635,11 +3644,11 @@
       <c r="B1" s="143"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.40500000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3650,11 +3659,11 @@
       <c r="B2" s="143"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.59499999999999997</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3664,7 +3673,7 @@
       <c r="B3" s="143"/>
       <c r="C3" s="148">
         <f ca="1">(C2)/C5</f>
-        <v>2.2884615384615383</v>
+        <v>2.3137254901960786</v>
       </c>
       <c r="D3" s="149"/>
     </row>
@@ -3685,7 +3694,7 @@
       <c r="B5" s="147"/>
       <c r="C5" s="141">
         <f ca="1">C4-TODAY()</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="141"/>
       <c r="I5" s="39"/>
@@ -8542,7 +8551,7 @@
       </c>
       <c r="L102" s="52" t="str">
         <f>Practice_Tracker!H196</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M102" s="51"/>
       <c r="N102" s="4"/>
@@ -35953,8 +35962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -35967,7 +35976,7 @@
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
@@ -39714,12 +39723,23 @@
       <c r="C196" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="96"/>
+      <c r="D196" t="s">
+        <v>574</v>
+      </c>
+      <c r="E196" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F196" s="119"/>
       <c r="G196" s="93"/>
       <c r="H196" s="94" t="str">
         <f t="shared" ref="H196:H202" si="3">IF(OR(E196&lt;&gt;"",F196&lt;&gt;"",G196&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I196" t="s">
+        <v>576</v>
+      </c>
+      <c r="J196" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213CDC5-99DD-48C0-A083-D4AEE8BC582F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E425E25-4E9A-436E-9C2F-93C8A6002396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="2895" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="3375" windowWidth="26385" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="578">
   <si>
     <t>#</t>
   </si>
@@ -1769,6 +1769,9 @@
   </si>
   <si>
     <t>1485. Clone Binary Tree With Random Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) where n is number of nodes in the binary tree. </t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3644,11 +3647,11 @@
       <c r="B1" s="143"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.41</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3659,11 +3662,11 @@
       <c r="B2" s="143"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.59</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3673,7 +3676,7 @@
       <c r="B3" s="143"/>
       <c r="C3" s="148">
         <f ca="1">(C2)/C5</f>
-        <v>2.3137254901960786</v>
+        <v>2.34</v>
       </c>
       <c r="D3" s="149"/>
     </row>
@@ -3694,7 +3697,7 @@
       <c r="B5" s="147"/>
       <c r="C5" s="141">
         <f ca="1">C4-TODAY()</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="141"/>
       <c r="I5" s="39"/>
@@ -8301,7 +8304,7 @@
       </c>
       <c r="L97" s="52" t="str">
         <f>Practice_Tracker!H191</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M97" s="51"/>
       <c r="N97" s="4"/>
@@ -35962,8 +35965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39633,12 +39636,20 @@
       <c r="C191" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="96"/>
+      <c r="D191" t="s">
+        <v>561</v>
+      </c>
+      <c r="E191" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F191" s="119"/>
       <c r="G191" s="93"/>
       <c r="H191" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J191" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E425E25-4E9A-436E-9C2F-93C8A6002396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F1391-4C1C-4BD7-892F-62212A46AA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="3375" windowWidth="26385" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="5385" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="578">
   <si>
     <t>#</t>
   </si>
@@ -1780,7 +1780,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -2682,11 +2682,27 @@
     <xf numFmtId="0" fontId="55" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2706,22 +2722,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3616,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3641,73 +3641,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="152" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.41499999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="152" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="143"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.58499999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="152" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148">
+      <c r="B3" s="153"/>
+      <c r="C3" s="150">
         <f ca="1">(C2)/C5</f>
-        <v>2.34</v>
-      </c>
-      <c r="D3" s="149"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D3" s="151"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="154" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="140">
+      <c r="B4" s="155"/>
+      <c r="C4" s="148">
         <v>44196</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="148"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="156" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="141">
+      <c r="B5" s="157"/>
+      <c r="C5" s="149">
         <f ca="1">C4-TODAY()</f>
         <v>50</v>
       </c>
-      <c r="D5" s="141"/>
+      <c r="D5" s="149"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="L101" s="52" t="str">
         <f>Practice_Tracker!H195</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M101" s="51"/>
       <c r="N101" s="4"/>
@@ -35965,8 +35965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J212" sqref="J212"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39716,12 +39716,17 @@
       <c r="C195" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="96"/>
+      <c r="D195" t="s">
+        <v>557</v>
+      </c>
+      <c r="E195" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F195" s="119"/>
       <c r="G195" s="93"/>
       <c r="H195" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25">
@@ -39780,29 +39785,29 @@
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.25">
-      <c r="A198" s="150">
+      <c r="A198" s="140">
         <v>510</v>
       </c>
-      <c r="B198" s="151" t="s">
+      <c r="B198" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="C198" s="152" t="s">
+      <c r="C198" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="D198" s="153" t="s">
+      <c r="D198" s="143" t="s">
         <v>572</v>
       </c>
-      <c r="E198" s="154" t="s">
+      <c r="E198" s="144" t="s">
         <v>520</v>
       </c>
-      <c r="F198" s="155"/>
-      <c r="G198" s="156"/>
-      <c r="H198" s="157" t="str">
+      <c r="F198" s="145"/>
+      <c r="G198" s="146"/>
+      <c r="H198" s="147" t="str">
         <f t="shared" si="3"/>
         <v>Complete</v>
       </c>
-      <c r="I198" s="153"/>
-      <c r="J198" s="153" t="s">
+      <c r="I198" s="143"/>
+      <c r="J198" s="143" t="s">
         <v>570</v>
       </c>
     </row>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F1391-4C1C-4BD7-892F-62212A46AA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34AC7E-FDEE-4334-9D36-86707F57E8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="5385" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1635" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="579">
   <si>
     <t>#</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(n); S: O(n) where n is number of nodes in the binary tree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(1) where n is numbe of nodes in linked list. </t>
   </si>
 </sst>
 </file>
@@ -3647,11 +3650,11 @@
       <c r="B1" s="153"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.42</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3662,11 +3665,11 @@
       <c r="B2" s="153"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.57999999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3676,7 +3679,7 @@
       <c r="B3" s="153"/>
       <c r="C3" s="150">
         <f ca="1">(C2)/C5</f>
-        <v>2.3199999999999998</v>
+        <v>2.3469387755102042</v>
       </c>
       <c r="D3" s="151"/>
     </row>
@@ -3697,7 +3700,7 @@
       <c r="B5" s="157"/>
       <c r="C5" s="149">
         <f ca="1">C4-TODAY()</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="149"/>
       <c r="I5" s="39"/>
@@ -8454,7 +8457,7 @@
       </c>
       <c r="L100" s="52" t="str">
         <f>Practice_Tracker!H194</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M100" s="51"/>
       <c r="N100" s="4"/>
@@ -35965,8 +35968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I195" sqref="I195"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39698,12 +39701,20 @@
       <c r="C194" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E194" s="96"/>
+      <c r="D194" t="s">
+        <v>572</v>
+      </c>
+      <c r="E194" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F194" s="119"/>
       <c r="G194" s="93"/>
       <c r="H194" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J194" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="14.25">
@@ -39727,6 +39738,9 @@
       <c r="H195" s="94" t="str">
         <f t="shared" si="2"/>
         <v>Complete</v>
+      </c>
+      <c r="J195" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34AC7E-FDEE-4334-9D36-86707F57E8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651082F-C660-41E5-A6F9-DCF546116969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1635" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="581">
   <si>
     <t>#</t>
   </si>
@@ -1775,6 +1775,12 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(n); S: O(1) where n is numbe of nodes in linked list. </t>
+  </si>
+  <si>
+    <t>Union-Find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(2^n); S: O(n) where n is the number of persons in the party. </t>
   </si>
 </sst>
 </file>
@@ -3379,13 +3385,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4882B1DC-72CD-429C-9509-8A56B6D33EE0}" name="Table3" displayName="Table3" ref="A2:J202" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Medium"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J202" xr:uid="{3373B3F1-2A72-40EE-9FF9-4FE0B39B0635}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6079ACFA-2BB6-4616-88C5-648F31437B85}" name="#" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{09807E12-8767-47D0-A05A-50013B923C50}" name="Title" dataDxfId="22"/>
@@ -3620,7 +3620,7 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3650,11 +3650,11 @@
       <c r="B1" s="153"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.42499999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3665,11 +3665,11 @@
       <c r="B2" s="153"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.57499999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3679,7 +3679,7 @@
       <c r="B3" s="153"/>
       <c r="C3" s="150">
         <f ca="1">(C2)/C5</f>
-        <v>2.3469387755102042</v>
+        <v>2.375</v>
       </c>
       <c r="D3" s="151"/>
     </row>
@@ -3700,7 +3700,7 @@
       <c r="B5" s="157"/>
       <c r="C5" s="149">
         <f ca="1">C4-TODAY()</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="149"/>
       <c r="I5" s="39"/>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="L99" s="52" t="str">
         <f>Practice_Tracker!H193</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M99" s="51"/>
       <c r="N99" s="4"/>
@@ -35968,8 +35968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -36017,7 +36017,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" thickBot="1">
+    <row r="3" spans="1:10" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -36037,7 +36037,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" thickBot="1">
+    <row r="4" spans="1:10" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -36178,7 +36178,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" thickBot="1">
+    <row r="11" spans="1:10" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -36198,7 +36198,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" thickBot="1">
+    <row r="12" spans="1:10" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -36216,7 +36216,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" thickBot="1">
+    <row r="13" spans="1:10" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -36256,7 +36256,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" thickBot="1">
+    <row r="15" spans="1:10" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" thickBot="1">
+    <row r="17" spans="1:10" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36336,7 +36336,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" thickBot="1">
+    <row r="19" spans="1:10" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36356,7 +36356,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" thickBot="1">
+    <row r="20" spans="1:10" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" thickBot="1">
+    <row r="22" spans="1:10" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36569,7 +36569,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" thickBot="1">
+    <row r="30" spans="1:10" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36609,7 +36609,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" thickBot="1">
+    <row r="32" spans="1:10" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36629,7 +36629,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" thickBot="1">
+    <row r="33" spans="1:9" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36647,7 +36647,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" thickBot="1">
+    <row r="34" spans="1:9" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36709,7 +36709,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" thickBot="1">
+    <row r="37" spans="1:9" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36767,7 +36767,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" thickBot="1">
+    <row r="40" spans="1:9" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36805,7 +36805,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" thickBot="1">
+    <row r="42" spans="1:9" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36823,7 +36823,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" thickBot="1">
+    <row r="43" spans="1:9" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" thickBot="1">
+    <row r="46" spans="1:9" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36902,7 +36902,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" thickBot="1">
+    <row r="47" spans="1:9" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36978,7 +36978,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" thickBot="1">
+    <row r="51" spans="1:10" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" thickBot="1">
+    <row r="52" spans="1:10" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -37016,7 +37016,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" thickBot="1">
+    <row r="53" spans="1:10" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" thickBot="1">
+    <row r="54" spans="1:10" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -37105,7 +37105,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" thickBot="1">
+    <row r="57" spans="1:10" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -37143,7 +37143,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" thickBot="1">
+    <row r="59" spans="1:10" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -37189,7 +37189,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" thickBot="1">
+    <row r="61" spans="1:10" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" thickBot="1">
+    <row r="62" spans="1:10" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -37247,7 +37247,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" thickBot="1">
+    <row r="64" spans="1:10" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37265,7 +37265,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" thickBot="1">
+    <row r="65" spans="1:9" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37341,7 +37341,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" thickBot="1">
+    <row r="69" spans="1:9" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37361,7 +37361,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" thickBot="1">
+    <row r="70" spans="1:9" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" thickBot="1">
+    <row r="74" spans="1:9" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37471,7 +37471,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" thickBot="1">
+    <row r="76" spans="1:9" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" thickBot="1">
+    <row r="77" spans="1:9" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37507,7 +37507,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" thickBot="1">
+    <row r="78" spans="1:9" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37611,7 +37611,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" thickBot="1">
+    <row r="83" spans="1:10" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37647,7 +37647,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" thickBot="1">
+    <row r="85" spans="1:10" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37665,7 +37665,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" thickBot="1">
+    <row r="86" spans="1:10" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" thickBot="1">
+    <row r="91" spans="1:10" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37822,7 +37822,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" thickBot="1">
+    <row r="94" spans="1:10" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37840,7 +37840,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" thickBot="1">
+    <row r="95" spans="1:10" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" thickBot="1">
+    <row r="97" spans="1:9" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" thickBot="1">
+    <row r="98" spans="1:9" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37912,7 +37912,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" thickBot="1">
+    <row r="99" spans="1:9" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37966,7 +37966,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25" hidden="1">
+    <row r="102" spans="1:9" ht="14.25">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -38112,7 +38112,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25" hidden="1">
+    <row r="109" spans="1:9" ht="14.25">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -38172,7 +38172,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.25" hidden="1">
+    <row r="112" spans="1:9" ht="14.25">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -38308,7 +38308,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25" hidden="1">
+    <row r="119" spans="1:9" ht="14.25">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38390,7 +38390,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.25" hidden="1">
+    <row r="123" spans="1:9" ht="14.25">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38498,7 +38498,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25" hidden="1">
+    <row r="129" spans="1:8" ht="14.25">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38570,7 +38570,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25" hidden="1">
+    <row r="133" spans="1:8" ht="14.25">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38611,7 +38611,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25" hidden="1">
+    <row r="135" spans="1:8" ht="14.25">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38773,7 +38773,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25" hidden="1">
+    <row r="144" spans="1:8" ht="14.25">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38899,7 +38899,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25" hidden="1">
+    <row r="151" spans="1:8" ht="14.25">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38971,7 +38971,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25" hidden="1">
+    <row r="155" spans="1:8" ht="14.25">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -39097,7 +39097,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25" hidden="1">
+    <row r="162" spans="1:8" ht="14.25">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -39277,7 +39277,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25" hidden="1">
+    <row r="172" spans="1:8" ht="14.25">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -39439,7 +39439,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.25" hidden="1">
+    <row r="181" spans="1:10" ht="14.25">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39457,7 +39457,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.25" hidden="1">
+    <row r="182" spans="1:10" ht="14.25">
       <c r="A182" s="135">
         <v>276</v>
       </c>
@@ -39495,7 +39495,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.25" hidden="1">
+    <row r="184" spans="1:10" ht="14.25">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39683,12 +39683,20 @@
       <c r="C193" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="96"/>
+      <c r="D193" t="s">
+        <v>579</v>
+      </c>
+      <c r="E193" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F193" s="119"/>
       <c r="G193" s="93"/>
       <c r="H193" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J193" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651082F-C660-41E5-A6F9-DCF546116969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB509FD-9EFC-4FA2-9065-EADE8118BBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1635" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="1740" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="583">
   <si>
     <t>#</t>
   </si>
@@ -1781,6 +1781,12 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(2^n); S: O(n) where n is the number of persons in the party. </t>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>T: O(N + E); S: O(N + E) where N is number of nodes and E is number of edges.</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2731,6 +2737,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3619,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111:J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3650,11 +3657,11 @@
       <c r="B1" s="153"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3665,11 +3672,11 @@
       <c r="B2" s="153"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3679,7 +3686,7 @@
       <c r="B3" s="153"/>
       <c r="C3" s="150">
         <f ca="1">(C2)/C5</f>
-        <v>2.375</v>
+        <v>2.4888888888888889</v>
       </c>
       <c r="D3" s="151"/>
     </row>
@@ -3700,7 +3707,7 @@
       <c r="B5" s="157"/>
       <c r="C5" s="149">
         <f ca="1">C4-TODAY()</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="149"/>
       <c r="I5" s="39"/>
@@ -5544,7 +5551,7 @@
       <c r="H43" s="65">
         <v>323</v>
       </c>
-      <c r="I43" s="66" t="s">
+      <c r="I43" s="158" t="s">
         <v>98</v>
       </c>
       <c r="J43" s="61">
@@ -5555,7 +5562,7 @@
       </c>
       <c r="L43" s="52" t="str">
         <f>Practice_Tracker!H137</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M43" s="51"/>
       <c r="N43" s="4"/>
@@ -8357,7 +8364,7 @@
       </c>
       <c r="L98" s="52" t="str">
         <f>Practice_Tracker!H192</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M98" s="51"/>
       <c r="N98" s="4"/>
@@ -35968,7 +35975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
@@ -38498,7 +38505,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25">
+    <row r="129" spans="1:9" ht="14.25">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38516,7 +38523,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.25">
+    <row r="130" spans="1:9" ht="14.25">
       <c r="A130" s="5">
         <v>616</v>
       </c>
@@ -38534,7 +38541,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.25">
+    <row r="131" spans="1:9" ht="14.25">
       <c r="A131" s="5">
         <v>333</v>
       </c>
@@ -38552,7 +38559,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.25">
+    <row r="132" spans="1:9" ht="14.25">
       <c r="A132" s="5">
         <v>490</v>
       </c>
@@ -38570,7 +38577,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25">
+    <row r="133" spans="1:9" ht="14.25">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38593,7 +38600,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.25">
+    <row r="134" spans="1:9" ht="14.25">
       <c r="A134" s="5">
         <v>1057</v>
       </c>
@@ -38611,7 +38618,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25">
+    <row r="135" spans="1:9" ht="14.25">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38629,7 +38636,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.25">
+    <row r="136" spans="1:9" ht="14.25">
       <c r="A136" s="5">
         <v>259</v>
       </c>
@@ -38647,7 +38654,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.25">
+    <row r="137" spans="1:9" ht="14.25">
       <c r="A137" s="5">
         <v>323</v>
       </c>
@@ -38657,15 +38664,23 @@
       <c r="C137" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="96"/>
+      <c r="D137" t="s">
+        <v>561</v>
+      </c>
+      <c r="E137" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F137" s="119"/>
       <c r="G137" s="93"/>
       <c r="H137" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="14.25">
+        <v>Complete</v>
+      </c>
+      <c r="I137" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.25">
       <c r="A138" s="5">
         <v>247</v>
       </c>
@@ -38683,7 +38698,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.25">
+    <row r="139" spans="1:9" ht="14.25">
       <c r="A139" s="5">
         <v>1429</v>
       </c>
@@ -38701,7 +38716,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.25">
+    <row r="140" spans="1:9" ht="14.25">
       <c r="A140" s="5">
         <v>163</v>
       </c>
@@ -38719,7 +38734,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.25">
+    <row r="141" spans="1:9" ht="14.25">
       <c r="A141" s="5">
         <v>159</v>
       </c>
@@ -38737,7 +38752,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.25">
+    <row r="142" spans="1:9" ht="14.25">
       <c r="A142" s="5">
         <v>250</v>
       </c>
@@ -38755,7 +38770,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.25">
+    <row r="143" spans="1:9" ht="14.25">
       <c r="A143" s="5">
         <v>285</v>
       </c>
@@ -38773,7 +38788,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25">
+    <row r="144" spans="1:9" ht="14.25">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -39665,12 +39680,20 @@
       <c r="C192" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="96"/>
+      <c r="D192" t="s">
+        <v>561</v>
+      </c>
+      <c r="E192" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F192" s="119"/>
       <c r="G192" s="93"/>
       <c r="H192" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J192" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB509FD-9EFC-4FA2-9065-EADE8118BBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79401716-D174-466F-A580-04965F16F783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1740" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16725" yWindow="5580" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="584">
   <si>
     <t>#</t>
   </si>
@@ -1787,6 +1787,9 @@
   </si>
   <si>
     <t>T: O(N + E); S: O(N + E) where N is number of nodes and E is number of edges.</t>
+  </si>
+  <si>
+    <t>T: O(n); S: O(1) where n is length of string.</t>
   </si>
 </sst>
 </file>
@@ -3657,11 +3660,11 @@
       <c r="B1" s="153"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3672,11 +3675,11 @@
       <c r="B2" s="153"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.56000000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3686,7 +3689,7 @@
       <c r="B3" s="153"/>
       <c r="C3" s="150">
         <f ca="1">(C2)/C5</f>
-        <v>2.4888888888888889</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="D3" s="151"/>
     </row>
@@ -8264,7 +8267,7 @@
       </c>
       <c r="L96" s="52" t="str">
         <f>Practice_Tracker!H190</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M96" s="51"/>
       <c r="N96" s="4"/>
@@ -35975,8 +35978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J193" sqref="J193"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39636,12 +39639,17 @@
       <c r="C190" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="96"/>
+      <c r="E190" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F190" s="119"/>
       <c r="G190" s="93"/>
       <c r="H190" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J190" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79401716-D174-466F-A580-04965F16F783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E194C-71F6-7C41-B430-3DA7430633ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="5580" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="26380" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LC_Most_Freq!$A$8:$M$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Practice_Tracker!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="584">
   <si>
     <t>#</t>
   </si>
@@ -2710,6 +2699,7 @@
     <xf numFmtId="0" fontId="49" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2740,7 +2730,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,35 +3618,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111:J139"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="44.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
         <v>89</v>
@@ -3669,10 +3658,10 @@
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
         <v>111</v>
@@ -3683,44 +3672,44 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="150">
+      <c r="B3" s="154"/>
+      <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="D3" s="151"/>
+        <v>2.5227272727272729</v>
+      </c>
+      <c r="D3" s="152"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="148">
+      <c r="B4" s="156"/>
+      <c r="C4" s="149">
         <v>44196</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="149">
+      <c r="B5" s="158"/>
+      <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>45</v>
-      </c>
-      <c r="D5" s="149"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="150"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -5554,7 +5543,7 @@
       <c r="H43" s="65">
         <v>323</v>
       </c>
-      <c r="I43" s="158" t="s">
+      <c r="I43" s="148" t="s">
         <v>98</v>
       </c>
       <c r="J43" s="61">
@@ -35978,24 +35967,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="81.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -36027,7 +36016,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -36047,7 +36036,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:10" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -36067,7 +36056,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -36087,7 +36076,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -36107,7 +36096,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" spans="1:10" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>146</v>
       </c>
@@ -36125,7 +36114,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -36145,7 +36134,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:10" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -36168,7 +36157,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -36188,7 +36177,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -36208,7 +36197,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -36226,7 +36215,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -36246,7 +36235,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -36266,7 +36255,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36286,7 +36275,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:10" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="8">
         <v>238</v>
       </c>
@@ -36306,7 +36295,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:10" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36326,7 +36315,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:10" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="8">
         <v>56</v>
       </c>
@@ -36346,7 +36335,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:10" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36366,7 +36355,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:10" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36386,7 +36375,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:10" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -36406,7 +36395,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:10" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36424,7 +36413,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>322</v>
       </c>
@@ -36444,7 +36433,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:10" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -36464,7 +36453,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:10" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>54</v>
       </c>
@@ -36484,7 +36473,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:10" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -36510,7 +36499,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:10" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>46</v>
       </c>
@@ -36539,7 +36528,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:10" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="8">
         <v>380</v>
       </c>
@@ -36559,7 +36548,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:10" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="2">
         <v>79</v>
       </c>
@@ -36579,7 +36568,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:10" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36599,7 +36588,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:10" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="2">
         <v>253</v>
       </c>
@@ -36619,7 +36608,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:10" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36639,7 +36628,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" thickBot="1">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36657,7 +36646,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36675,7 +36664,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>215</v>
       </c>
@@ -36701,7 +36690,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:9" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1">
       <c r="A36" s="8">
         <v>127</v>
       </c>
@@ -36719,7 +36708,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" thickBot="1">
+    <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36737,7 +36726,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" thickBot="1">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="8">
         <v>33</v>
       </c>
@@ -36757,7 +36746,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="39" spans="1:9" thickBot="1">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -36777,7 +36766,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" thickBot="1">
+    <row r="40" spans="1:9" ht="15" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36795,7 +36784,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" thickBot="1">
+    <row r="41" spans="1:9" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>139</v>
       </c>
@@ -36815,7 +36804,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" thickBot="1">
+    <row r="42" spans="1:9" ht="15" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36833,7 +36822,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" thickBot="1">
+    <row r="43" spans="1:9" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36851,7 +36840,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" thickBot="1">
+    <row r="44" spans="1:9" ht="15" thickBot="1">
       <c r="A44" s="8">
         <v>49</v>
       </c>
@@ -36874,7 +36863,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:9" thickBot="1">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>152</v>
       </c>
@@ -36894,7 +36883,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" thickBot="1">
+    <row r="46" spans="1:9" ht="15" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36912,7 +36901,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" thickBot="1">
+    <row r="47" spans="1:9" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36930,7 +36919,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" thickBot="1">
+    <row r="48" spans="1:9" ht="15" thickBot="1">
       <c r="A48" s="8">
         <v>347</v>
       </c>
@@ -36950,7 +36939,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" spans="1:10" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>227</v>
       </c>
@@ -36968,7 +36957,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -36988,7 +36977,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:10" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -37008,7 +36997,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:10" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -37026,7 +37015,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
@@ -37055,7 +37044,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:10" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -37075,7 +37064,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" spans="1:10" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>105</v>
       </c>
@@ -37095,7 +37084,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:10" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="8">
         <v>300</v>
       </c>
@@ -37115,7 +37104,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:10" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -37135,7 +37124,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:10" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -37153,7 +37142,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -37179,7 +37168,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:10" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="8">
         <v>78</v>
       </c>
@@ -37199,7 +37188,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:10" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -37219,7 +37208,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:10" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -37237,7 +37226,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -37257,7 +37246,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:10" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37275,7 +37264,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" thickBot="1">
+    <row r="65" spans="1:9" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37295,7 +37284,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:9" thickBot="1">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37313,7 +37302,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" thickBot="1">
+    <row r="67" spans="1:9" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37333,7 +37322,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:9" thickBot="1">
+    <row r="68" spans="1:9" ht="15" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37351,7 +37340,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" thickBot="1">
+    <row r="69" spans="1:9" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37371,7 +37360,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" thickBot="1">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37389,7 +37378,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" thickBot="1">
+    <row r="71" spans="1:9" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37407,7 +37396,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" thickBot="1">
+    <row r="72" spans="1:9" ht="15" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37425,7 +37414,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" thickBot="1">
+    <row r="73" spans="1:9" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37443,7 +37432,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" thickBot="1">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37461,7 +37450,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" thickBot="1">
+    <row r="75" spans="1:9" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37481,7 +37470,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" thickBot="1">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37499,7 +37488,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" thickBot="1">
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37517,7 +37506,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" thickBot="1">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37543,7 +37532,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:9" thickBot="1">
+    <row r="79" spans="1:9" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37563,7 +37552,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:9" thickBot="1">
+    <row r="80" spans="1:9" ht="15" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>
@@ -37583,7 +37572,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" spans="1:10" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>287</v>
       </c>
@@ -37603,7 +37592,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" spans="1:10" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -37621,7 +37610,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37639,7 +37628,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="8">
         <v>240</v>
       </c>
@@ -37657,7 +37646,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37675,7 +37664,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37695,7 +37684,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" spans="1:10" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>341</v>
       </c>
@@ -37713,7 +37702,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="8">
         <v>19</v>
       </c>
@@ -37733,7 +37722,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" spans="1:10" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>55</v>
       </c>
@@ -37753,7 +37742,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" spans="1:10" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="8">
         <v>166</v>
       </c>
@@ -37771,7 +37760,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37796,7 +37785,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:10" thickBot="1">
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="8">
         <v>395</v>
       </c>
@@ -37814,7 +37803,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>207</v>
       </c>
@@ -37832,7 +37821,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37850,7 +37839,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37868,7 +37857,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="8">
         <v>378</v>
       </c>
@@ -37886,7 +37875,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" thickBot="1">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37904,7 +37893,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" thickBot="1">
+    <row r="98" spans="1:9" ht="15" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37922,7 +37911,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" thickBot="1">
+    <row r="99" spans="1:9" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37940,7 +37929,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" thickBot="1">
+    <row r="100" spans="1:9" ht="15" thickBot="1">
       <c r="A100" s="8">
         <v>371</v>
       </c>
@@ -37958,7 +37947,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" thickBot="1">
+    <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>29</v>
       </c>
@@ -37976,7 +37965,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -38002,7 +37991,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>253</v>
       </c>
@@ -38022,7 +38011,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>1428</v>
       </c>
@@ -38042,7 +38031,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>362</v>
       </c>
@@ -38062,7 +38051,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>1197</v>
       </c>
@@ -38082,7 +38071,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>348</v>
       </c>
@@ -38102,7 +38091,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <v>314</v>
       </c>
@@ -38122,7 +38111,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -38142,7 +38131,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="13">
         <v>1060</v>
       </c>
@@ -38162,7 +38151,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>311</v>
       </c>
@@ -38182,7 +38171,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -38202,7 +38191,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>1229</v>
       </c>
@@ -38222,7 +38211,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <v>353</v>
       </c>
@@ -38242,7 +38231,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>694</v>
       </c>
@@ -38262,7 +38251,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <v>277</v>
       </c>
@@ -38282,7 +38271,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>545</v>
       </c>
@@ -38300,7 +38289,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <v>286</v>
       </c>
@@ -38318,7 +38307,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38336,7 +38325,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <v>249</v>
       </c>
@@ -38364,7 +38353,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>1236</v>
       </c>
@@ -38382,7 +38371,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <v>723</v>
       </c>
@@ -38400,7 +38389,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38418,7 +38407,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <v>426</v>
       </c>
@@ -38436,7 +38425,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>256</v>
       </c>
@@ -38454,7 +38443,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="5">
         <v>366</v>
       </c>
@@ -38472,7 +38461,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>1244</v>
       </c>
@@ -38490,7 +38479,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="5">
         <v>1167</v>
       </c>
@@ -38508,7 +38497,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38526,7 +38515,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="5">
         <v>616</v>
       </c>
@@ -38544,7 +38533,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="5">
         <v>333</v>
       </c>
@@ -38562,7 +38551,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="5">
         <v>490</v>
       </c>
@@ -38580,7 +38569,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38603,7 +38592,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="5">
         <v>1057</v>
       </c>
@@ -38621,7 +38610,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38639,7 +38628,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="5">
         <v>259</v>
       </c>
@@ -38657,7 +38646,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="5">
         <v>323</v>
       </c>
@@ -38683,7 +38672,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="5">
         <v>247</v>
       </c>
@@ -38701,7 +38690,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="5">
         <v>1429</v>
       </c>
@@ -38719,7 +38708,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="5">
         <v>163</v>
       </c>
@@ -38737,7 +38726,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="5">
         <v>159</v>
       </c>
@@ -38755,7 +38744,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="5">
         <v>250</v>
       </c>
@@ -38773,7 +38762,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="5">
         <v>285</v>
       </c>
@@ -38791,7 +38780,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38809,7 +38798,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="5">
         <v>280</v>
       </c>
@@ -38827,7 +38816,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="5">
         <v>1166</v>
       </c>
@@ -38845,7 +38834,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="5">
         <v>742</v>
       </c>
@@ -38863,7 +38852,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="5">
         <v>635</v>
       </c>
@@ -38881,7 +38870,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="5">
         <v>361</v>
       </c>
@@ -38899,7 +38888,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="5">
         <v>281</v>
       </c>
@@ -38917,7 +38906,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38935,7 +38924,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="5">
         <v>271</v>
       </c>
@@ -38953,7 +38942,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="5">
         <v>1066</v>
       </c>
@@ -38971,7 +38960,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="5">
         <v>161</v>
       </c>
@@ -38989,7 +38978,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -39007,7 +38996,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="5">
         <v>320</v>
       </c>
@@ -39025,7 +39014,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="5">
         <v>1245</v>
       </c>
@@ -39043,7 +39032,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="5">
         <v>505</v>
       </c>
@@ -39061,7 +39050,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="5">
         <v>364</v>
       </c>
@@ -39079,7 +39068,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="5">
         <v>562</v>
       </c>
@@ -39097,7 +39086,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="5">
         <v>1102</v>
       </c>
@@ -39115,7 +39104,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -39133,7 +39122,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="5">
         <v>1151</v>
       </c>
@@ -39151,7 +39140,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="5">
         <v>536</v>
       </c>
@@ -39169,7 +39158,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="5">
         <v>186</v>
       </c>
@@ -39187,7 +39176,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="5">
         <v>1120</v>
       </c>
@@ -39205,7 +39194,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="5">
         <v>244</v>
       </c>
@@ -39223,7 +39212,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="5">
         <v>1087</v>
       </c>
@@ -39241,7 +39230,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="5">
         <v>737</v>
       </c>
@@ -39259,7 +39248,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="5">
         <v>1062</v>
       </c>
@@ -39277,7 +39266,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="5">
         <v>484</v>
       </c>
@@ -39295,7 +39284,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -39313,7 +39302,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="5">
         <v>267</v>
       </c>
@@ -39331,7 +39320,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="5">
         <v>702</v>
       </c>
@@ -39349,7 +39338,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="5">
         <v>325</v>
       </c>
@@ -39367,7 +39356,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="5">
         <v>1059</v>
       </c>
@@ -39385,7 +39374,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39403,7 +39392,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39421,7 +39410,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39439,7 +39428,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="14.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39457,7 +39446,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39475,7 +39464,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="135">
         <v>276</v>
       </c>
@@ -39495,7 +39484,7 @@
       </c>
       <c r="I182" s="137"/>
     </row>
-    <row r="183" spans="1:10" ht="14.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39513,7 +39502,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39531,7 +39520,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39549,7 +39538,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="14.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39567,7 +39556,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="14.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39593,7 +39582,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="14.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39611,7 +39600,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="14.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39629,7 +39618,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="14.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39638,6 +39627,9 @@
       </c>
       <c r="C190" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>571</v>
       </c>
       <c r="E190" s="96" t="s">
         <v>520</v>
@@ -39652,7 +39644,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="14.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39678,7 +39670,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="5">
         <v>261</v>
       </c>
@@ -39704,7 +39696,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="14.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="5">
         <v>1101</v>
       </c>
@@ -39730,7 +39722,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="14.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="5">
         <v>1506</v>
       </c>
@@ -39756,7 +39748,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="14.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="5">
         <v>369</v>
       </c>
@@ -39782,7 +39774,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="5">
         <v>1490</v>
       </c>
@@ -39811,7 +39803,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="5">
         <v>370</v>
       </c>
@@ -39837,7 +39829,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="140">
         <v>510</v>
       </c>
@@ -39864,7 +39856,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="5">
         <v>1198</v>
       </c>
@@ -39890,7 +39882,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="14.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="5">
         <v>487</v>
       </c>
@@ -39916,7 +39908,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="5">
         <v>360</v>
       </c>
@@ -39945,7 +39937,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="14.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="5">
         <v>549</v>
       </c>
@@ -40195,10 +40187,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -40269,13 +40261,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -40298,7 +40290,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="3" spans="1:6" s="29" customFormat="1">
       <c r="A3" s="100">
         <v>242</v>
       </c>
@@ -40356,7 +40348,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="6" spans="1:6" s="29" customFormat="1">
       <c r="A6" s="111">
         <v>249</v>
       </c>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79401716-D174-466F-A580-04965F16F783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65175A-A431-4AC4-AE39-DEDFA13CE4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="5580" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="975" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="585">
   <si>
     <t>#</t>
   </si>
@@ -1790,6 +1790,9 @@
   </si>
   <si>
     <t>T: O(n); S: O(1) where n is length of string.</t>
+  </si>
+  <si>
+    <t>T: O(n); S: O(n) where n is length of given array.</t>
   </si>
 </sst>
 </file>
@@ -2710,6 +2713,7 @@
     <xf numFmtId="0" fontId="49" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2740,7 +2744,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111:J139"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3654,73 +3657,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.44500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.55500000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="150">
+      <c r="B3" s="154"/>
+      <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="D3" s="151"/>
+        <v>2.558139534883721</v>
+      </c>
+      <c r="D3" s="152"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="148">
+      <c r="B4" s="156"/>
+      <c r="C4" s="149">
         <v>44196</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="149">
+      <c r="B5" s="158"/>
+      <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>45</v>
-      </c>
-      <c r="D5" s="149"/>
+        <v>43</v>
+      </c>
+      <c r="D5" s="150"/>
       <c r="I5" s="39"/>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
       <c r="I6" s="40"/>
       <c r="J6" s="43"/>
     </row>
@@ -5554,7 +5557,7 @@
       <c r="H43" s="65">
         <v>323</v>
       </c>
-      <c r="I43" s="158" t="s">
+      <c r="I43" s="148" t="s">
         <v>98</v>
       </c>
       <c r="J43" s="61">
@@ -8217,7 +8220,7 @@
       </c>
       <c r="L95" s="52" t="str">
         <f>Practice_Tracker!H189</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M95" s="51"/>
       <c r="N95" s="4"/>
@@ -35978,8 +35981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView tabSelected="1" topLeftCell="B164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39621,12 +39624,20 @@
       <c r="C189" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="96"/>
+      <c r="D189" t="s">
+        <v>558</v>
+      </c>
+      <c r="E189" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F189" s="119"/>
       <c r="G189" s="93"/>
       <c r="H189" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="J189" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="14.25">
@@ -39638,6 +39649,9 @@
       </c>
       <c r="C190" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>571</v>
       </c>
       <c r="E190" s="96" t="s">
         <v>520</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65175A-A431-4AC4-AE39-DEDFA13CE4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796B2D5-16EC-4602-B3DD-04B828C5DCA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="975" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="10830" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="587">
   <si>
     <t>#</t>
   </si>
@@ -1793,6 +1793,12 @@
   </si>
   <si>
     <t>T: O(n); S: O(n) where n is length of given array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) </t>
+  </si>
+  <si>
+    <t>281. Zigzag Iterator, 341. Flatten Nested List Iterator</t>
   </si>
 </sst>
 </file>
@@ -3663,11 +3669,11 @@
       <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.45</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3678,11 +3684,11 @@
       <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.55000000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3692,7 +3698,7 @@
       <c r="B3" s="154"/>
       <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.558139534883721</v>
+        <v>2.5952380952380953</v>
       </c>
       <c r="D3" s="152"/>
     </row>
@@ -3713,7 +3719,7 @@
       <c r="B5" s="158"/>
       <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="150"/>
       <c r="I5" s="39"/>
@@ -8168,7 +8174,7 @@
       </c>
       <c r="L94" s="52" t="str">
         <f>Practice_Tracker!H188</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M94" s="51"/>
       <c r="N94" s="4"/>
@@ -35981,8 +35987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -39606,12 +39612,23 @@
       <c r="C188" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="96"/>
+      <c r="D188" t="s">
+        <v>567</v>
+      </c>
+      <c r="E188" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F188" s="119"/>
       <c r="G188" s="93"/>
       <c r="H188" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I188" t="s">
+        <v>586</v>
+      </c>
+      <c r="J188" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="14.25">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\Desktop\Code\04_Algorithms\01_LeetCode\04_LeetCode_Most_Freq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796B2D5-16EC-4602-B3DD-04B828C5DCA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF21017-A792-E54C-925D-62E4D87A6BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="10830" windowWidth="26385" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47860" yWindow="1640" windowWidth="26380" windowHeight="20860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LC_Most_Freq!$A$8:$M$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Practice_Tracker!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="588">
   <si>
     <t>#</t>
   </si>
@@ -1799,6 +1788,9 @@
   </si>
   <si>
     <t>281. Zigzag Iterator, 341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T:O(n); S: O(1) where n is max(num of element in array1, num of elements in array2)  </t>
   </si>
 </sst>
 </file>
@@ -3642,21 +3634,21 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="44.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="8" customWidth="1"/>
@@ -3669,11 +3661,11 @@
       <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.45500000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3684,11 +3676,11 @@
       <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.54500000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3698,7 +3690,7 @@
       <c r="B3" s="154"/>
       <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.5952380952380953</v>
+        <v>2.6341463414634148</v>
       </c>
       <c r="D3" s="152"/>
     </row>
@@ -3719,7 +3711,7 @@
       <c r="B5" s="158"/>
       <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="150"/>
       <c r="I5" s="39"/>
@@ -6244,7 +6236,7 @@
       </c>
       <c r="L56" s="52" t="str">
         <f>Practice_Tracker!H150</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M56" s="51"/>
       <c r="N56" s="4"/>
@@ -35987,24 +35979,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="81.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -36036,7 +36028,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -36056,7 +36048,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" spans="1:10" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="8">
         <v>42</v>
       </c>
@@ -36076,7 +36068,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -36096,7 +36088,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -36116,7 +36108,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" spans="1:10" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>146</v>
       </c>
@@ -36134,7 +36126,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -36154,7 +36146,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:10" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -36177,7 +36169,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -36197,7 +36189,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -36217,7 +36209,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -36235,7 +36227,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -36255,7 +36247,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -36275,7 +36267,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -36295,7 +36287,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:10" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="8">
         <v>238</v>
       </c>
@@ -36315,7 +36307,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:10" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -36335,7 +36327,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:10" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="8">
         <v>56</v>
       </c>
@@ -36355,7 +36347,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:10" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>121</v>
       </c>
@@ -36375,7 +36367,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:10" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="8">
         <v>206</v>
       </c>
@@ -36395,7 +36387,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:10" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -36415,7 +36407,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:10" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="8">
         <v>76</v>
       </c>
@@ -36433,7 +36425,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>322</v>
       </c>
@@ -36453,7 +36445,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:10" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -36473,7 +36465,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:10" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>54</v>
       </c>
@@ -36493,7 +36485,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:10" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -36519,7 +36511,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:10" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>46</v>
       </c>
@@ -36548,7 +36540,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:10" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="8">
         <v>380</v>
       </c>
@@ -36568,7 +36560,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:10" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="2">
         <v>79</v>
       </c>
@@ -36588,7 +36580,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:10" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="8">
         <v>7</v>
       </c>
@@ -36608,7 +36600,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:10" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="2">
         <v>253</v>
       </c>
@@ -36628,7 +36620,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:10" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="8">
         <v>88</v>
       </c>
@@ -36648,7 +36640,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:9" thickBot="1">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="2">
         <v>239</v>
       </c>
@@ -36666,7 +36658,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -36684,7 +36676,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>215</v>
       </c>
@@ -36710,7 +36702,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:9" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1">
       <c r="A36" s="8">
         <v>127</v>
       </c>
@@ -36728,7 +36720,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" thickBot="1">
+    <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -36746,7 +36738,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" thickBot="1">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="8">
         <v>33</v>
       </c>
@@ -36766,7 +36758,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="39" spans="1:9" thickBot="1">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -36786,7 +36778,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" spans="1:9" thickBot="1">
+    <row r="40" spans="1:9" ht="15" thickBot="1">
       <c r="A40" s="8">
         <v>269</v>
       </c>
@@ -36804,7 +36796,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" thickBot="1">
+    <row r="41" spans="1:9" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>139</v>
       </c>
@@ -36824,7 +36816,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:9" thickBot="1">
+    <row r="42" spans="1:9" ht="15" thickBot="1">
       <c r="A42" s="8">
         <v>128</v>
       </c>
@@ -36842,7 +36834,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" thickBot="1">
+    <row r="43" spans="1:9" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>297</v>
       </c>
@@ -36860,7 +36852,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" thickBot="1">
+    <row r="44" spans="1:9" ht="15" thickBot="1">
       <c r="A44" s="8">
         <v>49</v>
       </c>
@@ -36883,7 +36875,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:9" thickBot="1">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>152</v>
       </c>
@@ -36903,7 +36895,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:9" thickBot="1">
+    <row r="46" spans="1:9" ht="15" thickBot="1">
       <c r="A46" s="8">
         <v>124</v>
       </c>
@@ -36921,7 +36913,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" thickBot="1">
+    <row r="47" spans="1:9" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>140</v>
       </c>
@@ -36939,7 +36931,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" thickBot="1">
+    <row r="48" spans="1:9" ht="15" thickBot="1">
       <c r="A48" s="8">
         <v>347</v>
       </c>
@@ -36959,7 +36951,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" spans="1:10" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>227</v>
       </c>
@@ -36977,7 +36969,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -36997,7 +36989,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:10" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -37017,7 +37009,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" spans="1:10" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="8">
         <v>84</v>
       </c>
@@ -37035,7 +37027,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>234</v>
       </c>
@@ -37064,7 +37056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:10" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -37084,7 +37076,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" spans="1:10" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>105</v>
       </c>
@@ -37104,7 +37096,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:10" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="8">
         <v>300</v>
       </c>
@@ -37124,7 +37116,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:10" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>283</v>
       </c>
@@ -37144,7 +37136,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:10" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -37162,7 +37154,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>155</v>
       </c>
@@ -37188,7 +37180,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:10" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="8">
         <v>78</v>
       </c>
@@ -37208,7 +37200,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:10" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>412</v>
       </c>
@@ -37228,7 +37220,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:10" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="8">
         <v>202</v>
       </c>
@@ -37246,7 +37238,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -37266,7 +37258,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" spans="1:10" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="8">
         <v>212</v>
       </c>
@@ -37284,7 +37276,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" thickBot="1">
+    <row r="65" spans="1:9" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37304,7 +37296,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:9" thickBot="1">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37322,7 +37314,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" thickBot="1">
+    <row r="67" spans="1:9" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37342,7 +37334,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:9" thickBot="1">
+    <row r="68" spans="1:9" ht="15" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37360,7 +37352,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" thickBot="1">
+    <row r="69" spans="1:9" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37380,7 +37372,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" thickBot="1">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37398,7 +37390,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" thickBot="1">
+    <row r="71" spans="1:9" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37416,7 +37408,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" thickBot="1">
+    <row r="72" spans="1:9" ht="15" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37434,7 +37426,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" thickBot="1">
+    <row r="73" spans="1:9" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37452,7 +37444,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" thickBot="1">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37470,7 +37462,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" thickBot="1">
+    <row r="75" spans="1:9" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37490,7 +37482,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" thickBot="1">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37508,7 +37500,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" thickBot="1">
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37526,7 +37518,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" thickBot="1">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37552,7 +37544,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:9" thickBot="1">
+    <row r="79" spans="1:9" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37572,7 +37564,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:9" thickBot="1">
+    <row r="80" spans="1:9" ht="15" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>
@@ -37592,7 +37584,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" spans="1:10" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>287</v>
       </c>
@@ -37612,7 +37604,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" spans="1:10" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -37630,7 +37622,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>218</v>
       </c>
@@ -37648,7 +37640,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="8">
         <v>240</v>
       </c>
@@ -37666,7 +37658,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>44</v>
       </c>
@@ -37684,7 +37676,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="8">
         <v>268</v>
       </c>
@@ -37704,7 +37696,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" spans="1:10" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>341</v>
       </c>
@@ -37722,7 +37714,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="8">
         <v>19</v>
       </c>
@@ -37742,7 +37734,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" spans="1:10" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>55</v>
       </c>
@@ -37762,7 +37754,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" spans="1:10" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="8">
         <v>166</v>
       </c>
@@ -37780,7 +37772,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>149</v>
       </c>
@@ -37805,7 +37797,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:10" thickBot="1">
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="8">
         <v>395</v>
       </c>
@@ -37823,7 +37815,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>207</v>
       </c>
@@ -37841,7 +37833,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="8">
         <v>169</v>
       </c>
@@ -37859,7 +37851,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>136</v>
       </c>
@@ -37877,7 +37869,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="8">
         <v>378</v>
       </c>
@@ -37895,7 +37887,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" thickBot="1">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>38</v>
       </c>
@@ -37913,7 +37905,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" thickBot="1">
+    <row r="98" spans="1:9" ht="15" thickBot="1">
       <c r="A98" s="8">
         <v>101</v>
       </c>
@@ -37931,7 +37923,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" thickBot="1">
+    <row r="99" spans="1:9" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>315</v>
       </c>
@@ -37949,7 +37941,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" thickBot="1">
+    <row r="100" spans="1:9" ht="15" thickBot="1">
       <c r="A100" s="8">
         <v>371</v>
       </c>
@@ -37967,7 +37959,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" thickBot="1">
+    <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>29</v>
       </c>
@@ -37985,7 +37977,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="17">
         <v>242</v>
       </c>
@@ -38011,7 +38003,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>253</v>
       </c>
@@ -38031,7 +38023,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>1428</v>
       </c>
@@ -38051,7 +38043,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>362</v>
       </c>
@@ -38071,7 +38063,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>1197</v>
       </c>
@@ -38091,7 +38083,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>348</v>
       </c>
@@ -38111,7 +38103,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <v>314</v>
       </c>
@@ -38131,7 +38123,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>1086</v>
       </c>
@@ -38151,7 +38143,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="13">
         <v>1060</v>
       </c>
@@ -38171,7 +38163,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>311</v>
       </c>
@@ -38191,7 +38183,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <v>359</v>
       </c>
@@ -38211,7 +38203,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>1229</v>
       </c>
@@ -38231,7 +38223,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <v>353</v>
       </c>
@@ -38251,7 +38243,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>694</v>
       </c>
@@ -38271,7 +38263,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <v>277</v>
       </c>
@@ -38291,7 +38283,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>545</v>
       </c>
@@ -38309,7 +38301,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <v>286</v>
       </c>
@@ -38327,7 +38319,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>339</v>
       </c>
@@ -38345,7 +38337,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <v>249</v>
       </c>
@@ -38373,7 +38365,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>1236</v>
       </c>
@@ -38391,7 +38383,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <v>723</v>
       </c>
@@ -38409,7 +38401,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>346</v>
       </c>
@@ -38427,7 +38419,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <v>426</v>
       </c>
@@ -38445,7 +38437,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>256</v>
       </c>
@@ -38463,7 +38455,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="5">
         <v>366</v>
       </c>
@@ -38481,7 +38473,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>1244</v>
       </c>
@@ -38499,7 +38491,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="5">
         <v>1167</v>
       </c>
@@ -38517,7 +38509,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="5">
         <v>270</v>
       </c>
@@ -38535,7 +38527,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="5">
         <v>616</v>
       </c>
@@ -38553,7 +38545,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="5">
         <v>333</v>
       </c>
@@ -38571,7 +38563,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="5">
         <v>490</v>
       </c>
@@ -38589,7 +38581,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="5">
         <v>716</v>
       </c>
@@ -38612,7 +38604,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="5">
         <v>1057</v>
       </c>
@@ -38630,7 +38622,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="5">
         <v>157</v>
       </c>
@@ -38648,7 +38640,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="5">
         <v>259</v>
       </c>
@@ -38666,7 +38658,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="5">
         <v>323</v>
       </c>
@@ -38692,7 +38684,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="5">
         <v>247</v>
       </c>
@@ -38710,7 +38702,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="5">
         <v>1429</v>
       </c>
@@ -38728,7 +38720,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="5">
         <v>163</v>
       </c>
@@ -38746,7 +38738,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="5">
         <v>159</v>
       </c>
@@ -38764,7 +38756,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="5">
         <v>250</v>
       </c>
@@ -38782,7 +38774,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="5">
         <v>285</v>
       </c>
@@ -38800,7 +38792,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="5">
         <v>252</v>
       </c>
@@ -38818,7 +38810,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="5">
         <v>280</v>
       </c>
@@ -38836,7 +38828,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="5">
         <v>1166</v>
       </c>
@@ -38854,7 +38846,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="5">
         <v>742</v>
       </c>
@@ -38872,7 +38864,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="5">
         <v>635</v>
       </c>
@@ -38890,7 +38882,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="5">
         <v>361</v>
       </c>
@@ -38908,7 +38900,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="5">
         <v>281</v>
       </c>
@@ -38918,15 +38910,23 @@
       <c r="C150" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="96"/>
+      <c r="D150" t="s">
+        <v>571</v>
+      </c>
+      <c r="E150" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F150" s="119"/>
       <c r="G150" s="93"/>
       <c r="H150" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="14.25">
+        <v>Complete</v>
+      </c>
+      <c r="J150" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="5">
         <v>243</v>
       </c>
@@ -38944,7 +38944,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="5">
         <v>271</v>
       </c>
@@ -38962,7 +38962,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="5">
         <v>1066</v>
       </c>
@@ -38980,7 +38980,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="5">
         <v>161</v>
       </c>
@@ -38998,7 +38998,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="5">
         <v>266</v>
       </c>
@@ -39016,7 +39016,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="5">
         <v>320</v>
       </c>
@@ -39034,7 +39034,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="5">
         <v>1245</v>
       </c>
@@ -39052,7 +39052,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="5">
         <v>505</v>
       </c>
@@ -39070,7 +39070,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="5">
         <v>364</v>
       </c>
@@ -39088,7 +39088,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="5">
         <v>562</v>
       </c>
@@ -39106,7 +39106,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="5">
         <v>1102</v>
       </c>
@@ -39124,7 +39124,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="5">
         <v>1180</v>
       </c>
@@ -39142,7 +39142,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="5">
         <v>1151</v>
       </c>
@@ -39160,7 +39160,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="5">
         <v>536</v>
       </c>
@@ -39178,7 +39178,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="5">
         <v>186</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="5">
         <v>1120</v>
       </c>
@@ -39214,7 +39214,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="5">
         <v>244</v>
       </c>
@@ -39232,7 +39232,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="5">
         <v>1087</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="5">
         <v>737</v>
       </c>
@@ -39268,7 +39268,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="5">
         <v>1062</v>
       </c>
@@ -39286,7 +39286,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="5">
         <v>484</v>
       </c>
@@ -39304,7 +39304,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="5">
         <v>1213</v>
       </c>
@@ -39322,7 +39322,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="5">
         <v>267</v>
       </c>
@@ -39340,7 +39340,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="5">
         <v>702</v>
       </c>
@@ -39358,7 +39358,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="5">
         <v>325</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="5">
         <v>1059</v>
       </c>
@@ -39394,7 +39394,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="5">
         <v>708</v>
       </c>
@@ -39412,7 +39412,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="5">
         <v>651</v>
       </c>
@@ -39430,7 +39430,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="5">
         <v>582</v>
       </c>
@@ -39448,7 +39448,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="14.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="5">
         <v>1522</v>
       </c>
@@ -39466,7 +39466,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="5">
         <v>1427</v>
       </c>
@@ -39484,7 +39484,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="135">
         <v>276</v>
       </c>
@@ -39504,7 +39504,7 @@
       </c>
       <c r="I182" s="137"/>
     </row>
-    <row r="183" spans="1:10" ht="14.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="5">
         <v>1265</v>
       </c>
@@ -39522,7 +39522,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="5">
         <v>1228</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="5">
         <v>1135</v>
       </c>
@@ -39558,7 +39558,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="14.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="5">
         <v>1055</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="14.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="5">
         <v>298</v>
       </c>
@@ -39602,7 +39602,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="14.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="5">
         <v>251</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="14.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="5">
         <v>255</v>
       </c>
@@ -39657,7 +39657,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="14.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="5">
         <v>1100</v>
       </c>
@@ -39683,7 +39683,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="14.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="5">
         <v>1485</v>
       </c>
@@ -39709,7 +39709,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="5">
         <v>261</v>
       </c>
@@ -39735,7 +39735,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="14.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="5">
         <v>1101</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="14.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="5">
         <v>1506</v>
       </c>
@@ -39787,7 +39787,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="14.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="5">
         <v>369</v>
       </c>
@@ -39813,7 +39813,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="5">
         <v>1490</v>
       </c>
@@ -39842,7 +39842,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="5">
         <v>370</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="140">
         <v>510</v>
       </c>
@@ -39895,7 +39895,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="5">
         <v>1198</v>
       </c>
@@ -39921,7 +39921,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="14.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="5">
         <v>487</v>
       </c>
@@ -39947,7 +39947,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="5">
         <v>360</v>
       </c>
@@ -39976,7 +39976,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="14.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="5">
         <v>549</v>
       </c>
@@ -40226,10 +40226,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -40300,13 +40300,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -40329,7 +40329,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="3" spans="1:6" s="29" customFormat="1">
       <c r="A3" s="100">
         <v>242</v>
       </c>
@@ -40387,7 +40387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="6" spans="1:6" s="29" customFormat="1">
       <c r="A6" s="111">
         <v>249</v>
       </c>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF21017-A792-E54C-925D-62E4D87A6BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AC3CD-4348-5E4A-A389-98D38EFDED23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47860" yWindow="1640" windowWidth="26380" windowHeight="20860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="500" windowWidth="26380" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="588">
   <si>
     <t>#</t>
   </si>
@@ -3661,11 +3661,11 @@
       <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.46</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3676,11 +3676,11 @@
       <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.54</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3690,7 +3690,7 @@
       <c r="B3" s="154"/>
       <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.6341463414634148</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="D3" s="152"/>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="B5" s="158"/>
       <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="150"/>
       <c r="I5" s="39"/>
@@ -8097,7 +8097,7 @@
       <c r="E93" s="51"/>
       <c r="F93" s="52" t="str">
         <f>Practice_Tracker!H87</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="65">
@@ -35979,8 +35979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -37706,12 +37706,17 @@
       <c r="C87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="95"/>
+      <c r="D87" s="105" t="s">
+        <v>561</v>
+      </c>
+      <c r="E87" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F87" s="119"/>
       <c r="G87" s="93"/>
       <c r="H87" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AC3CD-4348-5E4A-A389-98D38EFDED23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F0263-E7A7-E042-A15C-A817B9741F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="500" windowWidth="26380" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29180" yWindow="7700" windowWidth="26380" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Practice_Tracker!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="591">
   <si>
     <t>#</t>
   </si>
@@ -1791,6 +1792,15 @@
   </si>
   <si>
     <t xml:space="preserve">T:O(n); S: O(1) where n is max(num of element in array1, num of elements in array2)  </t>
+  </si>
+  <si>
+    <t>Is Subsequence; Number of Matching Subsequences</t>
+  </si>
+  <si>
+    <t>T: O(mn); S(1) where m is length of source string and n is length of target string</t>
+  </si>
+  <si>
+    <t>2 Pointers/Greedy</t>
   </si>
 </sst>
 </file>
@@ -3661,11 +3671,11 @@
       <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.46500000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3676,11 +3686,11 @@
       <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.53500000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3690,7 +3700,7 @@
       <c r="B3" s="154"/>
       <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.6749999999999998</v>
+        <v>2.7179487179487181</v>
       </c>
       <c r="D3" s="152"/>
     </row>
@@ -3711,7 +3721,7 @@
       <c r="B5" s="158"/>
       <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="150"/>
       <c r="I5" s="39"/>
@@ -8064,7 +8074,7 @@
       </c>
       <c r="L92" s="52" t="str">
         <f>Practice_Tracker!H186</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M92" s="51"/>
       <c r="N92" s="4"/>
@@ -35979,15 +35989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="B168" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="54.6640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
@@ -39573,12 +39583,23 @@
       <c r="C186" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E186" s="96"/>
+      <c r="D186" t="s">
+        <v>590</v>
+      </c>
+      <c r="E186" s="96" t="s">
+        <v>520</v>
+      </c>
       <c r="F186" s="119"/>
       <c r="G186" s="93"/>
       <c r="H186" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I186" t="s">
+        <v>588</v>
+      </c>
+      <c r="J186" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:10">

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikbhimraj/Desktop/Code/01_Algorithms/01_LeetCode/04_LeetCode_Most_Freq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F0263-E7A7-E042-A15C-A817B9741F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B97B179-6887-D34F-B906-F829AC1CD859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="7700" windowWidth="26380" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="760" windowWidth="26380" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Most_Freq" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="592">
   <si>
     <t>#</t>
   </si>
@@ -1801,6 +1801,9 @@
   </si>
   <si>
     <t>2 Pointers/Greedy</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree; Smallest Common Region; Lowest Common Ancestor of a Binary Tree II; Lowest Common Ancestor of a Binary Tree III</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,6 +2754,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3640,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3671,11 +3677,11 @@
       <c r="B1" s="154"/>
       <c r="C1" s="44">
         <f>COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="45">
         <f>C1/(C2 + C1)</f>
-        <v>0.47</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -3686,11 +3692,11 @@
       <c r="B2" s="154"/>
       <c r="C2" s="46">
         <f>COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="47">
         <f>C2/(C1 + C2)</f>
-        <v>0.53</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -3700,7 +3706,7 @@
       <c r="B3" s="154"/>
       <c r="C3" s="151">
         <f ca="1">(C2)/C5</f>
-        <v>2.7179487179487181</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="D3" s="152"/>
     </row>
@@ -3721,7 +3727,7 @@
       <c r="B5" s="158"/>
       <c r="C5" s="150">
         <f ca="1">C4-TODAY()</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="150"/>
       <c r="I5" s="39"/>
@@ -7037,7 +7043,7 @@
       </c>
       <c r="F72" s="52" t="str">
         <f>Practice_Tracker!H66</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G72" s="51"/>
       <c r="H72" s="65">
@@ -35989,8 +35995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F6EBF-59D7-4C0F-87A1-FEA29263AF16}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B168" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -37286,7 +37292,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1">
+    <row r="65" spans="1:10" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -37306,7 +37312,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1">
+    <row r="66" spans="1:10" ht="61" thickBot="1">
       <c r="A66" s="8">
         <v>236</v>
       </c>
@@ -37316,15 +37322,26 @@
       <c r="C66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="95"/>
+      <c r="D66" t="s">
+        <v>561</v>
+      </c>
+      <c r="E66" s="95" t="s">
+        <v>520</v>
+      </c>
       <c r="F66" s="119"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1">
+        <v>Complete</v>
+      </c>
+      <c r="I66" s="159" t="s">
+        <v>591</v>
+      </c>
+      <c r="J66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>34</v>
       </c>
@@ -37344,7 +37361,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1">
+    <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" s="8">
         <v>103</v>
       </c>
@@ -37362,7 +37379,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1">
+    <row r="69" spans="1:10" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>125</v>
       </c>
@@ -37382,7 +37399,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1">
+    <row r="70" spans="1:10" ht="15" thickBot="1">
       <c r="A70" s="8">
         <v>329</v>
       </c>
@@ -37400,7 +37417,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1">
+    <row r="71" spans="1:10" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>98</v>
       </c>
@@ -37418,7 +37435,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" thickBot="1">
+    <row r="72" spans="1:10" ht="15" thickBot="1">
       <c r="A72" s="8">
         <v>210</v>
       </c>
@@ -37436,7 +37453,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1">
+    <row r="73" spans="1:10" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>279</v>
       </c>
@@ -37454,7 +37471,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1">
+    <row r="74" spans="1:10" ht="15" thickBot="1">
       <c r="A74" s="8">
         <v>387</v>
       </c>
@@ -37472,7 +37489,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1">
+    <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -37492,7 +37509,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="8">
         <v>41</v>
       </c>
@@ -37510,7 +37527,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1">
+    <row r="77" spans="1:10" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>204</v>
       </c>
@@ -37528,7 +37545,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1">
+    <row r="78" spans="1:10" ht="15" thickBot="1">
       <c r="A78" s="8">
         <v>198</v>
       </c>
@@ -37554,7 +37571,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1">
+    <row r="79" spans="1:10" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -37574,7 +37591,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1">
+    <row r="80" spans="1:10" ht="15" thickBot="1">
       <c r="A80" s="8">
         <v>289</v>
       </c>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="597">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1697,6 +1697,15 @@
     <t xml:space="preserve">T: O(n); S: O(n) where n is number of nodes in the binary tree. </t>
   </si>
   <si>
+    <t xml:space="preserve">Topological Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time: O(V + E) and Space: O(V +E). Just a slight variation of Course Schedule I. </t>
+  </si>
+  <si>
     <t xml:space="preserve">DP</t>
   </si>
   <si>
@@ -1706,13 +1715,10 @@
     <t xml:space="preserve">This problem definitely needs to be practiced more. </t>
   </si>
   <si>
-    <t xml:space="preserve">Topological Sort</t>
-  </si>
-  <si>
     <t xml:space="preserve">210. Course Schedule II</t>
   </si>
   <si>
-    <t xml:space="preserve">Since the logic asks for a DAG, create an adjacency list and check if DFS returns a False (means a cycle) </t>
+    <t xml:space="preserve">Time: O(V + E) and Space: O(V +E). Since the logic asks for a DAG, create an adjacency list and check if DFS returns a False (means a cycle) </t>
   </si>
   <si>
     <t xml:space="preserve">49. Group Anagrams, 438. Find All Anagrams in a String</t>
@@ -1827,7 +1833,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2056,6 +2062,64 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -2175,7 +2239,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2221,19 +2285,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF5CB85C"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECF0F1"/>
-        <bgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -2388,7 +2458,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="151">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2729,35 +2799,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2765,11 +2863,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2789,15 +2891,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2805,59 +2907,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2865,23 +2967,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2889,11 +2991,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2901,15 +3003,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="39" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="48" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2917,7 +3019,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2925,35 +3027,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="53" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3168,7 +3270,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFECF0F1"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF4B083"/>
@@ -3176,12 +3278,12 @@
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF0AD4E"/>
       <rgbColor rgb="FFD9534F"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5CB85C"/>
       <rgbColor rgb="FF003300"/>
@@ -3259,7 +3361,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3267,13 +3369,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="8"/>
@@ -3286,11 +3388,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.485</v>
+        <v>0.49</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3301,11 +3403,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3315,7 +3417,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>4.29166666666667</v>
+        <v>4.43478260869565</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3336,7 +3438,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -6964,7 +7066,7 @@
       </c>
       <c r="F78" s="30" t="str">
         <f aca="false">Practice_Tracker!H72</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="31" t="n">
@@ -35611,11 +35713,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -36411,22 +36513,25 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="81" t="n">
+      <c r="A40" s="85" t="n">
         <v>269</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80" t="str">
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91" t="str">
         <f aca="false">IF(OR(E40&lt;&gt;"",F40&lt;&gt;"",G40&lt;&gt;""),"Complete","")</f>
         <v/>
       </c>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="75" t="n">
@@ -36503,7 +36608,7 @@
         <f aca="false">IF(OR(E44&lt;&gt;"",F44&lt;&gt;"",G44&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I44" s="85" t="s">
+      <c r="I44" s="92" t="s">
         <v>548</v>
       </c>
     </row>
@@ -36663,28 +36768,28 @@
       <c r="A53" s="75" t="n">
         <v>234</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="C53" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="95" t="s">
         <v>549</v>
       </c>
-      <c r="E53" s="89" t="s">
+      <c r="E53" s="96" t="s">
         <v>541</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="92" t="str">
+      <c r="F53" s="97"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="99" t="str">
         <f aca="false">IF(OR(E53&lt;&gt;"",F53&lt;&gt;"",G53&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="95" t="s">
         <v>550</v>
       </c>
-      <c r="J53" s="85" t="s">
+      <c r="J53" s="92" t="s">
         <v>551</v>
       </c>
     </row>
@@ -36796,7 +36901,7 @@
       <c r="C59" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="92" t="s">
         <v>552</v>
       </c>
       <c r="E59" s="77" t="s">
@@ -36808,7 +36913,7 @@
         <f aca="false">IF(OR(E59&lt;&gt;"",F59&lt;&gt;"",G59&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I59" s="85" t="s">
+      <c r="I59" s="92" t="s">
         <v>553</v>
       </c>
     </row>
@@ -36950,7 +37055,7 @@
         <f aca="false">IF(OR(E66&lt;&gt;"",F66&lt;&gt;"",G66&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I66" s="93" t="s">
+      <c r="I66" s="100" t="s">
         <v>554</v>
       </c>
       <c r="J66" s="0" t="s">
@@ -37051,7 +37156,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="81" t="n">
         <v>210</v>
       </c>
@@ -37061,12 +37166,23 @@
       <c r="C72" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="77"/>
+      <c r="D72" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="E72" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F72" s="78"/>
       <c r="G72" s="79"/>
       <c r="H72" s="80" t="str">
         <f aca="false">IF(OR(E72&lt;&gt;"",F72&lt;&gt;"",G72&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J72" s="101" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37171,8 +37287,8 @@
       <c r="C78" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="85" t="s">
-        <v>556</v>
+      <c r="D78" s="92" t="s">
+        <v>559</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37183,8 +37299,8 @@
         <f aca="false">IF(OR(E78&lt;&gt;"",F78&lt;&gt;"",G78&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I78" s="85" t="s">
-        <v>557</v>
+      <c r="I78" s="92" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37349,7 +37465,7 @@
       <c r="C87" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="85" t="s">
+      <c r="D87" s="92" t="s">
         <v>542</v>
       </c>
       <c r="E87" s="77" t="s">
@@ -37424,25 +37540,25 @@
       <c r="A91" s="75" t="n">
         <v>149</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="89" t="s">
+      <c r="D91" s="103"/>
+      <c r="E91" s="96" t="s">
         <v>541</v>
       </c>
-      <c r="F91" s="90"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92" t="str">
+      <c r="F91" s="97"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="99" t="str">
         <f aca="false">IF(OR(E91&lt;&gt;"",F91&lt;&gt;"",G91&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I91" s="95"/>
+      <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37474,7 +37590,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37486,10 +37602,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37637,16 +37753,16 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="96" t="n">
+      <c r="A102" s="104" t="n">
         <v>242</v>
       </c>
-      <c r="B102" s="97" t="s">
+      <c r="B102" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="C102" s="98" t="s">
+      <c r="C102" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="85" t="s">
+      <c r="D102" s="92" t="s">
         <v>131</v>
       </c>
       <c r="E102" s="77" t="s">
@@ -37659,17 +37775,17 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="61" t="n">
         <v>253</v>
       </c>
-      <c r="B103" s="99" t="s">
+      <c r="B103" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="100" t="s">
+      <c r="C103" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="77" t="s">
@@ -37686,10 +37802,10 @@
       <c r="A104" s="61" t="n">
         <v>1428</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="B104" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="100" t="s">
+      <c r="C104" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="77" t="s">
@@ -37706,10 +37822,10 @@
       <c r="A105" s="61" t="n">
         <v>362</v>
       </c>
-      <c r="B105" s="99" t="s">
+      <c r="B105" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="100" t="s">
+      <c r="C105" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="77" t="s">
@@ -37726,10 +37842,10 @@
       <c r="A106" s="61" t="n">
         <v>1197</v>
       </c>
-      <c r="B106" s="99" t="s">
+      <c r="B106" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="100" t="s">
+      <c r="C106" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="77" t="s">
@@ -37746,10 +37862,10 @@
       <c r="A107" s="61" t="n">
         <v>348</v>
       </c>
-      <c r="B107" s="99" t="s">
+      <c r="B107" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="100" t="s">
+      <c r="C107" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="77" t="s">
@@ -37766,10 +37882,10 @@
       <c r="A108" s="61" t="n">
         <v>314</v>
       </c>
-      <c r="B108" s="99" t="s">
+      <c r="B108" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="100" t="s">
+      <c r="C108" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="77" t="s">
@@ -37786,10 +37902,10 @@
       <c r="A109" s="61" t="n">
         <v>1086</v>
       </c>
-      <c r="B109" s="99" t="s">
+      <c r="B109" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C109" s="101" t="s">
+      <c r="C109" s="109" t="s">
         <v>21</v>
       </c>
       <c r="E109" s="77" t="s">
@@ -37806,10 +37922,10 @@
       <c r="A110" s="71" t="n">
         <v>1060</v>
       </c>
-      <c r="B110" s="99" t="s">
+      <c r="B110" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="100" t="s">
+      <c r="C110" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="77" t="s">
@@ -37826,10 +37942,10 @@
       <c r="A111" s="71" t="n">
         <v>311</v>
       </c>
-      <c r="B111" s="99" t="s">
+      <c r="B111" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="100" t="s">
+      <c r="C111" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E111" s="77" t="s">
@@ -37846,10 +37962,10 @@
       <c r="A112" s="61" t="n">
         <v>359</v>
       </c>
-      <c r="B112" s="99" t="s">
+      <c r="B112" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="101" t="s">
+      <c r="C112" s="109" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="77" t="s">
@@ -37866,10 +37982,10 @@
       <c r="A113" s="61" t="n">
         <v>1229</v>
       </c>
-      <c r="B113" s="99" t="s">
+      <c r="B113" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="100" t="s">
+      <c r="C113" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="77" t="s">
@@ -37886,10 +38002,10 @@
       <c r="A114" s="61" t="n">
         <v>353</v>
       </c>
-      <c r="B114" s="99" t="s">
+      <c r="B114" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="100" t="s">
+      <c r="C114" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="77" t="s">
@@ -37906,10 +38022,10 @@
       <c r="A115" s="61" t="n">
         <v>694</v>
       </c>
-      <c r="B115" s="99" t="s">
+      <c r="B115" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="100" t="s">
+      <c r="C115" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E115" s="77" t="s">
@@ -37926,10 +38042,10 @@
       <c r="A116" s="61" t="n">
         <v>277</v>
       </c>
-      <c r="B116" s="99" t="s">
+      <c r="B116" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="100" t="s">
+      <c r="C116" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="77" t="s">
@@ -37946,13 +38062,13 @@
       <c r="A117" s="61" t="n">
         <v>545</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="B117" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C117" s="100" t="s">
+      <c r="C117" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="102"/>
+      <c r="E117" s="110"/>
       <c r="F117" s="78"/>
       <c r="G117" s="79"/>
       <c r="H117" s="80" t="str">
@@ -37964,13 +38080,13 @@
       <c r="A118" s="61" t="n">
         <v>286</v>
       </c>
-      <c r="B118" s="103" t="s">
+      <c r="B118" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="C118" s="100" t="s">
+      <c r="C118" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E118" s="102"/>
+      <c r="E118" s="110"/>
       <c r="F118" s="78"/>
       <c r="G118" s="79"/>
       <c r="H118" s="80" t="str">
@@ -37982,13 +38098,13 @@
       <c r="A119" s="61" t="n">
         <v>339</v>
       </c>
-      <c r="B119" s="99" t="s">
+      <c r="B119" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C119" s="101" t="s">
+      <c r="C119" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="102"/>
+      <c r="E119" s="110"/>
       <c r="F119" s="78"/>
       <c r="G119" s="79"/>
       <c r="H119" s="80" t="str">
@@ -38000,41 +38116,41 @@
       <c r="A120" s="61" t="n">
         <v>249</v>
       </c>
-      <c r="B120" s="99" t="s">
+      <c r="B120" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="100" t="s">
+      <c r="C120" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D120" s="85" t="s">
+      <c r="D120" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="102" t="s">
+      <c r="E120" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
         <f aca="false">IF(OR(E120&lt;&gt;"",F120&lt;&gt;"",G120&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I120" s="85" t="s">
-        <v>564</v>
+      <c r="I120" s="92" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="61" t="n">
         <v>1236</v>
       </c>
-      <c r="B121" s="99" t="s">
+      <c r="B121" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="100" t="s">
+      <c r="C121" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E121" s="102"/>
+      <c r="E121" s="110"/>
       <c r="F121" s="78"/>
       <c r="G121" s="79"/>
       <c r="H121" s="80" t="str">
@@ -38046,13 +38162,13 @@
       <c r="A122" s="61" t="n">
         <v>723</v>
       </c>
-      <c r="B122" s="99" t="s">
+      <c r="B122" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C122" s="100" t="s">
+      <c r="C122" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="102"/>
+      <c r="E122" s="110"/>
       <c r="F122" s="78"/>
       <c r="G122" s="79"/>
       <c r="H122" s="80" t="str">
@@ -38064,13 +38180,13 @@
       <c r="A123" s="61" t="n">
         <v>346</v>
       </c>
-      <c r="B123" s="99" t="s">
+      <c r="B123" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="101" t="s">
+      <c r="C123" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="102"/>
+      <c r="E123" s="110"/>
       <c r="F123" s="78"/>
       <c r="G123" s="79"/>
       <c r="H123" s="80" t="str">
@@ -38082,13 +38198,13 @@
       <c r="A124" s="61" t="n">
         <v>426</v>
       </c>
-      <c r="B124" s="99" t="s">
+      <c r="B124" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="100" t="s">
+      <c r="C124" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="102"/>
+      <c r="E124" s="110"/>
       <c r="F124" s="78"/>
       <c r="G124" s="79"/>
       <c r="H124" s="80" t="str">
@@ -38100,13 +38216,13 @@
       <c r="A125" s="61" t="n">
         <v>256</v>
       </c>
-      <c r="B125" s="99" t="s">
+      <c r="B125" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="100" t="s">
+      <c r="C125" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="102"/>
+      <c r="E125" s="110"/>
       <c r="F125" s="78"/>
       <c r="G125" s="79"/>
       <c r="H125" s="80" t="str">
@@ -38118,13 +38234,13 @@
       <c r="A126" s="61" t="n">
         <v>366</v>
       </c>
-      <c r="B126" s="99" t="s">
+      <c r="B126" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="100" t="s">
+      <c r="C126" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="102"/>
+      <c r="E126" s="110"/>
       <c r="F126" s="78"/>
       <c r="G126" s="79"/>
       <c r="H126" s="80" t="str">
@@ -38136,13 +38252,13 @@
       <c r="A127" s="61" t="n">
         <v>1244</v>
       </c>
-      <c r="B127" s="99" t="s">
+      <c r="B127" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C127" s="100" t="s">
+      <c r="C127" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="102"/>
+      <c r="E127" s="110"/>
       <c r="F127" s="78"/>
       <c r="G127" s="79"/>
       <c r="H127" s="80" t="str">
@@ -38154,13 +38270,13 @@
       <c r="A128" s="61" t="n">
         <v>1167</v>
       </c>
-      <c r="B128" s="99" t="s">
+      <c r="B128" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="C128" s="100" t="s">
+      <c r="C128" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="102"/>
+      <c r="E128" s="110"/>
       <c r="F128" s="78"/>
       <c r="G128" s="79"/>
       <c r="H128" s="80" t="str">
@@ -38172,13 +38288,13 @@
       <c r="A129" s="61" t="n">
         <v>270</v>
       </c>
-      <c r="B129" s="99" t="s">
+      <c r="B129" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C129" s="101" t="s">
+      <c r="C129" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E129" s="102"/>
+      <c r="E129" s="110"/>
       <c r="F129" s="78"/>
       <c r="G129" s="79"/>
       <c r="H129" s="80" t="str">
@@ -38190,13 +38306,13 @@
       <c r="A130" s="61" t="n">
         <v>616</v>
       </c>
-      <c r="B130" s="99" t="s">
+      <c r="B130" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="100" t="s">
+      <c r="C130" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="102"/>
+      <c r="E130" s="110"/>
       <c r="F130" s="78"/>
       <c r="G130" s="79"/>
       <c r="H130" s="80" t="str">
@@ -38208,13 +38324,13 @@
       <c r="A131" s="61" t="n">
         <v>333</v>
       </c>
-      <c r="B131" s="99" t="s">
+      <c r="B131" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="100" t="s">
+      <c r="C131" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="102"/>
+      <c r="E131" s="110"/>
       <c r="F131" s="78"/>
       <c r="G131" s="79"/>
       <c r="H131" s="80" t="str">
@@ -38226,13 +38342,13 @@
       <c r="A132" s="61" t="n">
         <v>490</v>
       </c>
-      <c r="B132" s="99" t="s">
+      <c r="B132" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="100" t="s">
+      <c r="C132" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="102"/>
+      <c r="E132" s="110"/>
       <c r="F132" s="78"/>
       <c r="G132" s="79"/>
       <c r="H132" s="80" t="str">
@@ -38244,16 +38360,16 @@
       <c r="A133" s="61" t="n">
         <v>716</v>
       </c>
-      <c r="B133" s="99" t="s">
+      <c r="B133" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="101" t="s">
+      <c r="C133" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D133" s="85" t="s">
+      <c r="D133" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="E133" s="102" t="s">
+      <c r="E133" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F133" s="78"/>
@@ -38267,13 +38383,13 @@
       <c r="A134" s="61" t="n">
         <v>1057</v>
       </c>
-      <c r="B134" s="99" t="s">
+      <c r="B134" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C134" s="100" t="s">
+      <c r="C134" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="102"/>
+      <c r="E134" s="110"/>
       <c r="F134" s="78"/>
       <c r="G134" s="79"/>
       <c r="H134" s="80" t="str">
@@ -38285,13 +38401,13 @@
       <c r="A135" s="61" t="n">
         <v>157</v>
       </c>
-      <c r="B135" s="99" t="s">
+      <c r="B135" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="101" t="s">
+      <c r="C135" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E135" s="102"/>
+      <c r="E135" s="110"/>
       <c r="F135" s="78"/>
       <c r="G135" s="79"/>
       <c r="H135" s="80" t="str">
@@ -38303,13 +38419,13 @@
       <c r="A136" s="61" t="n">
         <v>259</v>
       </c>
-      <c r="B136" s="99" t="s">
+      <c r="B136" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C136" s="100" t="s">
+      <c r="C136" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="102"/>
+      <c r="E136" s="110"/>
       <c r="F136" s="78"/>
       <c r="G136" s="79"/>
       <c r="H136" s="80" t="str">
@@ -38321,16 +38437,16 @@
       <c r="A137" s="61" t="n">
         <v>323</v>
       </c>
-      <c r="B137" s="99" t="s">
+      <c r="B137" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="C137" s="100" t="s">
+      <c r="C137" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E137" s="102" t="s">
+      <c r="E137" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F137" s="78"/>
@@ -38340,20 +38456,20 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="61" t="n">
         <v>247</v>
       </c>
-      <c r="B138" s="99" t="s">
+      <c r="B138" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="C138" s="100" t="s">
+      <c r="C138" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="102"/>
+      <c r="E138" s="110"/>
       <c r="F138" s="78"/>
       <c r="G138" s="79"/>
       <c r="H138" s="80" t="str">
@@ -38365,13 +38481,13 @@
       <c r="A139" s="61" t="n">
         <v>1429</v>
       </c>
-      <c r="B139" s="99" t="s">
+      <c r="B139" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="100" t="s">
+      <c r="C139" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="102"/>
+      <c r="E139" s="110"/>
       <c r="F139" s="78"/>
       <c r="G139" s="79"/>
       <c r="H139" s="80" t="str">
@@ -38383,13 +38499,13 @@
       <c r="A140" s="61" t="n">
         <v>163</v>
       </c>
-      <c r="B140" s="99" t="s">
+      <c r="B140" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C140" s="100" t="s">
+      <c r="C140" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="102"/>
+      <c r="E140" s="110"/>
       <c r="F140" s="78"/>
       <c r="G140" s="79"/>
       <c r="H140" s="80" t="str">
@@ -38401,13 +38517,13 @@
       <c r="A141" s="61" t="n">
         <v>159</v>
       </c>
-      <c r="B141" s="99" t="s">
+      <c r="B141" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="C141" s="100" t="s">
+      <c r="C141" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="102"/>
+      <c r="E141" s="110"/>
       <c r="F141" s="78"/>
       <c r="G141" s="79"/>
       <c r="H141" s="80" t="str">
@@ -38419,13 +38535,13 @@
       <c r="A142" s="61" t="n">
         <v>250</v>
       </c>
-      <c r="B142" s="99" t="s">
+      <c r="B142" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C142" s="100" t="s">
+      <c r="C142" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E142" s="102"/>
+      <c r="E142" s="110"/>
       <c r="F142" s="78"/>
       <c r="G142" s="79"/>
       <c r="H142" s="80" t="str">
@@ -38437,13 +38553,13 @@
       <c r="A143" s="61" t="n">
         <v>285</v>
       </c>
-      <c r="B143" s="99" t="s">
+      <c r="B143" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="100" t="s">
+      <c r="C143" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="102"/>
+      <c r="E143" s="110"/>
       <c r="F143" s="78"/>
       <c r="G143" s="79"/>
       <c r="H143" s="80" t="str">
@@ -38455,13 +38571,13 @@
       <c r="A144" s="61" t="n">
         <v>252</v>
       </c>
-      <c r="B144" s="99" t="s">
+      <c r="B144" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="C144" s="101" t="s">
+      <c r="C144" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E144" s="102"/>
+      <c r="E144" s="110"/>
       <c r="F144" s="78"/>
       <c r="G144" s="79"/>
       <c r="H144" s="80" t="str">
@@ -38473,13 +38589,13 @@
       <c r="A145" s="61" t="n">
         <v>280</v>
       </c>
-      <c r="B145" s="99" t="s">
+      <c r="B145" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="C145" s="100" t="s">
+      <c r="C145" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E145" s="102"/>
+      <c r="E145" s="110"/>
       <c r="F145" s="78"/>
       <c r="G145" s="79"/>
       <c r="H145" s="80" t="str">
@@ -38491,13 +38607,13 @@
       <c r="A146" s="61" t="n">
         <v>1166</v>
       </c>
-      <c r="B146" s="99" t="s">
+      <c r="B146" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="102"/>
+      <c r="E146" s="110"/>
       <c r="F146" s="78"/>
       <c r="G146" s="79"/>
       <c r="H146" s="80" t="str">
@@ -38509,13 +38625,13 @@
       <c r="A147" s="61" t="n">
         <v>742</v>
       </c>
-      <c r="B147" s="99" t="s">
+      <c r="B147" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="100" t="s">
+      <c r="C147" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="102"/>
+      <c r="E147" s="110"/>
       <c r="F147" s="78"/>
       <c r="G147" s="79"/>
       <c r="H147" s="80" t="str">
@@ -38527,13 +38643,13 @@
       <c r="A148" s="61" t="n">
         <v>635</v>
       </c>
-      <c r="B148" s="99" t="s">
+      <c r="B148" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C148" s="100" t="s">
+      <c r="C148" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E148" s="102"/>
+      <c r="E148" s="110"/>
       <c r="F148" s="78"/>
       <c r="G148" s="79"/>
       <c r="H148" s="80" t="str">
@@ -38545,13 +38661,13 @@
       <c r="A149" s="61" t="n">
         <v>361</v>
       </c>
-      <c r="B149" s="99" t="s">
+      <c r="B149" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="100" t="s">
+      <c r="C149" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E149" s="102"/>
+      <c r="E149" s="110"/>
       <c r="F149" s="78"/>
       <c r="G149" s="79"/>
       <c r="H149" s="80" t="str">
@@ -38563,16 +38679,16 @@
       <c r="A150" s="61" t="n">
         <v>281</v>
       </c>
-      <c r="B150" s="99" t="s">
+      <c r="B150" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="100" t="s">
+      <c r="C150" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="E150" s="102" t="s">
+        <v>568</v>
+      </c>
+      <c r="E150" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F150" s="78"/>
@@ -38582,20 +38698,20 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="61" t="n">
         <v>243</v>
       </c>
-      <c r="B151" s="99" t="s">
+      <c r="B151" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="101" t="s">
+      <c r="C151" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="102"/>
+      <c r="E151" s="110"/>
       <c r="F151" s="78"/>
       <c r="G151" s="79"/>
       <c r="H151" s="80" t="str">
@@ -38607,13 +38723,13 @@
       <c r="A152" s="61" t="n">
         <v>271</v>
       </c>
-      <c r="B152" s="99" t="s">
+      <c r="B152" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="100" t="s">
+      <c r="C152" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E152" s="102"/>
+      <c r="E152" s="110"/>
       <c r="F152" s="78"/>
       <c r="G152" s="79"/>
       <c r="H152" s="80" t="str">
@@ -38625,13 +38741,13 @@
       <c r="A153" s="61" t="n">
         <v>1066</v>
       </c>
-      <c r="B153" s="99" t="s">
+      <c r="B153" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="100" t="s">
+      <c r="C153" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E153" s="102"/>
+      <c r="E153" s="110"/>
       <c r="F153" s="78"/>
       <c r="G153" s="79"/>
       <c r="H153" s="80" t="str">
@@ -38643,13 +38759,13 @@
       <c r="A154" s="61" t="n">
         <v>161</v>
       </c>
-      <c r="B154" s="99" t="s">
+      <c r="B154" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="100" t="s">
+      <c r="C154" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="102"/>
+      <c r="E154" s="110"/>
       <c r="F154" s="78"/>
       <c r="G154" s="79"/>
       <c r="H154" s="80" t="str">
@@ -38661,13 +38777,13 @@
       <c r="A155" s="61" t="n">
         <v>266</v>
       </c>
-      <c r="B155" s="99" t="s">
+      <c r="B155" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C155" s="101" t="s">
+      <c r="C155" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="102"/>
+      <c r="E155" s="110"/>
       <c r="F155" s="78"/>
       <c r="G155" s="79"/>
       <c r="H155" s="80" t="str">
@@ -38679,13 +38795,13 @@
       <c r="A156" s="61" t="n">
         <v>320</v>
       </c>
-      <c r="B156" s="99" t="s">
+      <c r="B156" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C156" s="100" t="s">
+      <c r="C156" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E156" s="102"/>
+      <c r="E156" s="110"/>
       <c r="F156" s="78"/>
       <c r="G156" s="79"/>
       <c r="H156" s="80" t="str">
@@ -38697,13 +38813,13 @@
       <c r="A157" s="61" t="n">
         <v>1245</v>
       </c>
-      <c r="B157" s="99" t="s">
+      <c r="B157" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="100" t="s">
+      <c r="C157" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E157" s="102"/>
+      <c r="E157" s="110"/>
       <c r="F157" s="78"/>
       <c r="G157" s="79"/>
       <c r="H157" s="80" t="str">
@@ -38715,13 +38831,13 @@
       <c r="A158" s="61" t="n">
         <v>505</v>
       </c>
-      <c r="B158" s="99" t="s">
+      <c r="B158" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="100" t="s">
+      <c r="C158" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="102"/>
+      <c r="E158" s="110"/>
       <c r="F158" s="78"/>
       <c r="G158" s="79"/>
       <c r="H158" s="80" t="str">
@@ -38733,13 +38849,13 @@
       <c r="A159" s="61" t="n">
         <v>364</v>
       </c>
-      <c r="B159" s="99" t="s">
+      <c r="B159" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="100" t="s">
+      <c r="C159" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E159" s="102"/>
+      <c r="E159" s="110"/>
       <c r="F159" s="78"/>
       <c r="G159" s="79"/>
       <c r="H159" s="80" t="str">
@@ -38751,13 +38867,13 @@
       <c r="A160" s="61" t="n">
         <v>562</v>
       </c>
-      <c r="B160" s="99" t="s">
+      <c r="B160" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="C160" s="100" t="s">
+      <c r="C160" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="102"/>
+      <c r="E160" s="110"/>
       <c r="F160" s="78"/>
       <c r="G160" s="79"/>
       <c r="H160" s="80" t="str">
@@ -38769,13 +38885,13 @@
       <c r="A161" s="61" t="n">
         <v>1102</v>
       </c>
-      <c r="B161" s="99" t="s">
+      <c r="B161" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="100" t="s">
+      <c r="C161" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E161" s="102"/>
+      <c r="E161" s="110"/>
       <c r="F161" s="78"/>
       <c r="G161" s="79"/>
       <c r="H161" s="80" t="str">
@@ -38787,13 +38903,13 @@
       <c r="A162" s="61" t="n">
         <v>1180</v>
       </c>
-      <c r="B162" s="99" t="s">
+      <c r="B162" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="C162" s="101" t="s">
+      <c r="C162" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E162" s="102"/>
+      <c r="E162" s="110"/>
       <c r="F162" s="78"/>
       <c r="G162" s="79"/>
       <c r="H162" s="80" t="str">
@@ -38805,13 +38921,13 @@
       <c r="A163" s="61" t="n">
         <v>1151</v>
       </c>
-      <c r="B163" s="99" t="s">
+      <c r="B163" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="C163" s="100" t="s">
+      <c r="C163" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="102"/>
+      <c r="E163" s="110"/>
       <c r="F163" s="78"/>
       <c r="G163" s="79"/>
       <c r="H163" s="80" t="str">
@@ -38823,13 +38939,13 @@
       <c r="A164" s="61" t="n">
         <v>536</v>
       </c>
-      <c r="B164" s="99" t="s">
+      <c r="B164" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="C164" s="100" t="s">
+      <c r="C164" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E164" s="102"/>
+      <c r="E164" s="110"/>
       <c r="F164" s="78"/>
       <c r="G164" s="79"/>
       <c r="H164" s="80" t="str">
@@ -38841,13 +38957,13 @@
       <c r="A165" s="61" t="n">
         <v>186</v>
       </c>
-      <c r="B165" s="99" t="s">
+      <c r="B165" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="C165" s="100" t="s">
+      <c r="C165" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E165" s="102"/>
+      <c r="E165" s="110"/>
       <c r="F165" s="78"/>
       <c r="G165" s="79"/>
       <c r="H165" s="80" t="str">
@@ -38859,13 +38975,13 @@
       <c r="A166" s="61" t="n">
         <v>1120</v>
       </c>
-      <c r="B166" s="99" t="s">
+      <c r="B166" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="C166" s="100" t="s">
+      <c r="C166" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E166" s="102"/>
+      <c r="E166" s="110"/>
       <c r="F166" s="78"/>
       <c r="G166" s="79"/>
       <c r="H166" s="80" t="str">
@@ -38877,13 +38993,13 @@
       <c r="A167" s="61" t="n">
         <v>244</v>
       </c>
-      <c r="B167" s="99" t="s">
+      <c r="B167" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C167" s="100" t="s">
+      <c r="C167" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E167" s="102"/>
+      <c r="E167" s="110"/>
       <c r="F167" s="78"/>
       <c r="G167" s="79"/>
       <c r="H167" s="80" t="str">
@@ -38895,13 +39011,13 @@
       <c r="A168" s="61" t="n">
         <v>1087</v>
       </c>
-      <c r="B168" s="99" t="s">
+      <c r="B168" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="C168" s="100" t="s">
+      <c r="C168" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E168" s="102"/>
+      <c r="E168" s="110"/>
       <c r="F168" s="78"/>
       <c r="G168" s="79"/>
       <c r="H168" s="80" t="str">
@@ -38913,13 +39029,13 @@
       <c r="A169" s="61" t="n">
         <v>737</v>
       </c>
-      <c r="B169" s="99" t="s">
+      <c r="B169" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="C169" s="100" t="s">
+      <c r="C169" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E169" s="102"/>
+      <c r="E169" s="110"/>
       <c r="F169" s="78"/>
       <c r="G169" s="79"/>
       <c r="H169" s="80" t="str">
@@ -38931,13 +39047,13 @@
       <c r="A170" s="61" t="n">
         <v>1062</v>
       </c>
-      <c r="B170" s="99" t="s">
+      <c r="B170" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="C170" s="100" t="s">
+      <c r="C170" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="102"/>
+      <c r="E170" s="110"/>
       <c r="F170" s="78"/>
       <c r="G170" s="79"/>
       <c r="H170" s="80" t="str">
@@ -38949,13 +39065,13 @@
       <c r="A171" s="61" t="n">
         <v>484</v>
       </c>
-      <c r="B171" s="99" t="s">
+      <c r="B171" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="C171" s="100" t="s">
+      <c r="C171" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E171" s="102"/>
+      <c r="E171" s="110"/>
       <c r="F171" s="78"/>
       <c r="G171" s="79"/>
       <c r="H171" s="80" t="str">
@@ -38967,13 +39083,13 @@
       <c r="A172" s="61" t="n">
         <v>1213</v>
       </c>
-      <c r="B172" s="99" t="s">
+      <c r="B172" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="C172" s="101" t="s">
+      <c r="C172" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E172" s="102"/>
+      <c r="E172" s="110"/>
       <c r="F172" s="78"/>
       <c r="G172" s="79"/>
       <c r="H172" s="80" t="str">
@@ -38985,13 +39101,13 @@
       <c r="A173" s="61" t="n">
         <v>267</v>
       </c>
-      <c r="B173" s="99" t="s">
+      <c r="B173" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="C173" s="100" t="s">
+      <c r="C173" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E173" s="102"/>
+      <c r="E173" s="110"/>
       <c r="F173" s="78"/>
       <c r="G173" s="79"/>
       <c r="H173" s="80" t="str">
@@ -39003,13 +39119,13 @@
       <c r="A174" s="61" t="n">
         <v>702</v>
       </c>
-      <c r="B174" s="99" t="s">
+      <c r="B174" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="100" t="s">
+      <c r="C174" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E174" s="102"/>
+      <c r="E174" s="110"/>
       <c r="F174" s="78"/>
       <c r="G174" s="79"/>
       <c r="H174" s="80" t="str">
@@ -39021,13 +39137,13 @@
       <c r="A175" s="61" t="n">
         <v>325</v>
       </c>
-      <c r="B175" s="99" t="s">
+      <c r="B175" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="C175" s="100" t="s">
+      <c r="C175" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E175" s="102"/>
+      <c r="E175" s="110"/>
       <c r="F175" s="78"/>
       <c r="G175" s="79"/>
       <c r="H175" s="80" t="str">
@@ -39039,13 +39155,13 @@
       <c r="A176" s="61" t="n">
         <v>1059</v>
       </c>
-      <c r="B176" s="99" t="s">
+      <c r="B176" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="C176" s="100" t="s">
+      <c r="C176" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E176" s="102"/>
+      <c r="E176" s="110"/>
       <c r="F176" s="78"/>
       <c r="G176" s="79"/>
       <c r="H176" s="80" t="str">
@@ -39057,13 +39173,13 @@
       <c r="A177" s="61" t="n">
         <v>708</v>
       </c>
-      <c r="B177" s="99" t="s">
+      <c r="B177" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C177" s="100" t="s">
+      <c r="C177" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E177" s="102"/>
+      <c r="E177" s="110"/>
       <c r="F177" s="78"/>
       <c r="G177" s="79"/>
       <c r="H177" s="80" t="str">
@@ -39075,13 +39191,13 @@
       <c r="A178" s="61" t="n">
         <v>651</v>
       </c>
-      <c r="B178" s="99" t="s">
+      <c r="B178" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C178" s="100" t="s">
+      <c r="C178" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E178" s="102"/>
+      <c r="E178" s="110"/>
       <c r="F178" s="78"/>
       <c r="G178" s="79"/>
       <c r="H178" s="80" t="str">
@@ -39093,13 +39209,13 @@
       <c r="A179" s="61" t="n">
         <v>582</v>
       </c>
-      <c r="B179" s="99" t="s">
+      <c r="B179" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C179" s="100" t="s">
+      <c r="C179" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E179" s="102"/>
+      <c r="E179" s="110"/>
       <c r="F179" s="78"/>
       <c r="G179" s="79"/>
       <c r="H179" s="80" t="str">
@@ -39111,13 +39227,13 @@
       <c r="A180" s="61" t="n">
         <v>1522</v>
       </c>
-      <c r="B180" s="99" t="s">
+      <c r="B180" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="C180" s="100" t="s">
+      <c r="C180" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E180" s="102"/>
+      <c r="E180" s="110"/>
       <c r="F180" s="78"/>
       <c r="G180" s="79"/>
       <c r="H180" s="80" t="str">
@@ -39129,13 +39245,13 @@
       <c r="A181" s="61" t="n">
         <v>1427</v>
       </c>
-      <c r="B181" s="99" t="s">
+      <c r="B181" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="C181" s="101" t="s">
+      <c r="C181" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E181" s="102"/>
+      <c r="E181" s="110"/>
       <c r="F181" s="78"/>
       <c r="G181" s="79"/>
       <c r="H181" s="80" t="str">
@@ -39144,36 +39260,36 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="104" t="n">
+      <c r="A182" s="112" t="n">
         <v>276</v>
       </c>
-      <c r="B182" s="105" t="s">
+      <c r="B182" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="C182" s="106" t="s">
+      <c r="C182" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D182" s="107"/>
-      <c r="E182" s="108"/>
-      <c r="F182" s="108"/>
-      <c r="G182" s="108"/>
-      <c r="H182" s="109" t="str">
+      <c r="D182" s="115"/>
+      <c r="E182" s="116"/>
+      <c r="F182" s="116"/>
+      <c r="G182" s="116"/>
+      <c r="H182" s="117" t="str">
         <f aca="false">IF(OR(E182&lt;&gt;"",F182&lt;&gt;"",G182&lt;&gt;""),"Complete","")</f>
         <v/>
       </c>
-      <c r="I182" s="107"/>
+      <c r="I182" s="115"/>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="61" t="n">
         <v>1265</v>
       </c>
-      <c r="B183" s="99" t="s">
+      <c r="B183" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="C183" s="100" t="s">
+      <c r="C183" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E183" s="102"/>
+      <c r="E183" s="110"/>
       <c r="F183" s="78"/>
       <c r="G183" s="79"/>
       <c r="H183" s="80" t="str">
@@ -39185,13 +39301,13 @@
       <c r="A184" s="61" t="n">
         <v>1228</v>
       </c>
-      <c r="B184" s="99" t="s">
+      <c r="B184" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="C184" s="101" t="s">
+      <c r="C184" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E184" s="102"/>
+      <c r="E184" s="110"/>
       <c r="F184" s="78"/>
       <c r="G184" s="79"/>
       <c r="H184" s="80" t="str">
@@ -39203,16 +39319,16 @@
       <c r="A185" s="61" t="n">
         <v>1135</v>
       </c>
-      <c r="B185" s="99" t="s">
+      <c r="B185" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="C185" s="100" t="s">
+      <c r="C185" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="E185" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E185" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F185" s="78"/>
@@ -39226,16 +39342,16 @@
       <c r="A186" s="61" t="n">
         <v>1055</v>
       </c>
-      <c r="B186" s="99" t="s">
+      <c r="B186" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="C186" s="100" t="s">
+      <c r="C186" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="E186" s="102" t="s">
+        <v>571</v>
+      </c>
+      <c r="E186" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F186" s="78"/>
@@ -39245,26 +39361,26 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="61" t="n">
         <v>298</v>
       </c>
-      <c r="B187" s="99" t="s">
+      <c r="B187" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="C187" s="100" t="s">
+      <c r="C187" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E187" s="102" t="s">
+      <c r="E187" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F187" s="78"/>
@@ -39274,23 +39390,23 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="61" t="n">
         <v>251</v>
       </c>
-      <c r="B188" s="99" t="s">
+      <c r="B188" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C188" s="100" t="s">
+      <c r="C188" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="E188" s="102" t="s">
+        <v>575</v>
+      </c>
+      <c r="E188" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F188" s="78"/>
@@ -39300,26 +39416,26 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="61" t="n">
         <v>255</v>
       </c>
-      <c r="B189" s="99" t="s">
+      <c r="B189" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="C189" s="100" t="s">
+      <c r="C189" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="E189" s="102" t="s">
+      <c r="E189" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F189" s="78"/>
@@ -39329,23 +39445,23 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="61" t="n">
         <v>1100</v>
       </c>
-      <c r="B190" s="99" t="s">
+      <c r="B190" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="C190" s="100" t="s">
+      <c r="C190" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="E190" s="102" t="s">
+        <v>568</v>
+      </c>
+      <c r="E190" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F190" s="78"/>
@@ -39355,23 +39471,23 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="61" t="n">
         <v>1485</v>
       </c>
-      <c r="B191" s="99" t="s">
+      <c r="B191" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="C191" s="100" t="s">
+      <c r="C191" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E191" s="102" t="s">
+      <c r="E191" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F191" s="78"/>
@@ -39388,16 +39504,16 @@
       <c r="A192" s="61" t="n">
         <v>261</v>
       </c>
-      <c r="B192" s="99" t="s">
+      <c r="B192" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="C192" s="100" t="s">
+      <c r="C192" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E192" s="102" t="s">
+      <c r="E192" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F192" s="78"/>
@@ -39407,23 +39523,23 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="61" t="n">
         <v>1101</v>
       </c>
-      <c r="B193" s="99" t="s">
+      <c r="B193" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="C193" s="100" t="s">
+      <c r="C193" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="E193" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E193" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F193" s="78"/>
@@ -39433,23 +39549,23 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="61" t="n">
         <v>1506</v>
       </c>
-      <c r="B194" s="99" t="s">
+      <c r="B194" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="C194" s="100" t="s">
+      <c r="C194" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="E194" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="E194" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F194" s="78"/>
@@ -39466,16 +39582,16 @@
       <c r="A195" s="61" t="n">
         <v>369</v>
       </c>
-      <c r="B195" s="99" t="s">
+      <c r="B195" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="C195" s="100" t="s">
+      <c r="C195" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E195" s="102" t="s">
+      <c r="E195" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F195" s="78"/>
@@ -39485,23 +39601,23 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="61" t="n">
         <v>1490</v>
       </c>
-      <c r="B196" s="99" t="s">
+      <c r="B196" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="C196" s="100" t="s">
+      <c r="C196" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="E196" s="102" t="s">
+        <v>584</v>
+      </c>
+      <c r="E196" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F196" s="78"/>
@@ -39511,26 +39627,26 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="61" t="n">
         <v>370</v>
       </c>
-      <c r="B197" s="99" t="s">
+      <c r="B197" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="C197" s="100" t="s">
+      <c r="C197" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="E197" s="102" t="s">
+        <v>568</v>
+      </c>
+      <c r="E197" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F197" s="78"/>
@@ -39540,50 +39656,50 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="110" t="n">
+      <c r="A198" s="118" t="n">
         <v>510</v>
       </c>
-      <c r="B198" s="111" t="s">
+      <c r="B198" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="C198" s="112" t="s">
+      <c r="C198" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D198" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="E198" s="114" t="s">
+      <c r="D198" s="121" t="s">
+        <v>582</v>
+      </c>
+      <c r="E198" s="122" t="s">
         <v>541</v>
       </c>
-      <c r="F198" s="115"/>
-      <c r="G198" s="116"/>
-      <c r="H198" s="117" t="str">
+      <c r="F198" s="123"/>
+      <c r="G198" s="124"/>
+      <c r="H198" s="125" t="str">
         <f aca="false">IF(OR(E198&lt;&gt;"",F198&lt;&gt;"",G198&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
-      <c r="I198" s="113"/>
-      <c r="J198" s="113" t="s">
-        <v>586</v>
+      <c r="I198" s="121"/>
+      <c r="J198" s="121" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="61" t="n">
         <v>1198</v>
       </c>
-      <c r="B199" s="99" t="s">
+      <c r="B199" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="C199" s="100" t="s">
+      <c r="C199" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="E199" s="102" t="s">
+        <v>589</v>
+      </c>
+      <c r="E199" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F199" s="78"/>
@@ -39593,23 +39709,23 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="61" t="n">
         <v>487</v>
       </c>
-      <c r="B200" s="99" t="s">
+      <c r="B200" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="C200" s="100" t="s">
+      <c r="C200" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="E200" s="102" t="s">
+        <v>575</v>
+      </c>
+      <c r="E200" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F200" s="78"/>
@@ -39619,23 +39735,23 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="61" t="n">
         <v>360</v>
       </c>
-      <c r="B201" s="99" t="s">
+      <c r="B201" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="100" t="s">
+      <c r="C201" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="E201" s="102" t="s">
+      <c r="E201" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F201" s="78"/>
@@ -39645,26 +39761,26 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="61" t="n">
         <v>549</v>
       </c>
-      <c r="B202" s="99" t="s">
+      <c r="B202" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="C202" s="100" t="s">
+      <c r="C202" s="108" t="s">
         <v>24</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E202" s="102" t="s">
+      <c r="E202" s="110" t="s">
         <v>541</v>
       </c>
       <c r="F202" s="78"/>
@@ -39674,7 +39790,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -39910,23 +40026,23 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="126" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="126" t="s">
         <v>10</v>
       </c>
     </row>
@@ -39934,27 +40050,27 @@
       <c r="A3" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="120" t="n">
+      <c r="A4" s="128" t="n">
         <v>149</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="131" t="s">
         <v>26</v>
       </c>
     </row>
@@ -39993,7 +40109,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40003,41 +40119,41 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="125" t="s">
-        <v>592</v>
+      <c r="F2" s="133" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="126" t="n">
+      <c r="A3" s="134" t="n">
         <v>242</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="128" t="n">
+      <c r="C3" s="136" t="n">
         <v>0.575</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131" t="s">
-        <v>593</v>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40053,47 +40169,47 @@
       <c r="D4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="141" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="134" t="n">
+      <c r="A5" s="142" t="n">
         <v>438</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="136" t="n">
+      <c r="C5" s="144" t="n">
         <v>0.44</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="138" t="s">
-        <v>594</v>
-      </c>
-      <c r="F5" s="133" t="s">
+      <c r="E5" s="146" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="141" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="6" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="139" t="n">
+      <c r="A6" s="147" t="n">
         <v>249</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="140" t="n">
+      <c r="C6" s="148" t="n">
         <v>0.563</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="150" t="s">
         <v>129</v>
       </c>
     </row>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="599">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1739,6 +1739,15 @@
     <t xml:space="preserve">T:O(n); S: O(1) where n is max(num of element in array1, num of elements in array2)  </t>
   </si>
   <si>
+    <t xml:space="preserve">Binary Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Boomerangs; Minimum Area Rectangle II; Check If It Is a Good Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(log(n)); S: O(1) here target = (arr[0] + (mid * diff)), where diff = (arr[last] – arr[0])/len(arr)) and mid = (left + right)/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Union-Find</t>
   </si>
   <si>
@@ -1794,9 +1803,6 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(log(n)) average, O(n) worst case; S: O(1) where n number of nodes in tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search</t>
   </si>
   <si>
     <t xml:space="preserve">T: O(mn log(n)); S: O(1) where m is rows n is cols in matrix</t>
@@ -1833,7 +1839,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2112,12 +2118,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -2863,11 +2863,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2891,15 +2891,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2907,23 +2907,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2939,7 +2939,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2947,7 +2947,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2971,19 +2971,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2991,11 +2991,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="46" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3003,15 +3003,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="46" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="47" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3019,7 +3019,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3027,35 +3027,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="50" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="50" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3361,7 +3361,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3388,11 +3388,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3403,11 +3403,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3417,7 +3417,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>4.43478260869565</v>
+        <v>4.59090909090909</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3438,7 +3438,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="L90" s="30" t="str">
         <f aca="false">Practice_Tracker!H184</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="35"/>
@@ -35713,11 +35713,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I177" activeCellId="0" sqref="I177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -39307,12 +39307,23 @@
       <c r="C184" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E184" s="110"/>
+      <c r="D184" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E184" s="110" t="s">
+        <v>541</v>
+      </c>
       <c r="F184" s="78"/>
       <c r="G184" s="79"/>
       <c r="H184" s="80" t="str">
         <f aca="false">IF(OR(E184&lt;&gt;"",F184&lt;&gt;"",G184&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I184" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39326,7 +39337,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39349,7 +39360,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39361,10 +39372,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39390,7 +39401,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39404,7 +39415,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39416,10 +39427,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39445,7 +39456,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39471,7 +39482,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39523,7 +39534,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39537,7 +39548,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39549,7 +39560,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39563,7 +39574,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39601,7 +39612,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39615,7 +39626,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E196" s="110" t="s">
         <v>541</v>
@@ -39627,10 +39638,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39656,7 +39667,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39670,7 +39681,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39683,7 +39694,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39697,7 +39708,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39709,7 +39720,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39723,7 +39734,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39735,7 +39746,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39761,10 +39772,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39790,7 +39801,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -40026,7 +40037,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40054,7 +40065,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40109,7 +40120,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40135,7 +40146,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40153,7 +40164,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40190,7 +40201,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="601">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1737,6 +1737,12 @@
   </si>
   <si>
     <t xml:space="preserve">T:O(n); S: O(1) where n is max(num of element in array1, num of elements in array2)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score After Flipping Matrix; Number of Burgers with No Waste of Ingredients; Find Valid Matrix Given Row and Column Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(1) where n is number of nodes in the list. </t>
   </si>
   <si>
     <t xml:space="preserve">Binary Search</t>
@@ -3361,7 +3367,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3388,11 +3394,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3403,11 +3409,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3417,7 +3423,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>4.59090909090909</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3438,7 +3444,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -7639,7 +7645,7 @@
       </c>
       <c r="L89" s="30" t="str">
         <f aca="false">Practice_Tracker!H183</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="M89" s="29"/>
       <c r="N89" s="35"/>
@@ -35713,11 +35719,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I177" activeCellId="0" sqref="I177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J183" activeCellId="0" sqref="J183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -39289,12 +39295,23 @@
       <c r="C183" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E183" s="110"/>
+      <c r="D183" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E183" s="110" t="s">
+        <v>541</v>
+      </c>
       <c r="F183" s="78"/>
       <c r="G183" s="79"/>
       <c r="H183" s="80" t="str">
         <f aca="false">IF(OR(E183&lt;&gt;"",F183&lt;&gt;"",G183&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="J183" s="0" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39308,7 +39325,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39320,10 +39337,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39337,7 +39354,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39360,7 +39377,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39372,10 +39389,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39401,7 +39418,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39415,7 +39432,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39427,10 +39444,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39456,7 +39473,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39482,7 +39499,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39534,7 +39551,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39548,7 +39565,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39560,7 +39577,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39574,7 +39591,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39612,7 +39629,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39626,7 +39643,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E196" s="110" t="s">
         <v>541</v>
@@ -39638,10 +39655,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39667,7 +39684,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39681,7 +39698,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39694,7 +39711,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39708,7 +39725,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39720,7 +39737,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39734,7 +39751,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39746,7 +39763,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39772,10 +39789,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39801,7 +39818,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -40037,7 +40054,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40065,7 +40082,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40120,7 +40137,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40146,7 +40163,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40164,7 +40181,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40201,7 +40218,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="603">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1676,6 +1676,15 @@
     <t xml:space="preserve">249. Group Shifted Anagrams</t>
   </si>
   <si>
+    <t xml:space="preserve">Stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Calculator; Expression Add Operator; Basic Calculator III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) where n is length of string. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Linked List</t>
   </si>
   <si>
@@ -1683,9 +1692,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slow and fast pointers, Reverse LL, compare in place. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks</t>
   </si>
   <si>
     <t xml:space="preserve">716. Min Stack 239. Sliding Window Maximum</t>
@@ -3367,7 +3373,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3394,11 +3400,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3409,11 +3415,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3423,7 +3429,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>4.76190476190476</v>
+        <v>4.95</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3444,7 +3450,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -5900,7 +5906,7 @@
       </c>
       <c r="F55" s="30" t="str">
         <f aca="false">Practice_Tracker!H49</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="31" t="n">
@@ -35719,11 +35725,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J183" activeCellId="0" sqref="J183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -36704,12 +36710,23 @@
       <c r="C49" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="77"/>
+      <c r="D49" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F49" s="78"/>
       <c r="G49" s="79"/>
       <c r="H49" s="80" t="str">
         <f aca="false">IF(OR(E49&lt;&gt;"",F49&lt;&gt;"",G49&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,7 +36798,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="95" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E53" s="96" t="s">
         <v>541</v>
@@ -36793,10 +36810,10 @@
         <v>Complete</v>
       </c>
       <c r="I53" s="95" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36908,7 +36925,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="92" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>541</v>
@@ -36920,7 +36937,7 @@
         <v>Complete</v>
       </c>
       <c r="I59" s="92" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37062,10 +37079,10 @@
         <v>Complete</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37173,7 +37190,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>541</v>
@@ -37185,10 +37202,10 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37294,7 +37311,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37306,7 +37323,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37564,7 +37581,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37596,7 +37613,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37608,10 +37625,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37781,7 +37798,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38135,7 +38152,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38143,7 +38160,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38373,7 +38390,7 @@
         <v>21</v>
       </c>
       <c r="D133" s="92" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E133" s="110" t="s">
         <v>541</v>
@@ -38462,7 +38479,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38692,7 +38709,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38704,7 +38721,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39308,10 +39325,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39325,7 +39342,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39337,10 +39354,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39354,7 +39371,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39377,7 +39394,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39389,10 +39406,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39418,7 +39435,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39432,7 +39449,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39444,10 +39461,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39461,7 +39478,7 @@
         <v>24</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E189" s="110" t="s">
         <v>541</v>
@@ -39473,7 +39490,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39487,7 +39504,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39499,7 +39516,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39525,7 +39542,7 @@
         <v>Complete</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39551,7 +39568,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39565,7 +39582,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39577,7 +39594,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39591,7 +39608,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39603,7 +39620,7 @@
         <v>Complete</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39617,7 +39634,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E195" s="110" t="s">
         <v>541</v>
@@ -39629,7 +39646,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39643,7 +39660,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E196" s="110" t="s">
         <v>541</v>
@@ -39655,10 +39672,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39672,7 +39689,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39684,7 +39701,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39698,7 +39715,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39711,7 +39728,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39725,7 +39742,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39737,7 +39754,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39751,7 +39768,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39763,7 +39780,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39789,10 +39806,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39818,7 +39835,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -40054,7 +40071,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40082,7 +40099,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40137,7 +40154,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40163,7 +40180,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40181,7 +40198,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40218,7 +40235,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="605">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1673,6 +1673,15 @@
     <t xml:space="preserve">347. Top K Frequent Elements</t>
   </si>
   <si>
+    <t xml:space="preserve">BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Ladder II; Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T:O(M^2 x N) where M is number of alphabets and N is the number of words in the word list. </t>
+  </si>
+  <si>
     <t xml:space="preserve">249. Group Shifted Anagrams</t>
   </si>
   <si>
@@ -1800,9 +1809,6 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(n); S: O(1) where n is numbe of nodes in linked list. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS</t>
   </si>
   <si>
     <t xml:space="preserve">1485. Clone Binary Tree With Random Pointer</t>
@@ -3373,7 +3379,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3400,11 +3406,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3415,11 +3421,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.495</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3429,7 +3435,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>4.95</v>
+        <v>5.44444444444444</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3450,7 +3456,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -5236,7 +5242,7 @@
       </c>
       <c r="F42" s="30" t="str">
         <f aca="false">Practice_Tracker!H36</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="31" t="n">
@@ -35725,11 +35731,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -36458,12 +36464,23 @@
       <c r="C36" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="D36" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F36" s="78"/>
       <c r="G36" s="79"/>
       <c r="H36" s="80" t="str">
         <f aca="false">IF(OR(E36&lt;&gt;"",F36&lt;&gt;"",G36&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36621,7 +36638,7 @@
         <v>Complete</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36711,7 +36728,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E49" s="77" t="s">
         <v>541</v>
@@ -36723,10 +36740,10 @@
         <v>Complete</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36798,7 +36815,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="95" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E53" s="96" t="s">
         <v>541</v>
@@ -36810,10 +36827,10 @@
         <v>Complete</v>
       </c>
       <c r="I53" s="95" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36925,7 +36942,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="92" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>541</v>
@@ -36937,7 +36954,7 @@
         <v>Complete</v>
       </c>
       <c r="I59" s="92" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37079,10 +37096,10 @@
         <v>Complete</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37190,7 +37207,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>541</v>
@@ -37202,10 +37219,10 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37311,7 +37328,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37323,7 +37340,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37581,7 +37598,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37613,7 +37630,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37625,10 +37642,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37798,7 +37815,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38152,7 +38169,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38160,7 +38177,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38390,7 +38407,7 @@
         <v>21</v>
       </c>
       <c r="D133" s="92" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E133" s="110" t="s">
         <v>541</v>
@@ -38479,7 +38496,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38709,7 +38726,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38721,7 +38738,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39325,10 +39342,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39342,7 +39359,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39354,10 +39371,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39371,7 +39388,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39394,7 +39411,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39406,10 +39423,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39435,7 +39452,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39449,7 +39466,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39461,10 +39478,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39478,7 +39495,7 @@
         <v>24</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E189" s="110" t="s">
         <v>541</v>
@@ -39490,7 +39507,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39504,7 +39521,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39516,7 +39533,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39542,7 +39559,7 @@
         <v>Complete</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39568,7 +39585,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39582,7 +39599,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39594,7 +39611,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39608,7 +39625,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39620,7 +39637,7 @@
         <v>Complete</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39634,7 +39651,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E195" s="110" t="s">
         <v>541</v>
@@ -39646,7 +39663,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39660,7 +39677,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="E196" s="110" t="s">
         <v>541</v>
@@ -39672,10 +39689,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39689,7 +39706,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39701,7 +39718,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39715,7 +39732,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39728,7 +39745,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39742,7 +39759,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39754,7 +39771,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39768,7 +39785,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39780,7 +39797,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39806,10 +39823,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39835,7 +39852,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -40071,7 +40088,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40099,7 +40116,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40154,7 +40171,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40180,7 +40197,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40198,7 +40215,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40235,7 +40252,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="606">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slow and fast pointers, Reverse LL, compare in place. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n*2^n); S(n) where n is length of string. </t>
   </si>
   <si>
     <t xml:space="preserve">716. Min Stack 239. Sliding Window Maximum</t>
@@ -3331,7 +3334,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A2:J202" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A2:J202"/>
+  <autoFilter ref="A2:J202">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Medium"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Title"/>
@@ -3379,7 +3388,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3406,11 +3415,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.51</v>
+        <v>0.515</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3421,11 +3430,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.49</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3435,7 +3444,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>5.44444444444444</v>
+        <v>5.70588235294118</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3456,7 +3465,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -6366,7 +6375,7 @@
       <c r="E64" s="29"/>
       <c r="F64" s="30" t="str">
         <f aca="false">Practice_Tracker!H58</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G64" s="29"/>
       <c r="H64" s="31" t="n">
@@ -35731,11 +35740,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -35780,7 +35789,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="n">
         <v>1</v>
       </c>
@@ -35800,7 +35809,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="81" t="n">
         <v>42</v>
       </c>
@@ -35941,7 +35950,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="n">
         <v>53</v>
       </c>
@@ -35961,7 +35970,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="n">
         <v>4</v>
       </c>
@@ -35979,7 +35988,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="n">
         <v>21</v>
       </c>
@@ -36019,7 +36028,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="75" t="n">
         <v>20</v>
       </c>
@@ -36059,7 +36068,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="75" t="n">
         <v>23</v>
       </c>
@@ -36099,7 +36108,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="75" t="n">
         <v>121</v>
       </c>
@@ -36119,7 +36128,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="n">
         <v>206</v>
       </c>
@@ -36159,7 +36168,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="n">
         <v>76</v>
       </c>
@@ -36332,7 +36341,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="n">
         <v>7</v>
       </c>
@@ -36372,7 +36381,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="n">
         <v>88</v>
       </c>
@@ -36392,7 +36401,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="75" t="n">
         <v>239</v>
       </c>
@@ -36410,7 +36419,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="n">
         <v>10</v>
       </c>
@@ -36483,7 +36492,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="75" t="n">
         <v>295</v>
       </c>
@@ -36541,7 +36550,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="85" t="n">
         <v>269</v>
       </c>
@@ -36582,7 +36591,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="81" t="n">
         <v>128</v>
       </c>
@@ -36600,7 +36609,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="75" t="n">
         <v>297</v>
       </c>
@@ -36661,7 +36670,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="n">
         <v>124</v>
       </c>
@@ -36679,7 +36688,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="75" t="n">
         <v>140</v>
       </c>
@@ -36766,7 +36775,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="75" t="n">
         <v>13</v>
       </c>
@@ -36786,7 +36795,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="n">
         <v>84</v>
       </c>
@@ -36804,7 +36813,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="75" t="n">
         <v>234</v>
       </c>
@@ -36833,7 +36842,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="n">
         <v>14</v>
       </c>
@@ -36893,7 +36902,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="75" t="n">
         <v>283</v>
       </c>
@@ -36923,15 +36932,23 @@
       <c r="C58" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="77"/>
+      <c r="D58" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E58" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F58" s="78"/>
       <c r="G58" s="79"/>
       <c r="H58" s="80" t="str">
         <f aca="false">IF(OR(E58&lt;&gt;"",F58&lt;&gt;"",G58&lt;&gt;""),"Complete","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Complete</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="75" t="n">
         <v>155</v>
       </c>
@@ -36954,7 +36971,7 @@
         <v>Complete</v>
       </c>
       <c r="I59" s="92" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36977,7 +36994,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="75" t="n">
         <v>412</v>
       </c>
@@ -36997,7 +37014,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="81" t="n">
         <v>202</v>
       </c>
@@ -37035,7 +37052,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="n">
         <v>212</v>
       </c>
@@ -37053,7 +37070,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="75" t="n">
         <v>70</v>
       </c>
@@ -37096,10 +37113,10 @@
         <v>Complete</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37140,7 +37157,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="75" t="n">
         <v>125</v>
       </c>
@@ -37160,7 +37177,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="81" t="n">
         <v>329</v>
       </c>
@@ -37207,7 +37224,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>541</v>
@@ -37219,10 +37236,10 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37243,7 +37260,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="n">
         <v>387</v>
       </c>
@@ -37281,7 +37298,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="n">
         <v>41</v>
       </c>
@@ -37299,7 +37316,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="75" t="n">
         <v>204</v>
       </c>
@@ -37317,7 +37334,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="n">
         <v>198</v>
       </c>
@@ -37328,7 +37345,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37340,7 +37357,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37421,7 +37438,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="75" t="n">
         <v>218</v>
       </c>
@@ -37457,7 +37474,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="75" t="n">
         <v>44</v>
       </c>
@@ -37475,7 +37492,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="81" t="n">
         <v>268</v>
       </c>
@@ -37576,7 +37593,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="75" t="n">
         <v>149</v>
       </c>
@@ -37598,7 +37615,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37630,7 +37647,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37642,13 +37659,13 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="81" t="n">
         <v>169</v>
       </c>
@@ -37666,7 +37683,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="75" t="n">
         <v>136</v>
       </c>
@@ -37702,7 +37719,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="75" t="n">
         <v>38</v>
       </c>
@@ -37720,7 +37737,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="81" t="n">
         <v>101</v>
       </c>
@@ -37738,7 +37755,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="75" t="n">
         <v>315</v>
       </c>
@@ -37792,7 +37809,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="104" t="n">
         <v>242</v>
       </c>
@@ -37815,7 +37832,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37938,7 +37955,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="61" t="n">
         <v>1086</v>
       </c>
@@ -37998,7 +38015,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="61" t="n">
         <v>359</v>
       </c>
@@ -38134,7 +38151,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="61" t="n">
         <v>339</v>
       </c>
@@ -38169,7 +38186,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38177,7 +38194,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38216,7 +38233,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="61" t="n">
         <v>346</v>
       </c>
@@ -38324,7 +38341,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="61" t="n">
         <v>270</v>
       </c>
@@ -38396,7 +38413,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="61" t="n">
         <v>716</v>
       </c>
@@ -38437,7 +38454,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="61" t="n">
         <v>157</v>
       </c>
@@ -38496,7 +38513,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38607,7 +38624,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="61" t="n">
         <v>252</v>
       </c>
@@ -38726,7 +38743,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38738,10 +38755,10 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="61" t="n">
         <v>243</v>
       </c>
@@ -38813,7 +38830,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="61" t="n">
         <v>266</v>
       </c>
@@ -38939,7 +38956,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="61" t="n">
         <v>1180</v>
       </c>
@@ -39119,7 +39136,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="61" t="n">
         <v>1213</v>
       </c>
@@ -39281,7 +39298,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="61" t="n">
         <v>1427</v>
       </c>
@@ -39299,7 +39316,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="112" t="n">
         <v>276</v>
       </c>
@@ -39342,13 +39359,13 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="61" t="n">
         <v>1228</v>
       </c>
@@ -39359,7 +39376,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39371,10 +39388,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39388,7 +39405,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39411,7 +39428,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39423,10 +39440,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39452,7 +39469,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39466,7 +39483,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39478,10 +39495,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39507,7 +39524,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39521,7 +39538,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39533,7 +39550,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39559,7 +39576,7 @@
         <v>Complete</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39585,7 +39602,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39599,7 +39616,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39611,7 +39628,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39625,7 +39642,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39637,7 +39654,7 @@
         <v>Complete</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39663,7 +39680,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39689,10 +39706,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39706,7 +39723,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39718,7 +39735,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39732,7 +39749,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39745,7 +39762,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39759,7 +39776,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39771,7 +39788,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39785,7 +39802,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39797,7 +39814,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39823,10 +39840,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39852,7 +39869,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -40088,7 +40105,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40116,7 +40133,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40171,7 +40188,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40197,7 +40214,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40215,7 +40232,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40252,7 +40269,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="607">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slow and fast pointers, Reverse LL, compare in place. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome Partitioning II</t>
   </si>
   <si>
     <t xml:space="preserve">T: O(n*2^n); S(n) where n is length of string. </t>
@@ -35741,7 +35744,7 @@
   <dimension ref="A2:J202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36944,8 +36947,11 @@
         <f aca="false">IF(OR(E58&lt;&gt;"",F58&lt;&gt;"",G58&lt;&gt;""),"Complete","")</f>
         <v>Complete</v>
       </c>
+      <c r="I58" s="0" t="s">
+        <v>558</v>
+      </c>
       <c r="J58" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36971,7 +36977,7 @@
         <v>Complete</v>
       </c>
       <c r="I59" s="92" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37113,10 +37119,10 @@
         <v>Complete</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37224,7 +37230,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>541</v>
@@ -37236,10 +37242,10 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37345,7 +37351,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37357,7 +37363,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37615,7 +37621,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37647,7 +37653,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37659,10 +37665,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37832,7 +37838,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38186,7 +38192,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38194,7 +38200,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38513,7 +38519,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38743,7 +38749,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38755,7 +38761,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39359,10 +39365,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39376,7 +39382,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39388,10 +39394,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39405,7 +39411,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39428,7 +39434,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39440,10 +39446,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39469,7 +39475,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39483,7 +39489,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39495,10 +39501,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39524,7 +39530,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39538,7 +39544,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39550,7 +39556,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39576,7 +39582,7 @@
         <v>Complete</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39602,7 +39608,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39616,7 +39622,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39628,7 +39634,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39642,7 +39648,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39654,7 +39660,7 @@
         <v>Complete</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39680,7 +39686,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39706,10 +39712,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39723,7 +39729,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39735,7 +39741,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39749,7 +39755,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39762,7 +39768,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39776,7 +39782,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39788,7 +39794,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39802,7 +39808,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39814,7 +39820,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39840,10 +39846,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39869,7 +39875,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -40133,7 +40139,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40214,7 +40220,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40232,7 +40238,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40269,7 +40275,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="610">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1710,6 +1710,15 @@
   </si>
   <si>
     <t xml:space="preserve">716. Min Stack 239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle; Add Digit; Ugly Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(log(n)); S: O(1) where n is the given integer.</t>
   </si>
   <si>
     <t xml:space="preserve">Lowest Common Ancestor of a Binary Search Tree; Smallest Common Region; Lowest Common Ancestor of a Binary Tree II; Lowest Common Ancestor of a Binary Tree III</t>
@@ -3337,13 +3346,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A2:J202" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A2:J202">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Medium"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J202"/>
   <tableColumns count="10">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Title"/>
@@ -3391,7 +3394,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3418,11 +3421,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3433,11 +3436,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3447,7 +3450,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>5.70588235294118</v>
+        <v>6.4</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3468,7 +3471,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -6578,7 +6581,7 @@
       <c r="E68" s="29"/>
       <c r="F68" s="30" t="str">
         <f aca="false">Practice_Tracker!H62</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="31" t="n">
@@ -35743,11 +35746,11 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.66"/>
@@ -35792,7 +35795,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="n">
         <v>1</v>
       </c>
@@ -35812,7 +35815,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="81" t="n">
         <v>42</v>
       </c>
@@ -35953,7 +35956,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="n">
         <v>53</v>
       </c>
@@ -35973,7 +35976,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="n">
         <v>4</v>
       </c>
@@ -35991,7 +35994,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="n">
         <v>21</v>
       </c>
@@ -36031,7 +36034,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="75" t="n">
         <v>20</v>
       </c>
@@ -36071,7 +36074,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="75" t="n">
         <v>23</v>
       </c>
@@ -36111,7 +36114,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="75" t="n">
         <v>121</v>
       </c>
@@ -36131,7 +36134,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="n">
         <v>206</v>
       </c>
@@ -36171,7 +36174,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="n">
         <v>76</v>
       </c>
@@ -36344,7 +36347,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="n">
         <v>7</v>
       </c>
@@ -36384,7 +36387,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="n">
         <v>88</v>
       </c>
@@ -36404,7 +36407,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="75" t="n">
         <v>239</v>
       </c>
@@ -36422,7 +36425,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="n">
         <v>10</v>
       </c>
@@ -36495,7 +36498,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="75" t="n">
         <v>295</v>
       </c>
@@ -36553,7 +36556,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="85" t="n">
         <v>269</v>
       </c>
@@ -36594,7 +36597,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="81" t="n">
         <v>128</v>
       </c>
@@ -36612,7 +36615,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="75" t="n">
         <v>297</v>
       </c>
@@ -36673,7 +36676,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="n">
         <v>124</v>
       </c>
@@ -36691,7 +36694,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="75" t="n">
         <v>140</v>
       </c>
@@ -36778,7 +36781,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="75" t="n">
         <v>13</v>
       </c>
@@ -36798,7 +36801,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="n">
         <v>84</v>
       </c>
@@ -36816,7 +36819,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="75" t="n">
         <v>234</v>
       </c>
@@ -36845,7 +36848,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="n">
         <v>14</v>
       </c>
@@ -36905,7 +36908,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="75" t="n">
         <v>283</v>
       </c>
@@ -36954,7 +36957,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="75" t="n">
         <v>155</v>
       </c>
@@ -37000,7 +37003,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="75" t="n">
         <v>412</v>
       </c>
@@ -37020,7 +37023,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="81" t="n">
         <v>202</v>
       </c>
@@ -37030,12 +37033,23 @@
       <c r="C62" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="77"/>
+      <c r="D62" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F62" s="78"/>
       <c r="G62" s="79"/>
       <c r="H62" s="80" t="str">
         <f aca="false">IF(OR(E62&lt;&gt;"",F62&lt;&gt;"",G62&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37058,7 +37072,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="n">
         <v>212</v>
       </c>
@@ -37076,7 +37090,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="75" t="n">
         <v>70</v>
       </c>
@@ -37119,10 +37133,10 @@
         <v>Complete</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37163,7 +37177,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="75" t="n">
         <v>125</v>
       </c>
@@ -37183,7 +37197,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="81" t="n">
         <v>329</v>
       </c>
@@ -37230,7 +37244,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>541</v>
@@ -37242,10 +37256,10 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37266,7 +37280,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="n">
         <v>387</v>
       </c>
@@ -37304,7 +37318,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="n">
         <v>41</v>
       </c>
@@ -37322,7 +37336,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="75" t="n">
         <v>204</v>
       </c>
@@ -37340,7 +37354,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="n">
         <v>198</v>
       </c>
@@ -37351,7 +37365,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37363,7 +37377,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37444,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="75" t="n">
         <v>218</v>
       </c>
@@ -37480,7 +37494,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="75" t="n">
         <v>44</v>
       </c>
@@ -37498,7 +37512,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="81" t="n">
         <v>268</v>
       </c>
@@ -37599,7 +37613,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="75" t="n">
         <v>149</v>
       </c>
@@ -37621,7 +37635,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37653,7 +37667,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>541</v>
@@ -37665,13 +37679,13 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="81" t="n">
         <v>169</v>
       </c>
@@ -37689,7 +37703,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="75" t="n">
         <v>136</v>
       </c>
@@ -37725,7 +37739,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="75" t="n">
         <v>38</v>
       </c>
@@ -37743,7 +37757,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="81" t="n">
         <v>101</v>
       </c>
@@ -37761,7 +37775,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="75" t="n">
         <v>315</v>
       </c>
@@ -37815,7 +37829,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="104" t="n">
         <v>242</v>
       </c>
@@ -37838,7 +37852,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37961,7 +37975,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="61" t="n">
         <v>1086</v>
       </c>
@@ -38021,7 +38035,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="61" t="n">
         <v>359</v>
       </c>
@@ -38157,7 +38171,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="61" t="n">
         <v>339</v>
       </c>
@@ -38192,7 +38206,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38200,7 +38214,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38239,7 +38253,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="61" t="n">
         <v>346</v>
       </c>
@@ -38347,7 +38361,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="61" t="n">
         <v>270</v>
       </c>
@@ -38419,7 +38433,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="61" t="n">
         <v>716</v>
       </c>
@@ -38460,7 +38474,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="61" t="n">
         <v>157</v>
       </c>
@@ -38519,7 +38533,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38630,7 +38644,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="61" t="n">
         <v>252</v>
       </c>
@@ -38749,7 +38763,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38761,10 +38775,10 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="61" t="n">
         <v>243</v>
       </c>
@@ -38836,7 +38850,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="61" t="n">
         <v>266</v>
       </c>
@@ -38962,7 +38976,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="61" t="n">
         <v>1180</v>
       </c>
@@ -39142,7 +39156,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="61" t="n">
         <v>1213</v>
       </c>
@@ -39304,7 +39318,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="61" t="n">
         <v>1427</v>
       </c>
@@ -39322,7 +39336,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="112" t="n">
         <v>276</v>
       </c>
@@ -39365,13 +39379,13 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="61" t="n">
         <v>1228</v>
       </c>
@@ -39382,7 +39396,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39394,10 +39408,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39411,7 +39425,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39434,7 +39448,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39446,10 +39460,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39475,7 +39489,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39489,7 +39503,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39501,10 +39515,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39530,7 +39544,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39544,7 +39558,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39556,7 +39570,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39582,7 +39596,7 @@
         <v>Complete</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39608,7 +39622,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39622,7 +39636,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39634,7 +39648,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39648,7 +39662,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39660,7 +39674,7 @@
         <v>Complete</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39686,7 +39700,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39712,10 +39726,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39729,7 +39743,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39741,7 +39755,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39755,7 +39769,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39768,7 +39782,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39782,7 +39796,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39794,7 +39808,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39808,7 +39822,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39820,7 +39834,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39846,10 +39860,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39875,7 +39889,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -40111,7 +40125,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
@@ -40139,7 +40153,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40194,7 +40208,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7734375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
@@ -40220,7 +40234,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40238,7 +40252,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40275,7 +40289,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="612">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1734,6 +1734,12 @@
   </si>
   <si>
     <t xml:space="preserve">Time: O(V + E) and Space: O(V +E). Just a slight variation of Course Schedule I. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Character by Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) where n is length of given string. </t>
   </si>
   <si>
     <t xml:space="preserve">DP</t>
@@ -3394,7 +3400,7 @@
       <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3421,11 +3427,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3436,11 +3442,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3450,7 +3456,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>6.4</v>
+        <v>6.78571428571429</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3471,7 +3477,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -7199,7 +7205,7 @@
       <c r="E80" s="29"/>
       <c r="F80" s="30" t="str">
         <f aca="false">Practice_Tracker!H74</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="31" t="n">
@@ -35747,7 +35753,7 @@
   <dimension ref="A2:J202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37290,12 +37296,20 @@
       <c r="C74" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="77"/>
+      <c r="E74" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="F74" s="78"/>
       <c r="G74" s="79"/>
       <c r="H74" s="80" t="str">
         <f aca="false">IF(OR(E74&lt;&gt;"",F74&lt;&gt;"",G74&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37365,7 +37379,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>541</v>
@@ -37377,7 +37391,7 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37635,7 +37649,7 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37679,10 +37693,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37852,7 +37866,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38206,7 +38220,7 @@
         <v>541</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38214,7 +38228,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38533,7 +38547,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38763,7 +38777,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>541</v>
@@ -38775,7 +38789,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39379,10 +39393,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39396,7 +39410,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>541</v>
@@ -39408,10 +39422,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39425,7 +39439,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>541</v>
@@ -39448,7 +39462,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>541</v>
@@ -39460,10 +39474,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39489,7 +39503,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39503,7 +39517,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>541</v>
@@ -39515,10 +39529,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39544,7 +39558,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39558,7 +39572,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>541</v>
@@ -39570,7 +39584,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39622,7 +39636,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39636,7 +39650,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>541</v>
@@ -39648,7 +39662,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39662,7 +39676,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>541</v>
@@ -39700,7 +39714,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39726,10 +39740,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39743,7 +39757,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>541</v>
@@ -39755,7 +39769,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39769,7 +39783,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>541</v>
@@ -39782,7 +39796,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39796,7 +39810,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>541</v>
@@ -39808,7 +39822,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39822,7 +39836,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>541</v>
@@ -39834,7 +39848,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39860,10 +39874,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39889,7 +39903,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -40153,7 +40167,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40234,7 +40248,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40252,7 +40266,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40289,7 +40303,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>267</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="617">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1761,6 +1761,18 @@
   </si>
   <si>
     <t xml:space="preserve">Hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) where n is length of given array. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(1) where n is length of given array. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(2^n); S: O(2^n) where n is given integer.</t>
   </si>
   <si>
     <t xml:space="preserve">49. Group Anagrams, 438. Find All Anagrams in a String</t>
@@ -3410,11 +3422,11 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G103" activeCellId="0" sqref="G103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3441,11 +3453,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3456,11 +3468,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.47</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3470,7 +3482,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>6.71428571428571</v>
+        <v>7.58333333333333</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3491,7 +3503,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -8229,7 +8241,7 @@
       <c r="E100" s="29"/>
       <c r="F100" s="30" t="str">
         <f aca="false">Practice_Tracker!H94</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G100" s="29"/>
       <c r="H100" s="31" t="n">
@@ -8279,7 +8291,7 @@
       <c r="E101" s="29"/>
       <c r="F101" s="30" t="str">
         <f aca="false">Practice_Tracker!H95</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G101" s="29"/>
       <c r="H101" s="31" t="n">
@@ -8379,7 +8391,7 @@
       <c r="E103" s="29"/>
       <c r="F103" s="30" t="str">
         <f aca="false">Practice_Tracker!H97</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G103" s="29"/>
       <c r="H103" s="31" t="n">
@@ -35762,8 +35774,8 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B217" activeCellId="0" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37730,12 +37742,20 @@
       <c r="C94" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="77"/>
+      <c r="D94" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E94" s="77" t="s">
+        <v>540</v>
+      </c>
       <c r="F94" s="78"/>
       <c r="G94" s="79"/>
       <c r="H94" s="80" t="str">
         <f aca="false">IF(OR(E94&lt;&gt;"",F94&lt;&gt;"",G94&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37748,12 +37768,20 @@
       <c r="C95" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="77"/>
+      <c r="D95" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E95" s="77" t="s">
+        <v>540</v>
+      </c>
       <c r="F95" s="78"/>
       <c r="G95" s="79"/>
       <c r="H95" s="80" t="str">
         <f aca="false">IF(OR(E95&lt;&gt;"",F95&lt;&gt;"",G95&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37784,12 +37812,20 @@
       <c r="C97" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="77"/>
+      <c r="D97" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E97" s="77" t="s">
+        <v>540</v>
+      </c>
       <c r="F97" s="78"/>
       <c r="G97" s="79"/>
       <c r="H97" s="80" t="str">
         <f aca="false">IF(OR(E97&lt;&gt;"",F97&lt;&gt;"",G97&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37887,7 +37923,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38241,7 +38277,7 @@
         <v>540</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38249,7 +38285,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38568,7 +38604,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38810,7 +38846,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39414,10 +39450,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39431,7 +39467,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>540</v>
@@ -39443,10 +39479,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39460,7 +39496,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>540</v>
@@ -39483,7 +39519,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>540</v>
@@ -39495,10 +39531,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39524,7 +39560,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39538,7 +39574,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>540</v>
@@ -39550,10 +39586,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39579,7 +39615,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39605,7 +39641,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39657,7 +39693,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39671,7 +39707,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>540</v>
@@ -39683,7 +39719,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39697,7 +39733,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>540</v>
@@ -39735,7 +39771,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39761,10 +39797,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39790,7 +39826,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39804,7 +39840,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>540</v>
@@ -39817,7 +39853,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39831,7 +39867,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>540</v>
@@ -39843,7 +39879,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39857,7 +39893,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>540</v>
@@ -39869,7 +39905,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39895,10 +39931,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39924,7 +39960,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -40188,7 +40224,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40269,7 +40305,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40287,7 +40323,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40324,7 +40360,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>266</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="618">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1773,6 +1773,9 @@
   </si>
   <si>
     <t xml:space="preserve">T: O(2^n); S: O(2^n) where n is given integer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(n); S: O(n) where n is number of nodes in tree. </t>
   </si>
   <si>
     <t xml:space="preserve">49. Group Anagrams, 438. Find All Anagrams in a String</t>
@@ -3426,7 +3429,7 @@
       <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3453,11 +3456,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.545</v>
+        <v>0.55</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3468,11 +3471,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.455</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3482,7 +3485,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>7.58333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -8441,7 +8444,7 @@
       <c r="E104" s="29"/>
       <c r="F104" s="30" t="str">
         <f aca="false">Practice_Tracker!H98</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G104" s="29"/>
       <c r="H104" s="31" t="n">
@@ -35774,8 +35777,8 @@
   </sheetPr>
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B217" activeCellId="0" sqref="B217"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I119" activeCellId="0" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37828,7 +37831,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="81" t="n">
         <v>101</v>
       </c>
@@ -37838,12 +37841,20 @@
       <c r="C98" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="77"/>
+      <c r="D98" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E98" s="77" t="s">
+        <v>540</v>
+      </c>
       <c r="F98" s="78"/>
       <c r="G98" s="79"/>
       <c r="H98" s="80" t="str">
         <f aca="false">IF(OR(E98&lt;&gt;"",F98&lt;&gt;"",G98&lt;&gt;""),"Complete","")</f>
-        <v/>
+        <v>Complete</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37923,7 +37934,7 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38277,7 +38288,7 @@
         <v>540</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38285,7 +38296,7 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38604,7 +38615,7 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38846,7 +38857,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39450,10 +39461,10 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39467,7 +39478,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>540</v>
@@ -39479,10 +39490,10 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39496,7 +39507,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>540</v>
@@ -39519,7 +39530,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>540</v>
@@ -39531,10 +39542,10 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39560,7 +39571,7 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39574,7 +39585,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>540</v>
@@ -39586,10 +39597,10 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39615,7 +39626,7 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39641,7 +39652,7 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39693,7 +39704,7 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39707,7 +39718,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>540</v>
@@ -39719,7 +39730,7 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39733,7 +39744,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>540</v>
@@ -39771,7 +39782,7 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39797,10 +39808,10 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39826,7 +39837,7 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39840,7 +39851,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>540</v>
@@ -39853,7 +39864,7 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39867,7 +39878,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>540</v>
@@ -39879,7 +39890,7 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39893,7 +39904,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>540</v>
@@ -39905,7 +39916,7 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39931,10 +39942,10 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39960,7 +39971,7 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -40224,7 +40235,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40305,7 +40316,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40323,7 +40334,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40360,7 +40371,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>266</v>

--- a/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
+++ b/01_LeetCode/04_LeetCode_Most_Freq/LC_Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="620">
   <si>
     <t xml:space="preserve">Completed:</t>
   </si>
@@ -1724,6 +1724,9 @@
     <t xml:space="preserve">T: O(n); S: O(n) where n is number of nodes in the binary tree. </t>
   </si>
   <si>
+    <t xml:space="preserve">T: O(v + e); S: O(v)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Topological Sort</t>
   </si>
   <si>
@@ -1869,6 +1872,9 @@
   </si>
   <si>
     <t xml:space="preserve">Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Level Order Traversal II; Minimum Depth of Binary Tree; Average of Levels in Binary Tree; N-ary Tree Level Order Traversal; Cousins in Binary Tree</t>
   </si>
   <si>
     <t xml:space="preserve">Backtracking</t>
@@ -3370,18 +3376,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A2:J202" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A2:J202">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Easy"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J202"/>
   <tableColumns count="10">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Title"/>
@@ -3425,11 +3420,11 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54"/>
@@ -3456,11 +3451,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="n">
         <f aca="false">COUNTIF(L9:L108, "Complete") + COUNTIF(F9:F108, "Complete")</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">C1/(C2 + C1)</f>
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -3471,11 +3466,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="n">
         <f aca="false">COUNTBLANK(F9:F108) + COUNTBLANK(L9:L108)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">C2/(C1 + C2)</f>
-        <v>0.45</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3485,7 +3480,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="n">
         <f aca="false">(C2)/C5</f>
-        <v>7.5</v>
+        <v>8.09090909090909</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -3506,7 +3501,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="n">
         <f aca="true">C4-TODAY()</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11"/>
       <c r="I5" s="12"/>
@@ -6924,7 +6919,7 @@
       </c>
       <c r="F74" s="30" t="str">
         <f aca="false">Practice_Tracker!H68</f>
-        <v/>
+        <v>Complete</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="31" t="n">
@@ -35775,10 +35770,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J202"/>
+  <dimension ref="A2:J203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I119" activeCellId="0" sqref="I119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I217" activeCellId="0" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35826,7 +35821,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="n">
         <v>1</v>
       </c>
@@ -35846,7 +35841,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="81" t="n">
         <v>42</v>
       </c>
@@ -35866,7 +35861,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="75" t="n">
         <v>200</v>
       </c>
@@ -35886,7 +35881,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="81" t="n">
         <v>2</v>
       </c>
@@ -35906,7 +35901,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="75" t="n">
         <v>146</v>
       </c>
@@ -35924,7 +35919,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="81" t="n">
         <v>5</v>
       </c>
@@ -35944,7 +35939,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="n">
         <v>91</v>
       </c>
@@ -35967,7 +35962,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="n">
         <v>3</v>
       </c>
@@ -35987,7 +35982,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="n">
         <v>53</v>
       </c>
@@ -36007,7 +36002,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="n">
         <v>4</v>
       </c>
@@ -36025,7 +36020,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="n">
         <v>21</v>
       </c>
@@ -36045,7 +36040,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="n">
         <v>15</v>
       </c>
@@ -36065,7 +36060,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="75" t="n">
         <v>20</v>
       </c>
@@ -36085,7 +36080,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="81" t="n">
         <v>238</v>
       </c>
@@ -36105,7 +36100,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="75" t="n">
         <v>23</v>
       </c>
@@ -36125,7 +36120,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="81" t="n">
         <v>56</v>
       </c>
@@ -36145,7 +36140,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="75" t="n">
         <v>121</v>
       </c>
@@ -36165,7 +36160,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="n">
         <v>206</v>
       </c>
@@ -36185,7 +36180,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="75" t="n">
         <v>11</v>
       </c>
@@ -36205,7 +36200,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="n">
         <v>76</v>
       </c>
@@ -36223,7 +36218,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="75" t="n">
         <v>322</v>
       </c>
@@ -36243,7 +36238,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="81" t="n">
         <v>22</v>
       </c>
@@ -36263,7 +36258,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="75" t="n">
         <v>54</v>
       </c>
@@ -36283,7 +36278,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="81" t="n">
         <v>17</v>
       </c>
@@ -36309,7 +36304,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="75" t="n">
         <v>46</v>
       </c>
@@ -36338,7 +36333,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="81" t="n">
         <v>380</v>
       </c>
@@ -36358,7 +36353,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="75" t="n">
         <v>79</v>
       </c>
@@ -36378,7 +36373,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="n">
         <v>7</v>
       </c>
@@ -36398,7 +36393,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="75" t="n">
         <v>253</v>
       </c>
@@ -36418,7 +36413,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="n">
         <v>88</v>
       </c>
@@ -36438,7 +36433,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="75" t="n">
         <v>239</v>
       </c>
@@ -36456,7 +36451,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="n">
         <v>10</v>
       </c>
@@ -36474,7 +36469,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="75" t="n">
         <v>215</v>
       </c>
@@ -36500,7 +36495,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="n">
         <v>127</v>
       </c>
@@ -36529,7 +36524,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="75" t="n">
         <v>295</v>
       </c>
@@ -36547,7 +36542,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="81" t="n">
         <v>33</v>
       </c>
@@ -36567,7 +36562,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="75" t="n">
         <v>138</v>
       </c>
@@ -36587,7 +36582,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="85" t="n">
         <v>269</v>
       </c>
@@ -36608,7 +36603,7 @@
       <c r="I40" s="88"/>
       <c r="J40" s="88"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="75" t="n">
         <v>139</v>
       </c>
@@ -36628,7 +36623,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="81" t="n">
         <v>128</v>
       </c>
@@ -36646,7 +36641,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="75" t="n">
         <v>297</v>
       </c>
@@ -36664,7 +36659,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="n">
         <v>49</v>
       </c>
@@ -36687,7 +36682,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="75" t="n">
         <v>152</v>
       </c>
@@ -36707,7 +36702,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="n">
         <v>124</v>
       </c>
@@ -36725,7 +36720,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="75" t="n">
         <v>140</v>
       </c>
@@ -36743,7 +36738,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="81" t="n">
         <v>347</v>
       </c>
@@ -36763,7 +36758,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="75" t="n">
         <v>227</v>
       </c>
@@ -36792,7 +36787,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="81" t="n">
         <v>48</v>
       </c>
@@ -36812,7 +36807,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="75" t="n">
         <v>13</v>
       </c>
@@ -36832,7 +36827,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="n">
         <v>84</v>
       </c>
@@ -36850,7 +36845,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="75" t="n">
         <v>234</v>
       </c>
@@ -36879,7 +36874,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="n">
         <v>14</v>
       </c>
@@ -36899,7 +36894,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="75" t="n">
         <v>105</v>
       </c>
@@ -36919,7 +36914,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="81" t="n">
         <v>300</v>
       </c>
@@ -36939,7 +36934,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="75" t="n">
         <v>283</v>
       </c>
@@ -36959,7 +36954,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="81" t="n">
         <v>131</v>
       </c>
@@ -36988,7 +36983,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="75" t="n">
         <v>155</v>
       </c>
@@ -37014,7 +37009,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="81" t="n">
         <v>78</v>
       </c>
@@ -37034,7 +37029,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="75" t="n">
         <v>412</v>
       </c>
@@ -37054,7 +37049,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="81" t="n">
         <v>202</v>
       </c>
@@ -37083,7 +37078,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="75" t="n">
         <v>8</v>
       </c>
@@ -37103,7 +37098,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="n">
         <v>212</v>
       </c>
@@ -37121,7 +37116,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="75" t="n">
         <v>70</v>
       </c>
@@ -37141,7 +37136,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="61" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="61" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="81" t="n">
         <v>236</v>
       </c>
@@ -37170,7 +37165,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="75" t="n">
         <v>34</v>
       </c>
@@ -37190,7 +37185,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="81" t="n">
         <v>103</v>
       </c>
@@ -37200,15 +37195,26 @@
       <c r="C68" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="77"/>
+      <c r="D68" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E68" s="77" t="s">
+        <v>540</v>
+      </c>
       <c r="F68" s="78"/>
       <c r="G68" s="79"/>
       <c r="H68" s="80" t="str">
         <f aca="false">IF(OR(E68&lt;&gt;"",F68&lt;&gt;"",G68&lt;&gt;""),"Complete","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Complete</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="75" t="n">
         <v>125</v>
       </c>
@@ -37228,7 +37234,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="81" t="n">
         <v>329</v>
       </c>
@@ -37246,7 +37252,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="75" t="n">
         <v>98</v>
       </c>
@@ -37264,7 +37270,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="81" t="n">
         <v>210</v>
       </c>
@@ -37275,7 +37281,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E72" s="77" t="s">
         <v>540</v>
@@ -37287,13 +37293,13 @@
         <v>Complete</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J72" s="101" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="75" t="n">
         <v>279</v>
       </c>
@@ -37311,7 +37317,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="n">
         <v>387</v>
       </c>
@@ -37322,7 +37328,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E74" s="77" t="s">
         <v>540</v>
@@ -37334,13 +37340,13 @@
         <v>Complete</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="75" t="n">
         <v>348</v>
       </c>
@@ -37360,7 +37366,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="n">
         <v>41</v>
       </c>
@@ -37389,7 +37395,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E77" s="77" t="s">
         <v>540</v>
@@ -37401,10 +37407,10 @@
         <v>Complete</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="n">
         <v>198</v>
       </c>
@@ -37415,7 +37421,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E78" s="77" t="s">
         <v>540</v>
@@ -37427,10 +37433,10 @@
         <v>Complete</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="75" t="n">
         <v>75</v>
       </c>
@@ -37450,7 +37456,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="81" t="n">
         <v>289</v>
       </c>
@@ -37470,7 +37476,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="75" t="n">
         <v>287</v>
       </c>
@@ -37490,7 +37496,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="81" t="n">
         <v>50</v>
       </c>
@@ -37508,7 +37514,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="75" t="n">
         <v>218</v>
       </c>
@@ -37526,7 +37532,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="81" t="n">
         <v>240</v>
       </c>
@@ -37544,7 +37550,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="75" t="n">
         <v>44</v>
       </c>
@@ -37562,7 +37568,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="81" t="n">
         <v>268</v>
       </c>
@@ -37582,7 +37588,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="75" t="n">
         <v>341</v>
       </c>
@@ -37605,7 +37611,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="81" t="n">
         <v>19</v>
       </c>
@@ -37625,7 +37631,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="75" t="n">
         <v>55</v>
       </c>
@@ -37645,7 +37651,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="81" t="n">
         <v>166</v>
       </c>
@@ -37663,7 +37669,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="75" t="n">
         <v>149</v>
       </c>
@@ -37685,10 +37691,10 @@
       </c>
       <c r="I91" s="103"/>
       <c r="J91" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="81" t="n">
         <v>395</v>
       </c>
@@ -37706,7 +37712,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="75" t="n">
         <v>207</v>
       </c>
@@ -37717,7 +37723,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>540</v>
@@ -37729,10 +37735,10 @@
         <v>Complete</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37746,7 +37752,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E94" s="77" t="s">
         <v>540</v>
@@ -37758,7 +37764,7 @@
         <v>Complete</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37772,7 +37778,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E95" s="77" t="s">
         <v>540</v>
@@ -37784,10 +37790,10 @@
         <v>Complete</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="81" t="n">
         <v>378</v>
       </c>
@@ -37828,7 +37834,7 @@
         <v>Complete</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37854,10 +37860,10 @@
         <v>Complete</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="75" t="n">
         <v>315</v>
       </c>
@@ -37875,7 +37881,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="81" t="n">
         <v>371</v>
       </c>
@@ -37893,7 +37899,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="75" t="n">
         <v>29</v>
       </c>
@@ -37911,7 +37917,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="104" t="n">
         <v>242</v>
       </c>
@@ -37922,7 +37928,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="92" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E102" s="77" t="s">
         <v>540</v>
@@ -37934,10 +37940,10 @@
         <v>Complete</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="61" t="n">
         <v>253</v>
       </c>
@@ -37957,7 +37963,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="61" t="n">
         <v>1428</v>
       </c>
@@ -37977,7 +37983,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="61" t="n">
         <v>362</v>
       </c>
@@ -37997,7 +38003,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="61" t="n">
         <v>1197</v>
       </c>
@@ -38017,7 +38023,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="61" t="n">
         <v>348</v>
       </c>
@@ -38037,7 +38043,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="61" t="n">
         <v>314</v>
       </c>
@@ -38057,7 +38063,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="61" t="n">
         <v>1086</v>
       </c>
@@ -38077,7 +38083,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="71" t="n">
         <v>1060</v>
       </c>
@@ -38097,7 +38103,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="71" t="n">
         <v>311</v>
       </c>
@@ -38117,7 +38123,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="61" t="n">
         <v>359</v>
       </c>
@@ -38137,7 +38143,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="61" t="n">
         <v>1229</v>
       </c>
@@ -38157,7 +38163,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="61" t="n">
         <v>353</v>
       </c>
@@ -38177,7 +38183,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="61" t="n">
         <v>694</v>
       </c>
@@ -38197,7 +38203,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="61" t="n">
         <v>277</v>
       </c>
@@ -38217,7 +38223,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="61" t="n">
         <v>545</v>
       </c>
@@ -38235,7 +38241,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="61" t="n">
         <v>286</v>
       </c>
@@ -38271,7 +38277,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="61" t="n">
         <v>249</v>
       </c>
@@ -38282,13 +38288,13 @@
         <v>24</v>
       </c>
       <c r="D120" s="92" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E120" s="110" t="s">
         <v>540</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G120" s="79"/>
       <c r="H120" s="80" t="str">
@@ -38296,10 +38302,10 @@
         <v>Complete</v>
       </c>
       <c r="I120" s="92" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="61" t="n">
         <v>1236</v>
       </c>
@@ -38317,7 +38323,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="61" t="n">
         <v>723</v>
       </c>
@@ -38353,7 +38359,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="61" t="n">
         <v>426</v>
       </c>
@@ -38371,7 +38377,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="61" t="n">
         <v>256</v>
       </c>
@@ -38389,7 +38395,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="61" t="n">
         <v>366</v>
       </c>
@@ -38407,7 +38413,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="61" t="n">
         <v>1244</v>
       </c>
@@ -38425,7 +38431,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="61" t="n">
         <v>1167</v>
       </c>
@@ -38461,7 +38467,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="61" t="n">
         <v>616</v>
       </c>
@@ -38479,7 +38485,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="61" t="n">
         <v>333</v>
       </c>
@@ -38497,7 +38503,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="61" t="n">
         <v>490</v>
       </c>
@@ -38515,7 +38521,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="61" t="n">
         <v>716</v>
       </c>
@@ -38538,7 +38544,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="61" t="n">
         <v>1057</v>
       </c>
@@ -38574,7 +38580,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="61" t="n">
         <v>259</v>
       </c>
@@ -38592,7 +38598,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="61" t="n">
         <v>323</v>
       </c>
@@ -38615,10 +38621,10 @@
         <v>Complete</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="61" t="n">
         <v>247</v>
       </c>
@@ -38636,7 +38642,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="61" t="n">
         <v>1429</v>
       </c>
@@ -38654,7 +38660,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="61" t="n">
         <v>163</v>
       </c>
@@ -38672,7 +38678,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="61" t="n">
         <v>159</v>
       </c>
@@ -38690,7 +38696,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="61" t="n">
         <v>250</v>
       </c>
@@ -38708,7 +38714,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="61" t="n">
         <v>285</v>
       </c>
@@ -38744,7 +38750,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="61" t="n">
         <v>280</v>
       </c>
@@ -38762,7 +38768,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="61" t="n">
         <v>1166</v>
       </c>
@@ -38780,7 +38786,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="61" t="n">
         <v>742</v>
       </c>
@@ -38798,7 +38804,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="61" t="n">
         <v>635</v>
       </c>
@@ -38816,7 +38822,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="61" t="n">
         <v>361</v>
       </c>
@@ -38834,7 +38840,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="61" t="n">
         <v>281</v>
       </c>
@@ -38845,7 +38851,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E150" s="110" t="s">
         <v>540</v>
@@ -38857,7 +38863,7 @@
         <v>Complete</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38878,7 +38884,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="61" t="n">
         <v>271</v>
       </c>
@@ -38896,7 +38902,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="61" t="n">
         <v>1066</v>
       </c>
@@ -38914,7 +38920,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="61" t="n">
         <v>161</v>
       </c>
@@ -38950,7 +38956,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="61" t="n">
         <v>320</v>
       </c>
@@ -38968,7 +38974,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="61" t="n">
         <v>1245</v>
       </c>
@@ -38986,7 +38992,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="61" t="n">
         <v>505</v>
       </c>
@@ -39004,7 +39010,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="61" t="n">
         <v>364</v>
       </c>
@@ -39022,7 +39028,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="61" t="n">
         <v>562</v>
       </c>
@@ -39040,7 +39046,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="61" t="n">
         <v>1102</v>
       </c>
@@ -39076,7 +39082,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="61" t="n">
         <v>1151</v>
       </c>
@@ -39094,7 +39100,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="61" t="n">
         <v>536</v>
       </c>
@@ -39112,7 +39118,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="61" t="n">
         <v>186</v>
       </c>
@@ -39130,7 +39136,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="61" t="n">
         <v>1120</v>
       </c>
@@ -39148,7 +39154,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="61" t="n">
         <v>244</v>
       </c>
@@ -39166,7 +39172,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="61" t="n">
         <v>1087</v>
       </c>
@@ -39184,7 +39190,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="61" t="n">
         <v>737</v>
       </c>
@@ -39202,7 +39208,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="61" t="n">
         <v>1062</v>
       </c>
@@ -39220,7 +39226,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="61" t="n">
         <v>484</v>
       </c>
@@ -39256,7 +39262,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="61" t="n">
         <v>267</v>
       </c>
@@ -39274,7 +39280,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="61" t="n">
         <v>702</v>
       </c>
@@ -39292,7 +39298,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="61" t="n">
         <v>325</v>
       </c>
@@ -39310,7 +39316,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="61" t="n">
         <v>1059</v>
       </c>
@@ -39328,7 +39334,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="61" t="n">
         <v>708</v>
       </c>
@@ -39346,7 +39352,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="61" t="n">
         <v>651</v>
       </c>
@@ -39364,7 +39370,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="61" t="n">
         <v>582</v>
       </c>
@@ -39382,7 +39388,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="61" t="n">
         <v>1522</v>
       </c>
@@ -39438,7 +39444,7 @@
       </c>
       <c r="I182" s="115"/>
     </row>
-    <row r="183" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="61" t="n">
         <v>1265</v>
       </c>
@@ -39461,13 +39467,13 @@
         <v>Complete</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="61" t="n">
         <v>1228</v>
       </c>
@@ -39478,7 +39484,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E184" s="110" t="s">
         <v>540</v>
@@ -39490,13 +39496,13 @@
         <v>Complete</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="61" t="n">
         <v>1135</v>
       </c>
@@ -39507,7 +39513,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E185" s="110" t="s">
         <v>540</v>
@@ -39519,7 +39525,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="61" t="n">
         <v>1055</v>
       </c>
@@ -39530,7 +39536,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E186" s="110" t="s">
         <v>540</v>
@@ -39542,13 +39548,13 @@
         <v>Complete</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="61" t="n">
         <v>298</v>
       </c>
@@ -39571,10 +39577,10 @@
         <v>Complete</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="61" t="n">
         <v>251</v>
       </c>
@@ -39585,7 +39591,7 @@
         <v>24</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E188" s="110" t="s">
         <v>540</v>
@@ -39597,13 +39603,13 @@
         <v>Complete</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="61" t="n">
         <v>255</v>
       </c>
@@ -39626,10 +39632,10 @@
         <v>Complete</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="61" t="n">
         <v>1100</v>
       </c>
@@ -39640,7 +39646,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E190" s="110" t="s">
         <v>540</v>
@@ -39652,10 +39658,10 @@
         <v>Complete</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="61" t="n">
         <v>1485</v>
       </c>
@@ -39681,7 +39687,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="61" t="n">
         <v>261</v>
       </c>
@@ -39704,10 +39710,10 @@
         <v>Complete</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="61" t="n">
         <v>1101</v>
       </c>
@@ -39718,7 +39724,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E193" s="110" t="s">
         <v>540</v>
@@ -39730,10 +39736,10 @@
         <v>Complete</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="61" t="n">
         <v>1506</v>
       </c>
@@ -39744,7 +39750,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E194" s="110" t="s">
         <v>540</v>
@@ -39759,7 +39765,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="61" t="n">
         <v>369</v>
       </c>
@@ -39782,10 +39788,10 @@
         <v>Complete</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="61" t="n">
         <v>1490</v>
       </c>
@@ -39808,13 +39814,13 @@
         <v>Complete</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="61" t="n">
         <v>370</v>
       </c>
@@ -39825,7 +39831,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E197" s="110" t="s">
         <v>540</v>
@@ -39837,10 +39843,10 @@
         <v>Complete</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="118" t="n">
         <v>510</v>
       </c>
@@ -39851,7 +39857,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="121" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E198" s="122" t="s">
         <v>540</v>
@@ -39864,10 +39870,10 @@
       </c>
       <c r="I198" s="121"/>
       <c r="J198" s="121" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="61" t="n">
         <v>1198</v>
       </c>
@@ -39878,7 +39884,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E199" s="110" t="s">
         <v>540</v>
@@ -39890,10 +39896,10 @@
         <v>Complete</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="61" t="n">
         <v>487</v>
       </c>
@@ -39904,7 +39910,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E200" s="110" t="s">
         <v>540</v>
@@ -39916,10 +39922,10 @@
         <v>Complete</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="61" t="n">
         <v>360</v>
       </c>
@@ -39942,13 +39948,13 @@
         <v>Complete</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="61" t="n">
         <v>549</v>
       </c>
@@ -39971,14 +39977,43 @@
         <v>Complete</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="61" t="n">
+        <v>102</v>
+      </c>
+      <c r="B203" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E203" s="110" t="s">
+        <v>540</v>
+      </c>
+      <c r="F203" s="78"/>
+      <c r="G203" s="79"/>
+      <c r="H203" s="80" t="str">
+        <f aca="false">IF(OR(E203&lt;&gt;"",F203&lt;&gt;"",G203&lt;&gt;""),"Complete","")</f>
+        <v>Complete</v>
+      </c>
+      <c r="I203" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="J203" s="0" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B102">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B202">
+  <conditionalFormatting sqref="B103:B203">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -40235,7 +40270,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>24</v>
@@ -40249,7 +40284,7 @@
         <v>243</v>
       </c>
       <c r="C4" s="130" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D4" s="131" t="s">
         <v>26</v>
@@ -40316,7 +40351,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" s="72" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40334,7 +40369,7 @@
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40371,7 +40406,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>266</v>
